--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="grilla" sheetId="3" r:id="rId2"/>
+    <sheet name="pruebas" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -32,12 +33,24 @@
     <t>ganancia</t>
   </si>
   <si>
+    <t>para entrar en LONG</t>
+  </si>
+  <si>
     <t>capital</t>
   </si>
   <si>
     <t>perdida</t>
   </si>
   <si>
+    <t>distancia</t>
+  </si>
+  <si>
+    <t>incremento</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
     <t>cantidad</t>
   </si>
   <si>
@@ -47,51 +60,52 @@
     <t>cantidad en usdt</t>
   </si>
   <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>salida</t>
+  </si>
+  <si>
+    <t>variacion porc</t>
+  </si>
+  <si>
+    <t>cantidad crypto</t>
+  </si>
+  <si>
+    <t>tamaño usdt</t>
+  </si>
+  <si>
+    <t>pnl</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ataque</t>
+  </si>
+  <si>
     <t>precio de la posicion al final</t>
   </si>
   <si>
     <t>precio stop deberia ser</t>
-  </si>
-  <si>
-    <t>entrada</t>
-  </si>
-  <si>
-    <t>salida</t>
-  </si>
-  <si>
-    <t>variacion porc</t>
-  </si>
-  <si>
-    <t>cantidad crypto</t>
-  </si>
-  <si>
-    <t>tamaño usdt</t>
-  </si>
-  <si>
-    <t>pnl</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ataque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -278,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +307,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -499,12 +519,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -520,7 +681,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -532,7 +693,93 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -547,37 +794,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -689,193 +906,253 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -946,7 +1223,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -954,6 +1231,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1272,48 +1559,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="15" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="35" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="19">
+      <c r="A2" s="39">
         <v>205</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="40">
         <v>0.75</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="39">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="20">
+      <c r="A5" s="40">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="40">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1327,287 +1614,729 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.44444444444444" style="1"/>
-    <col min="3" max="3" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.11111111111111" style="1" customWidth="1"/>
-    <col min="12" max="14" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44444444444444" style="1"/>
+    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1"/>
+    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77777777777778" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.11111111111111" style="1" customWidth="1"/>
+    <col min="13" max="15" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="19" max="16382" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="8.44444444444444" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" ht="15.15" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:18">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="M2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="N2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="O2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P2" s="31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
-      <c r="A2" s="6">
+      <c r="Q2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:18">
+      <c r="A3" s="10">
         <v>308.99</v>
       </c>
-      <c r="B2" s="6">
-        <f>A2*10/100</f>
+      <c r="B3" s="10">
+        <f>A3*10/100</f>
         <v>30.899</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C3" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="12">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14">
         <v>1.3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G3" s="15">
         <v>32.28</v>
       </c>
-      <c r="F2" s="9">
-        <f t="shared" ref="F2:F11" si="0">D2*E2</f>
+      <c r="H3" s="16">
+        <f t="shared" ref="H3:H12" si="0">F3*G3</f>
         <v>41.964</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="13">
-        <f>H9</f>
-        <v>30.6048142784979</v>
-      </c>
-      <c r="M2" s="13">
-        <f>I9</f>
-        <v>30.1309032355532</v>
-      </c>
-      <c r="N2" s="13">
-        <f>((M2/L2)-1)*100</f>
-        <v>-1.54848527631073</v>
-      </c>
-      <c r="O2" s="13">
-        <f>D9</f>
-        <v>65.2</v>
-      </c>
-      <c r="P2" s="13">
-        <f>O2*M2</f>
-        <v>1964.53489095807</v>
-      </c>
-      <c r="Q2" s="13">
-        <f>N2/100*O2*M2</f>
-        <v>-30.4205335344727</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:17">
-      <c r="C3" s="7">
+      <c r="L3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="33">
+        <f>J13</f>
+        <v>29.4807123864744</v>
+      </c>
+      <c r="N3" s="33">
+        <f>K13</f>
+        <v>29.014884430236</v>
+      </c>
+      <c r="O3" s="33">
+        <f>((N3/M3)-1)*100</f>
+        <v>-1.58011092178387</v>
+      </c>
+      <c r="P3" s="33">
+        <f>F13</f>
+        <v>66.331356</v>
+      </c>
+      <c r="Q3" s="33">
+        <f>P3*N3</f>
+        <v>1924.59662844084</v>
+      </c>
+      <c r="R3" s="33">
+        <f>O3/100*P3*N3</f>
+        <v>-30.4107615262779</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="5:18">
+      <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="E3" s="6">
-        <f>E2*(1-1/100)</f>
-        <v>31.9572</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="F4" s="18">
+        <f>F3*(1+($D$3/100))</f>
+        <v>1.69</v>
+      </c>
+      <c r="G4" s="19">
+        <f>G3*(1-$C$3/100)</f>
+        <v>31.73124</v>
+      </c>
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
-        <v>51.13152</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="13">
+        <v>53.6257956</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="33">
         <v>100</v>
       </c>
-      <c r="M3" s="13">
+      <c r="N4" s="33">
         <v>200</v>
       </c>
-      <c r="N3" s="13">
-        <f>((L3/M3)-1)*100</f>
+      <c r="O4" s="33">
+        <f>((M4/N4)-1)*100</f>
         <v>-50</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13">
-        <f>O3*M3</f>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33">
+        <f>P4*N4</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="13">
-        <f>N3/100*O3*M3</f>
+      <c r="R4" s="33">
+        <f>O4/100*P4*N4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:6">
-      <c r="C4" s="7">
+    <row r="5" s="1" customFormat="1" spans="5:8">
+      <c r="E5" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="E4" s="6">
-        <f>E3*(1-1/100)</f>
-        <v>31.637628</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="F5" s="18">
+        <f t="shared" ref="F5:F11" si="1">F4*(1+($D$3/100))</f>
+        <v>2.197</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" ref="G5:G11" si="2">G4*(1-$C$3/100)</f>
+        <v>31.19180892</v>
+      </c>
+      <c r="H5" s="20">
         <f t="shared" si="0"/>
-        <v>66.4390188</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:6">
-      <c r="C5" s="7">
+        <v>68.52840419724</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="5:8">
+      <c r="E6" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="E5" s="6">
-        <f>E4*(1-1/100)</f>
-        <v>31.32125172</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
+        <v>2.8561</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="2"/>
+        <v>30.66154816836</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v>87.699504816</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
-      <c r="C6" s="7">
+        <v>87.572447723653</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="5:8">
+      <c r="E7" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="E6" s="6">
-        <f>E5*(1-1/100)</f>
-        <v>31.0080392028</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>3.71293</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="2"/>
+        <v>30.1403018494979</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" si="0"/>
-        <v>114.72974505036</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
-      <c r="C7" s="7">
+        <v>111.908830946056</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E8" s="17">
         <v>5</v>
       </c>
-      <c r="D7" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="E7" s="6">
-        <f>E6*(1-1/100)</f>
-        <v>30.697958810772</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="F8" s="21">
+        <f t="shared" si="1"/>
+        <v>4.826809</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="2"/>
+        <v>29.6279167180564</v>
+      </c>
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
-        <v>147.350202291706</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <f>SUM(D2:D7)*3</f>
-        <v>48.9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>30.391</v>
-      </c>
-      <c r="F8" s="9">
-        <f>D8*E8</f>
-        <v>1486.1199</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:9">
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
-        <f>SUM(D2:D8)</f>
-        <v>65.2</v>
-      </c>
-      <c r="E9" s="11">
-        <f>MIN(E2:E8)</f>
-        <v>30.391</v>
-      </c>
-      <c r="F9" s="11">
-        <f>SUM(F2:F8)</f>
-        <v>1995.43389095807</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f>F9/D9</f>
-        <v>30.6048142784979</v>
-      </c>
-      <c r="I9" s="10">
-        <f>((-B2/F9)+1)*H9</f>
-        <v>30.1309032355532</v>
+        <v>143.008295065965</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E9" s="23">
+        <v>6</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24">
+        <f>F9*G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E10" s="23">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24">
+        <f>F10*G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E11" s="23">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24">
+        <f>F11*G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.15" spans="5:11">
+      <c r="E12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="26">
+        <f>SUM(F3:F11)*3</f>
+        <v>49.748517</v>
+      </c>
+      <c r="G12" s="27">
+        <f>MIN(G3:G11)*(1-$C$3/100)</f>
+        <v>29.1242421338495</v>
+      </c>
+      <c r="H12" s="28">
+        <f>F12*G12</f>
+        <v>1448.88785490793</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="5:11">
+      <c r="E13" s="29"/>
+      <c r="F13" s="30">
+        <f>SUM(F3:F12)</f>
+        <v>66.331356</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30">
+        <f>SUM(H3:H12)</f>
+        <v>1955.49562844084</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30">
+        <f>H13/F13</f>
+        <v>29.4807123864744</v>
+      </c>
+      <c r="K13" s="30">
+        <f>((-B3/H13)+1)*J13</f>
+        <v>29.014884430236</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$B$2</formula>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>$B$2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>$E$9</formula>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>$G$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
-      <formula>$E$9</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>$G$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
-      <formula>$E$9</formula>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>$G$13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
-      <formula>$E$8</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+      <formula>$G$13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
-      <formula>$I$9</formula>
+      <formula>$G$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
+      <formula>$K$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.22222222222222" style="1"/>
+    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44444444444444" style="1"/>
+    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77777777777778" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.11111111111111" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="20" max="16383" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="8.44444444444444" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
+      <c r="A3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="10">
+        <f>A3*10/100</f>
+        <v>200</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="12">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G3" s="15">
+        <v>32.28</v>
+      </c>
+      <c r="H3" s="16">
+        <f t="shared" ref="H3:H12" si="0">F3*G3</f>
+        <v>41.964</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="33">
+        <f>J13</f>
+        <v>28.0843019110694</v>
+      </c>
+      <c r="O3" s="33">
+        <f>K13</f>
+        <v>26.8829418931908</v>
+      </c>
+      <c r="P3" s="33">
+        <f>((O3/N3)-1)*100</f>
+        <v>-4.27769229116929</v>
+      </c>
+      <c r="Q3" s="33">
+        <f>F13</f>
+        <v>166.477989132</v>
+      </c>
+      <c r="R3" s="33">
+        <f>Q3*O3</f>
+        <v>4475.41810833081</v>
+      </c>
+      <c r="S3" s="33">
+        <f>P3/100*Q3*O3</f>
+        <v>-191.444615417662</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="5:19">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <f>F3*(1+($D$3/100))</f>
+        <v>1.69</v>
+      </c>
+      <c r="G4" s="19">
+        <f>G3*(1-$C$3/100)</f>
+        <v>31.73124</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="0"/>
+        <v>53.6257956</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="33">
+        <v>100</v>
+      </c>
+      <c r="O4" s="33">
+        <v>200</v>
+      </c>
+      <c r="P4" s="33">
+        <f>((N4/O4)-1)*100</f>
+        <v>-50</v>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33">
+        <f>Q4*O4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="33">
+        <f>P4/100*Q4*O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="5:8">
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <f>F4*(1+($D$3/100))</f>
+        <v>2.197</v>
+      </c>
+      <c r="G5" s="19">
+        <f>G4*(1-$C$3/100)</f>
+        <v>31.19180892</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>68.52840419724</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="5:8">
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18">
+        <f>F5*(1+($D$3/100))</f>
+        <v>2.8561</v>
+      </c>
+      <c r="G6" s="19">
+        <f>G5*(1-$C$3/100)</f>
+        <v>30.66154816836</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>87.572447723653</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="5:8">
+      <c r="E7" s="17">
+        <v>4</v>
+      </c>
+      <c r="F7" s="18">
+        <f>F6*(1+($D$3/100))</f>
+        <v>3.71293</v>
+      </c>
+      <c r="G7" s="19">
+        <f>G6*(1-$C$3/100)</f>
+        <v>30.1403018494979</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>111.908830946056</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="21">
+        <f>F7*(1+($D$3/100))</f>
+        <v>4.826809</v>
+      </c>
+      <c r="G8" s="22">
+        <f>G7*(1-$C$3/100)</f>
+        <v>29.6279167180564</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>143.008295065965</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E9" s="23">
+        <v>6</v>
+      </c>
+      <c r="F9" s="21">
+        <f>F8*(1+($D$3/100))</f>
+        <v>6.2748517</v>
+      </c>
+      <c r="G9" s="22">
+        <f>G8*(1-$C$3/100)</f>
+        <v>29.1242421338495</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>182.750300264797</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E10" s="23">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21">
+        <f>F9*(1+($D$3/100))</f>
+        <v>8.15730721</v>
+      </c>
+      <c r="G10" s="22">
+        <f>G9*(1-$C$3/100)</f>
+        <v>28.629130017574</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>233.536608708384</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15.15" spans="5:8">
+      <c r="E11" s="23">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21">
+        <f>F10*(1+($D$3/100))</f>
+        <v>10.604499373</v>
+      </c>
+      <c r="G11" s="22">
+        <f>G10*(1-$C$3/100)</f>
+        <v>28.1424348072753</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
+        <v>298.436432268444</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.15" spans="5:11">
+      <c r="E12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="26">
+        <f>SUM(F3:F11)*3</f>
+        <v>124.858491849</v>
+      </c>
+      <c r="G12" s="27">
+        <f>MIN(G3:G11)*(1-$C$3/100)</f>
+        <v>27.6640134155516</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="0"/>
+        <v>3454.08699355627</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="5:11">
+      <c r="E13" s="29"/>
+      <c r="F13" s="30">
+        <f>SUM(F3:F12)</f>
+        <v>166.477989132</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30">
+        <f>SUM(H3:H12)</f>
+        <v>4675.41810833081</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30">
+        <f>H13/F13</f>
+        <v>28.0843019110694</v>
+      </c>
+      <c r="K13" s="30">
+        <f>((-B3/H13)+1)*J13</f>
+        <v>26.8829418931908</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
+      <formula>$K$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+      <formula>$G$12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+      <formula>$G$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>$G$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>$G$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>$G$12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
-    <sheet name="grilla" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="SELL" sheetId="3" r:id="rId2"/>
+    <sheet name="BUY" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -33,73 +33,76 @@
     <t>ganancia</t>
   </si>
   <si>
+    <t>para entrar en SELL</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>perdida</t>
+  </si>
+  <si>
+    <t>distancia</t>
+  </si>
+  <si>
+    <t>incremento</t>
+  </si>
+  <si>
+    <t>apalancamiento</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>cantidad en usdt</t>
+  </si>
+  <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>salida</t>
+  </si>
+  <si>
+    <t>variacion porc</t>
+  </si>
+  <si>
+    <t>cantidad crypto</t>
+  </si>
+  <si>
+    <t>tamaño usdt</t>
+  </si>
+  <si>
+    <t>pnl</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ataque</t>
+  </si>
+  <si>
+    <t>precio de la posicion al final</t>
+  </si>
+  <si>
+    <t>precio stop deberia ser</t>
+  </si>
+  <si>
+    <t>cantidad de compensaciones menor a</t>
+  </si>
+  <si>
     <t>para entrar en LONG</t>
   </si>
   <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>perdida</t>
-  </si>
-  <si>
-    <t>distancia</t>
-  </si>
-  <si>
-    <t>incremento</t>
-  </si>
-  <si>
-    <t>apalancamiento</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>cantidad en usdt</t>
-  </si>
-  <si>
-    <t>entrada</t>
-  </si>
-  <si>
-    <t>salida</t>
-  </si>
-  <si>
-    <t>variacion porc</t>
-  </si>
-  <si>
-    <t>cantidad crypto</t>
-  </si>
-  <si>
-    <t>tamaño usdt</t>
-  </si>
-  <si>
-    <t>pnl</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
     <t>long</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ataque</t>
-  </si>
-  <si>
-    <t>precio de la posicion al final</t>
-  </si>
-  <si>
-    <t>precio stop deberia ser</t>
-  </si>
-  <si>
-    <t>cantidad de compensaciones menor a</t>
   </si>
 </sst>
 </file>
@@ -298,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +969,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,28 +990,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,92 +1029,92 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1197,13 +1206,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1274,7 +1286,27 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1600,48 +1632,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="34" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="34" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="35" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="35" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="38">
+      <c r="A2" s="39">
         <v>205</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <v>0.75</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="39">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="39">
+      <c r="A5" s="40">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="40">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1656,10 +1688,439 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="1"/>
+    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.11111111111111" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88888888888889" style="1" customWidth="1"/>
+    <col min="20" max="16383" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="8.44444444444444" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
+      <c r="A1" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
+      <c r="A3" s="8">
+        <v>308.99</v>
+      </c>
+      <c r="B3" s="8">
+        <f>A3*10/100</f>
+        <v>30.899</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="10">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13">
+        <v>-23.9</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1.2922</v>
+      </c>
+      <c r="I3" s="27">
+        <f t="shared" ref="I3:I17" si="0">G3*H3</f>
+        <v>-30.88358</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="29">
+        <f>K18</f>
+        <v>1.45946289888224</v>
+      </c>
+      <c r="O3" s="29">
+        <f>L18</f>
+        <v>1.47301036670448</v>
+      </c>
+      <c r="P3" s="29">
+        <f>((O3/N3)-1)*100</f>
+        <v>0.928250237303896</v>
+      </c>
+      <c r="Q3" s="29">
+        <f>G18</f>
+        <v>-2280.79523092</v>
+      </c>
+      <c r="R3" s="29">
+        <f>Q3*O3</f>
+        <v>-3359.6350194753</v>
+      </c>
+      <c r="S3" s="29">
+        <f>P3/100*Q3*O3</f>
+        <v>-31.1858200408242</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="6:9">
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <f>G3*(1+$D$3/100)</f>
+        <v>-31.07</v>
+      </c>
+      <c r="H4" s="17">
+        <f>H3*(1+$C$3/100)</f>
+        <v>1.3141674</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" si="0"/>
+        <v>-40.831181118</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="6:9">
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <f>G4*(1+$D$3/100)</f>
+        <v>-40.391</v>
+      </c>
+      <c r="H5" s="17">
+        <f>H4*(1+$C$3/100)</f>
+        <v>1.3365082458</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>-53.9829045561078</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="6:9">
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16">
+        <f>G5*(1+$D$3/100)</f>
+        <v>-52.5083</v>
+      </c>
+      <c r="H6" s="17">
+        <f>H5*(1+$C$3/100)</f>
+        <v>1.3592288859786</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>-71.3707981136301</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="6:9">
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16">
+        <f>G6*(1+$D$3/100)</f>
+        <v>-68.26079</v>
+      </c>
+      <c r="H7" s="17">
+        <f>H6*(1+$C$3/100)</f>
+        <v>1.38233577704024</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="0"/>
+        <v>-94.3593321860303</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="6:9">
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16">
+        <f>G7*(1+$D$3/100)</f>
+        <v>-88.739027</v>
+      </c>
+      <c r="H8" s="17">
+        <f>H7*(1+$C$3/100)</f>
+        <v>1.40583548524992</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="0"/>
+        <v>-124.752473083151</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="6:9">
+      <c r="F9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="16">
+        <f>G8*(1+$D$3/100)</f>
+        <v>-115.3607351</v>
+      </c>
+      <c r="H9" s="17">
+        <f>H8*(1+$C$3/100)</f>
+        <v>1.42973468849917</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="0"/>
+        <v>-164.935244663234</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="6:9">
+      <c r="F10" s="15">
+        <v>7</v>
+      </c>
+      <c r="G10" s="16">
+        <f>G9*(1+$D$3/100)</f>
+        <v>-149.96895563</v>
+      </c>
+      <c r="H10" s="17">
+        <f>H9*(1+$C$3/100)</f>
+        <v>1.45404017820365</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="0"/>
+        <v>-218.060886969261</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="6:9">
+      <c r="F11" s="15">
+        <v>8</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="6:9">
+      <c r="F12" s="15">
+        <v>9</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="6:9">
+      <c r="F13" s="15">
+        <v>10</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="6:9">
+      <c r="F14" s="15">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="6:9">
+      <c r="F15" s="15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.15" spans="6:9">
+      <c r="F16" s="15">
+        <v>13</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.15" spans="6:12">
+      <c r="F17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="19">
+        <f>SUM(G3:G15)*3</f>
+        <v>-1710.59642319</v>
+      </c>
+      <c r="H17" s="20">
+        <f>MAX(H3:H16)*(1+$C$3/100)</f>
+        <v>1.47875886123312</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" si="0"/>
+        <v>-2529.55961878589</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="6:12">
+      <c r="F18" s="21"/>
+      <c r="G18" s="22">
+        <f>SUM(G3:G17)</f>
+        <v>-2280.79523092</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
+        <f>SUM(I3:I17)</f>
+        <v>-3328.7360194753</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22">
+        <f>I18/G18</f>
+        <v>1.45946289888224</v>
+      </c>
+      <c r="L18" s="22">
+        <f>((-B3/I18)+1)*K18</f>
+        <v>1.47301036670448</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15.15"/>
+    <row r="20" s="1" customFormat="1" ht="15.15" spans="1:1">
+      <c r="A20" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15.15" spans="1:1">
+      <c r="A21" s="24">
+        <f>TRUNC(LOG10((-B3+I18)/(G18*H3))/LOG10(1-(C3/100)))</f>
+        <v>-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+      <formula>$A$3*$E$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+      <formula>$A$3*$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+      <formula>$H$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+      <formula>$H$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThan">
+      <formula>$H$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
+      <formula>$H$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
+      <formula>$H$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+      <formula>$L$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>$H$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>$H$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F16">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>$A$21+1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1687,7 +2148,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="1:19">
@@ -1758,78 +2219,56 @@
         <v>21</v>
       </c>
       <c r="G3" s="13">
-        <v>2.61</v>
+        <v>4.8</v>
       </c>
       <c r="H3" s="14">
-        <v>11.813</v>
+        <v>6.46</v>
       </c>
       <c r="I3" s="27">
         <f t="shared" ref="I3:I17" si="0">G3*H3</f>
-        <v>30.83193</v>
+        <v>31.008</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N3" s="29">
         <f>K18</f>
-        <v>10.9339956563195</v>
+        <v>5.78214384144893</v>
       </c>
       <c r="O3" s="29">
         <f>L18</f>
-        <v>10.606641063672</v>
+        <v>5.69040096733967</v>
       </c>
       <c r="P3" s="29">
         <f>((O3/N3)-1)*100</f>
-        <v>-2.99391551759329</v>
+        <v>-1.58665845445786</v>
       </c>
       <c r="Q3" s="29">
         <f>G18</f>
-        <v>94.39</v>
+        <v>336.8</v>
       </c>
       <c r="R3" s="29">
         <f>Q3*O3</f>
-        <v>1001.16085</v>
+        <v>1916.5270458</v>
       </c>
       <c r="S3" s="29">
         <f>P3/100*Q3*O3</f>
-        <v>-29.9739100442189</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="6:19">
+        <v>-30.4087384041571</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="6:9">
       <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="16">
-        <v>3.39</v>
+        <v>6.2</v>
       </c>
       <c r="H4" s="17">
-        <v>11.612</v>
+        <v>6.35</v>
       </c>
       <c r="I4" s="30">
         <f t="shared" si="0"/>
-        <v>39.36468</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="29">
-        <v>100</v>
-      </c>
-      <c r="O4" s="29">
-        <v>200</v>
-      </c>
-      <c r="P4" s="29">
-        <f>((N4/O4)-1)*100</f>
-        <v>-50</v>
-      </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29">
-        <f>Q4*O4</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="29">
-        <f>P4/100*Q4*O4</f>
-        <v>0</v>
+        <v>39.37</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="6:9">
@@ -1837,14 +2276,14 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>4.41</v>
+        <v>8.1</v>
       </c>
       <c r="H5" s="17">
-        <v>11.411</v>
+        <v>6.24</v>
       </c>
       <c r="I5" s="30">
         <f t="shared" si="0"/>
-        <v>50.32251</v>
+        <v>50.544</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="6:9">
@@ -1852,14 +2291,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="16">
-        <v>5.73</v>
+        <v>10.5</v>
       </c>
       <c r="H6" s="17">
-        <v>11.211</v>
+        <v>6.131</v>
       </c>
       <c r="I6" s="30">
         <f t="shared" si="0"/>
-        <v>64.23903</v>
+        <v>64.3755</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="6:9">
@@ -1867,36 +2306,44 @@
         <v>4</v>
       </c>
       <c r="G7" s="16">
-        <v>7.45</v>
+        <v>13.7</v>
       </c>
       <c r="H7" s="17">
-        <v>11.01</v>
+        <v>6.021</v>
       </c>
       <c r="I7" s="30">
         <f t="shared" si="0"/>
-        <v>82.0245</v>
+        <v>82.4877</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="6:9">
       <c r="F8" s="15">
         <v>5</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="16">
+        <v>17.8</v>
+      </c>
+      <c r="H8" s="17">
+        <v>5.911</v>
+      </c>
       <c r="I8" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105.2158</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="6:9">
       <c r="F9" s="15">
         <v>6</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G9" s="16">
+        <v>23.1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>5.801</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="0"/>
+        <v>134.0031</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="6:9">
@@ -1905,7 +2352,7 @@
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1916,7 +2363,7 @@
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1927,7 +2374,7 @@
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1938,7 +2385,7 @@
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1949,7 +2396,7 @@
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1960,7 +2407,7 @@
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1971,551 +2418,106 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="32">
+      <c r="I16" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.15" spans="6:12">
       <c r="F17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="19">
+        <f>SUM(G3:G16)*3</f>
+        <v>252.6</v>
+      </c>
+      <c r="H17" s="20">
+        <f>MIN(H3:H16)*(1-$C$3/100)</f>
+        <v>5.702383</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" si="0"/>
+        <v>1440.4219458</v>
+      </c>
+      <c r="K17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="19">
-        <v>70.8</v>
-      </c>
-      <c r="H17" s="20">
-        <v>10.809</v>
-      </c>
-      <c r="I17" s="33">
-        <f t="shared" si="0"/>
-        <v>765.2772</v>
-      </c>
-      <c r="K17" s="26" t="s">
+      <c r="L17" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="6:12">
       <c r="F18" s="21"/>
       <c r="G18" s="22">
         <f>SUM(G3:G17)</f>
-        <v>94.39</v>
+        <v>336.8</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22">
         <f>SUM(I3:I17)</f>
-        <v>1032.05985</v>
+        <v>1947.4260458</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="22">
         <f>I18/G18</f>
-        <v>10.9339956563195</v>
+        <v>5.78214384144893</v>
       </c>
       <c r="L18" s="22">
         <f>((-B3/I18)+1)*K18</f>
-        <v>10.606641063672</v>
+        <v>5.69040096733967</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.15"/>
     <row r="20" s="1" customFormat="1" ht="15.15" spans="1:1">
       <c r="A20" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="15.15" spans="1:1">
       <c r="A21" s="24">
         <f>TRUNC(LOG10((-B3+I18)/(G18*H3))/LOG10(1-(C3/100)))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
-        <f>LOG10((-B3+I18))</f>
-        <v>3.00050385835388</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>$A$3*$E$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>$A$3*$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>$H$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
       <formula>$H$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThan">
       <formula>$H$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
       <formula>$H$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThan">
       <formula>$H$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
       <formula>$L$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>$A$21+1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="36.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="1"/>
-    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.11111111111111" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="20" max="16383" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="8.44444444444444" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
-      <c r="A3" s="8">
-        <v>308.99</v>
-      </c>
-      <c r="B3" s="8">
-        <f>A3*10/100</f>
-        <v>30.899</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="D3" s="10">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="H3" s="14">
-        <v>31.138</v>
-      </c>
-      <c r="I3" s="27">
-        <f t="shared" ref="I3:I17" si="0">G3*H3</f>
-        <v>30.82662</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="29">
-        <f>K18</f>
-        <v>28.8934484853954</v>
-      </c>
-      <c r="O3" s="29">
-        <f>L18</f>
-        <v>28.0306052371976</v>
-      </c>
-      <c r="P3" s="29">
-        <f>((O3/N3)-1)*100</f>
-        <v>-2.98629375664162</v>
-      </c>
-      <c r="Q3" s="29">
-        <f>G18</f>
-        <v>35.810676</v>
-      </c>
-      <c r="R3" s="29">
-        <f>Q3*O3</f>
-        <v>1003.79492223319</v>
-      </c>
-      <c r="S3" s="29">
-        <f>P3/100*Q3*O3</f>
-        <v>-29.9762650921353</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="6:19">
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16">
-        <f>G3*(1+($D$3/100))</f>
-        <v>1.287</v>
-      </c>
-      <c r="H4" s="17">
-        <f>H3*(1-$C$3/100)</f>
-        <v>30.608654</v>
-      </c>
-      <c r="I4" s="30">
-        <f t="shared" si="0"/>
-        <v>39.393337698</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="29">
-        <v>100</v>
-      </c>
-      <c r="O4" s="29">
-        <v>200</v>
-      </c>
-      <c r="P4" s="29">
-        <f>((N4/O4)-1)*100</f>
-        <v>-50</v>
-      </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29">
-        <f>Q4*O4</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="29">
-        <f>P4/100*Q4*O4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="6:9">
-      <c r="F5" s="15">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16">
-        <f>G4*(1+($D$3/100))</f>
-        <v>1.6731</v>
-      </c>
-      <c r="H5" s="17">
-        <f>H4*(1-$C$3/100)</f>
-        <v>30.088306882</v>
-      </c>
-      <c r="I5" s="30">
-        <f t="shared" si="0"/>
-        <v>50.3407462442742</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="6:9">
-      <c r="F6" s="15">
-        <v>3</v>
-      </c>
-      <c r="G6" s="16">
-        <f>G5*(1+($D$3/100))</f>
-        <v>2.17503</v>
-      </c>
-      <c r="H6" s="17">
-        <f>H5*(1-$C$3/100)</f>
-        <v>29.576805665006</v>
-      </c>
-      <c r="I6" s="30">
-        <f t="shared" si="0"/>
-        <v>64.330439625558</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="6:9">
-      <c r="F7" s="15">
-        <v>4</v>
-      </c>
-      <c r="G7" s="16">
-        <f>G6*(1+($D$3/100))</f>
-        <v>2.827539</v>
-      </c>
-      <c r="H7" s="17">
-        <f>H6*(1-$C$3/100)</f>
-        <v>29.0739999687009</v>
-      </c>
-      <c r="I7" s="30">
-        <f t="shared" si="0"/>
-        <v>82.2078687975006</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="6:9">
-      <c r="F8" s="15">
-        <v>5</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="6:9">
-      <c r="F9" s="15">
-        <v>6</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="6:9">
-      <c r="F10" s="15">
-        <v>7</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="6:9">
-      <c r="F11" s="15">
-        <v>8</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="6:9">
-      <c r="F12" s="15">
-        <v>9</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="6:9">
-      <c r="F13" s="15">
-        <v>10</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="6:9">
-      <c r="F14" s="15">
-        <v>11</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="6:9">
-      <c r="F15" s="15">
-        <v>12</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.15" spans="6:9">
-      <c r="F16" s="15">
-        <v>13</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.15" spans="6:12">
-      <c r="F17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="19">
-        <f>SUM(G3:G15)*3</f>
-        <v>26.858007</v>
-      </c>
-      <c r="H17" s="20">
-        <f>MIN(H3:H16)*(1-$C$3/100)</f>
-        <v>28.579741969233</v>
-      </c>
-      <c r="I17" s="33">
-        <f t="shared" si="0"/>
-        <v>767.594909867853</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="6:12">
-      <c r="F18" s="21"/>
-      <c r="G18" s="22">
-        <f>SUM(G3:G17)</f>
-        <v>35.810676</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
-        <f>SUM(I3:I17)</f>
-        <v>1034.69392223319</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22">
-        <f>I18/G18</f>
-        <v>28.8934484853954</v>
-      </c>
-      <c r="L18" s="22">
-        <f>((-B3/I18)+1)*K18</f>
-        <v>28.0306052371976</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15.15"/>
-    <row r="20" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A20" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A21" s="24">
-        <f>TRUNC(LOG10((-B3+I18)/(G18*H3))/LOG10(1-(C3/100)))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="1">
-        <f>LOG10((-B3+I18))</f>
-        <v>3.00164499444259</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
-      <formula>$B$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>$B$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>$A$3*$E$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>$A$3*$E$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
-      <formula>$L$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
-      <formula>$H$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
-      <formula>$H$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
-      <formula>$H$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
-      <formula>$H$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
-      <formula>$H$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$A$21+1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2428,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="19">
-        <f>SUM(G3:G16)*3</f>
+        <f>SUM(G3:G15)*3</f>
         <v>252.6</v>
       </c>
       <c r="H17" s="20">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -100,7 +100,7 @@
     <t>SHORT</t>
   </si>
   <si>
-    <t>VERSION ALL IN ONE</t>
+    <t>ALL IN ONE</t>
   </si>
   <si>
     <t>BUY</t>
@@ -120,13 +120,20 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -890,7 +897,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,134 +915,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1043,25 +1050,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,7 +1083,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,56 +1101,56 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1570,48 +1580,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="31" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="31" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="32" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="32" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="35">
+      <c r="A2" s="36">
         <v>205</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="37">
         <v>0.75</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="36">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="36">
+      <c r="A5" s="37">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="37">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1649,306 +1659,306 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>313.77</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>4.8</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>6.437</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>30.8976</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <f>I18</f>
         <v>6.25920890909091</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <f>B3*10/100</f>
         <v>31.377</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>6.2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <v>6.328</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>39.2336</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <f>J18</f>
         <v>5.54609527272727</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>1.7</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16">
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <f>((J4/J3)-1)*100</f>
         <v>-11.3930313993499</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="25">
         <f>E18</f>
         <v>44</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="25">
         <f>J6*J4</f>
         <v>244.028192</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <f>(LOG10((-B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>8.68815393698836</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16">
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <f>J5/100*J6*J4</f>
         <v>-27.802208537826</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:7">
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18">
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:7">
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="18">
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18">
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18">
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>11</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.15" spans="4:10">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21">
         <f>SUM(E3:E15)*3</f>
         <v>33</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <f>MIN(F3:F16)*(1-$B$5/100)</f>
         <v>6.220424</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <f t="shared" si="0"/>
         <v>205.273992</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:10">
-      <c r="D18" s="2"/>
-      <c r="E18" s="23">
+      <c r="D18" s="3"/>
+      <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
         <v>44</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
         <v>275.405192</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="26">
         <f>G18/E18</f>
         <v>6.25920890909091</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="26">
         <f>((-B4/G18)+1)*I18</f>
         <v>5.54609527272727</v>
       </c>
@@ -2053,344 +2063,344 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>313.77</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>-4.8</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>4</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>-19.2</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <f>I18</f>
         <v>4.51776164334389</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <f>B3*10/100</f>
         <v>31.377</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <f>E3*(1+$B$6/100)</f>
         <v>-6.24</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <f>F3*(1+$B$5/100)</f>
         <v>4.068</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>-25.38432</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <f>J18</f>
         <v>4.58626025750356</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>1.7</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <f>E4*(1+$B$6/100)</f>
         <v>-8.112</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <f>F4*(1+$B$5/100)</f>
         <v>4.137156</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>-33.560609472</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <f>((J4/J3)-1)*100</f>
         <v>1.51620690880381</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <f>E5*(1+$B$6/100)</f>
         <v>-10.5456</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <f>F5*(1+$B$5/100)</f>
         <v>4.207487652</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="17">
         <f t="shared" si="0"/>
         <v>-44.3704817829312</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="25">
         <f>E18</f>
         <v>-458.06766144</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <f>E6*(1+$B$6/100)</f>
         <v>-13.70928</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <f>F6*(1+$B$5/100)</f>
         <v>4.279014942084</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>-58.6622139652133</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="25">
         <f>J6*J4</f>
         <v>-2100.81751090987</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <f>(LOG10((-B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>-7.9767470638095</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <f>E7*(1+$B$6/100)</f>
         <v>-17.822064</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <f>F7*(1+$B$5/100)</f>
         <v>4.35175819609942</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="17">
         <f t="shared" si="0"/>
         <v>-77.5573130834085</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <f>J5/100*J6*J4</f>
         <v>-31.8527402417756</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:7">
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <f>E8*(1+$B$6/100)</f>
         <v>-23.1686832</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <f>F8*(1+$B$5/100)</f>
         <v>4.42573808543311</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>-102.538523627574</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:7">
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <f>E9*(1+$B$6/100)</f>
         <v>-30.11928816</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <f>F9*(1+$B$5/100)</f>
         <v>4.50097563288548</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <f t="shared" si="0"/>
         <v>-135.566182088016</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18">
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18">
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>11</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.15" spans="4:10">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21">
         <f>SUM(E3:E15)*3</f>
         <v>-343.55074608</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <f>MAX(F3:F16)*(1+$B$5/100)</f>
         <v>4.57749221864453</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <f t="shared" si="0"/>
         <v>-1572.60086689072</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:10">
-      <c r="D18" s="2"/>
-      <c r="E18" s="23">
+      <c r="D18" s="3"/>
+      <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
         <v>-458.06766144</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
         <v>-2069.44051090987</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="26">
         <f>G18/E18</f>
         <v>4.51776164334389</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="30">
         <f>((-B4/G18)+1)*I18</f>
         <v>4.58626025750356</v>
       </c>
@@ -2484,7 +2494,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2503,344 +2513,344 @@
     <col min="16375" max="16375" width="8.44444444444444" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>313.77</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>4.8</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>4</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>19.2</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.93647182589129</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <f>-B3*10/100</f>
         <v>-31.377</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <f>E3*(1+$B$6/100)</f>
         <v>6.24</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <f>F3*(1-$B$5/100)</f>
         <v>3.932</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="17">
         <f t="shared" si="0"/>
         <v>24.53568</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <f>E18</f>
         <v>458.06766144</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>1.7</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <f>E4*(1+$B$6/100)</f>
         <v>8.112</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <f t="shared" ref="F5:F10" si="1">F4*(1-$B$5/100)</f>
         <v>3.865156</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>31.354145472</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <f>J4*J10</f>
         <v>1588.94091944911</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <f>E5*(1+$B$6/100)</f>
         <v>10.5456</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <f t="shared" si="1"/>
         <v>3.799448348</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="17">
         <f t="shared" si="0"/>
         <v>40.0674624986688</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="25">
         <f>J3/100*J4*J10</f>
         <v>-30.7693932351901</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <f>E6*(1+$B$6/100)</f>
         <v>13.70928</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <f t="shared" si="1"/>
         <v>3.734857726084</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>51.2022103270489</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>8.31021590397248</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <f>E7*(1+$B$6/100)</f>
         <v>17.822064</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <f t="shared" si="1"/>
         <v>3.67136514474057</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="17">
         <f t="shared" si="0"/>
         <v>65.4313045769357</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <f>B3*10/100</f>
         <v>31.377</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <f>E8*(1+$B$6/100)</f>
         <v>23.1686832</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <f t="shared" si="1"/>
         <v>3.60895193727998</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>83.6146641188662</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="4:10">
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <f>E9*(1+$B$6/100)</f>
         <v>30.11928816</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <f t="shared" si="1"/>
         <v>3.54759975434622</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <f t="shared" si="0"/>
         <v>106.851179277499</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <f>G18/E18</f>
         <v>3.53728947892853</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="27">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>3.46879086476886</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18">
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18">
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>11</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21">
         <f>SUM(E3:E15)*3</f>
         <v>343.55074608</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="22">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/100),MAX(F3:F16)*(1+$B$5/100))</f>
         <v>3.48729055852234</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <f t="shared" si="0"/>
         <v>1198.06127317809</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
-      <c r="D18" s="2"/>
-      <c r="E18" s="23">
+      <c r="D18" s="3"/>
+      <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
         <v>458.06766144</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
         <v>1620.31791944911</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1"/>
     <row r="20" s="1" customFormat="1"/>
@@ -2891,7 +2901,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="B1">
       <formula1>"BUY,SELL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="10848" windowHeight="9120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -2493,8 +2493,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2546,21 +2546,21 @@
         <v>11</v>
       </c>
       <c r="E3" s="11">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="12">
-        <v>4</v>
+        <v>4.302</v>
       </c>
       <c r="G3" s="13">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>19.2</v>
+        <v>30.114</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="25">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.93647182589129</v>
+        <v>-1.71194044216326</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2575,23 +2575,21 @@
         <v>1</v>
       </c>
       <c r="E4" s="15">
-        <f>E3*(1+$B$6/100)</f>
-        <v>6.24</v>
+        <v>9</v>
       </c>
       <c r="F4" s="16">
-        <f>F3*(1-$B$5/100)</f>
-        <v>3.932</v>
+        <v>4.229</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="0"/>
-        <v>24.53568</v>
+        <v>38.061</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="25">
         <f>E18</f>
-        <v>458.06766144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2605,23 +2603,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="15">
-        <f>E4*(1+$B$6/100)</f>
-        <v>8.112</v>
+        <v>11</v>
       </c>
       <c r="F5" s="16">
-        <f t="shared" ref="F5:F10" si="1">F4*(1-$B$5/100)</f>
-        <v>3.865156</v>
+        <v>4.156</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>31.354145472</v>
+        <v>45.716</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="25">
         <f>J4*J10</f>
-        <v>1588.94091944911</v>
+        <v>1801.455453</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2635,23 +2631,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="15">
-        <f>E5*(1+$B$6/100)</f>
-        <v>10.5456</v>
+        <v>15</v>
       </c>
       <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>3.799448348</v>
+        <v>4.083</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="0"/>
-        <v>40.0674624986688</v>
+        <v>61.245</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="25">
         <f>J3/100*J4*J10</f>
-        <v>-30.7693932351901</v>
+        <v>-30.8398444474624</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
@@ -2665,16 +2659,14 @@
         <v>4</v>
       </c>
       <c r="E7" s="15">
-        <f>E6*(1+$B$6/100)</f>
-        <v>13.70928</v>
+        <v>19</v>
       </c>
       <c r="F7" s="16">
-        <f t="shared" si="1"/>
-        <v>3.734857726084</v>
+        <v>4.009</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="0"/>
-        <v>51.2022103270489</v>
+        <v>76.171</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2683,22 +2675,20 @@
       </c>
       <c r="B8" s="9">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>8.31021590397248</v>
+        <v>7.47384205143812</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
       </c>
       <c r="E8" s="15">
-        <f>E7*(1+$B$6/100)</f>
-        <v>17.822064</v>
+        <v>25</v>
       </c>
       <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>3.67136514474057</v>
+        <v>3.936</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>65.4313045769357</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2713,16 +2703,14 @@
         <v>6</v>
       </c>
       <c r="E9" s="15">
-        <f>E8*(1+$B$6/100)</f>
-        <v>23.1686832</v>
+        <v>33</v>
       </c>
       <c r="F9" s="16">
-        <f t="shared" si="1"/>
-        <v>3.60895193727998</v>
+        <v>3.863</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" si="0"/>
-        <v>83.6146641188662</v>
+        <v>127.479</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>24</v>
@@ -2735,25 +2723,19 @@
       <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="15">
-        <f>E9*(1+$B$6/100)</f>
-        <v>30.11928816</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="1"/>
-        <v>3.54759975434622</v>
-      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="19">
         <f t="shared" si="0"/>
-        <v>106.851179277499</v>
+        <v>0</v>
       </c>
       <c r="I10" s="26">
         <f>G18/E18</f>
-        <v>3.53728947892853</v>
+        <v>3.85048834663866</v>
       </c>
       <c r="J10" s="27">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>3.46879086476886</v>
+        <v>3.78457027941176</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
@@ -2828,27 +2810,27 @@
       </c>
       <c r="E17" s="21">
         <f>SUM(E3:E15)*3</f>
-        <v>343.55074608</v>
+        <v>357</v>
       </c>
       <c r="F17" s="22">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/100),MAX(F3:F16)*(1+$B$5/100))</f>
-        <v>3.48729055852234</v>
+        <v>3.797329</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="0"/>
-        <v>1198.06127317809</v>
+        <v>1355.646453</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
       <c r="D18" s="3"/>
       <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
-        <v>458.06766144</v>
+        <v>476</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
-        <v>1620.31791944911</v>
+        <v>1832.832453</v>
       </c>
       <c r="H18" s="3"/>
     </row>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -103,7 +103,7 @@
     <t>ALL IN ONE</t>
   </si>
   <si>
-    <t>BUY</t>
+    <t>SELL</t>
   </si>
   <si>
     <t>Entrada</t>
@@ -2493,8 +2493,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2540,27 +2540,27 @@
         <v>10</v>
       </c>
       <c r="B3" s="9">
-        <v>313.77</v>
+        <v>314.21</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="11">
-        <v>7</v>
+        <v>0.521</v>
       </c>
       <c r="F3" s="12">
-        <v>4.302</v>
+        <v>60.19</v>
       </c>
       <c r="G3" s="13">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>30.114</v>
+        <v>31.35899</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="25">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.71194044216326</v>
+        <v>-1.27035557868893</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2569,27 +2569,27 @@
       </c>
       <c r="B4" s="9">
         <f>-B3*10/100</f>
-        <v>-31.377</v>
+        <v>-31.421</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
       <c r="E4" s="15">
-        <v>9</v>
+        <v>0.677</v>
       </c>
       <c r="F4" s="16">
-        <v>4.229</v>
+        <v>61.21</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="0"/>
-        <v>38.061</v>
+        <v>41.43917</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="25">
         <f>E18</f>
-        <v>476</v>
+        <v>36.632</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2603,21 +2603,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="15">
-        <v>11</v>
+        <v>0.88</v>
       </c>
       <c r="F5" s="16">
-        <v>4.156</v>
+        <v>62.24</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>45.716</v>
+        <v>54.7712</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="25">
         <f>J4*J10</f>
-        <v>1801.455453</v>
+        <v>2473.40197714</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2631,21 +2631,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="15">
-        <v>15</v>
+        <v>1.144</v>
       </c>
       <c r="F6" s="16">
-        <v>4.083</v>
+        <v>63.26</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="0"/>
-        <v>61.245</v>
+        <v>72.36944</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="25">
         <f>J3/100*J4*J10</f>
-        <v>-30.8398444474624</v>
+        <v>-31.4210000000003</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
@@ -2659,14 +2659,14 @@
         <v>4</v>
       </c>
       <c r="E7" s="15">
-        <v>19</v>
+        <v>1.488</v>
       </c>
       <c r="F7" s="16">
-        <v>4.009</v>
+        <v>64.28</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="0"/>
-        <v>76.171</v>
+        <v>95.64864</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2675,20 +2675,20 @@
       </c>
       <c r="B8" s="9">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>7.47384205143812</v>
+        <v>-5.20151219278821</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
       </c>
       <c r="E8" s="15">
-        <v>25</v>
+        <v>1.934</v>
       </c>
       <c r="F8" s="16">
-        <v>3.936</v>
+        <v>65.31</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>98.4</v>
+        <v>126.30954</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2697,20 +2697,20 @@
       </c>
       <c r="B9" s="9">
         <f>B3*10/100</f>
-        <v>31.377</v>
+        <v>31.421</v>
       </c>
       <c r="D9" s="14">
         <v>6</v>
       </c>
       <c r="E9" s="15">
-        <v>33</v>
+        <v>2.514</v>
       </c>
       <c r="F9" s="16">
-        <v>3.863</v>
+        <v>66.33</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" si="0"/>
-        <v>127.479</v>
+        <v>166.75362</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>24</v>
@@ -2731,11 +2731,11 @@
       </c>
       <c r="I10" s="26">
         <f>G18/E18</f>
-        <v>3.85048834663866</v>
+        <v>66.6625075655165</v>
       </c>
       <c r="J10" s="27">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>3.78457027941176</v>
+        <v>67.5202548902599</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
@@ -2810,27 +2810,27 @@
       </c>
       <c r="E17" s="21">
         <f>SUM(E3:E15)*3</f>
-        <v>357</v>
+        <v>27.474</v>
       </c>
       <c r="F17" s="22">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/100),MAX(F3:F16)*(1+$B$5/100))</f>
-        <v>3.797329</v>
+        <v>67.45761</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="0"/>
-        <v>1355.646453</v>
+        <v>1853.33037714</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
       <c r="D18" s="3"/>
       <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
-        <v>476</v>
+        <v>36.632</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
-        <v>1832.832453</v>
+        <v>2441.98097714</v>
       </c>
       <c r="H18" s="3"/>
     </row>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9120" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -113,12 +113,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -176,6 +177,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -184,8 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,8 +239,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +290,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,97 +314,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -353,187 +354,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,6 +794,51 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,61 +862,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,26 +889,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,134 +916,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1068,67 +1069,106 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,27 +1245,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1580,48 +1600,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="32" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="32" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="33" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="45" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="36">
+      <c r="A2" s="49">
         <v>205</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="50">
         <v>0.75</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="49">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="37">
+      <c r="A5" s="50">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="50">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1659,7 +1679,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1681,26 +1701,26 @@
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="28">
         <v>313.77</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="29">
         <v>4.8</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="30">
         <v>6.437</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="31">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>30.8976</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="41">
         <f>I18</f>
         <v>6.25920890909091</v>
       </c>
@@ -1709,27 +1729,27 @@
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="28">
         <f>B3*10/100</f>
         <v>31.377</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="32">
         <v>6.2</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="33">
         <v>6.328</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="34">
         <f t="shared" si="0"/>
         <v>39.2336</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="41">
         <f>J18</f>
         <v>5.54609527272727</v>
       </c>
@@ -1738,22 +1758,22 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="35">
         <v>1.7</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17">
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="41">
         <f>((J4/J3)-1)*100</f>
         <v>-11.3930313993499</v>
       </c>
@@ -1762,22 +1782,22 @@
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="35">
         <v>30</v>
       </c>
       <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17">
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="41">
         <f>E18</f>
         <v>44</v>
       </c>
@@ -1786,22 +1806,22 @@
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="35">
         <v>10</v>
       </c>
       <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17">
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="41">
         <f>J6*J4</f>
         <v>244.028192</v>
       </c>
@@ -1810,23 +1830,23 @@
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="28">
         <f>(LOG10((-B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>8.68815393698836</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17">
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="41">
         <f>J5/100*J6*J4</f>
         <v>-27.802208537826</v>
       </c>
@@ -1835,9 +1855,9 @@
       <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19">
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1846,9 +1866,9 @@
       <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19">
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1857,9 +1877,9 @@
       <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19">
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1868,9 +1888,9 @@
       <c r="D12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19">
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1879,9 +1899,9 @@
       <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="19">
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1890,9 +1910,9 @@
       <c r="D14" s="14">
         <v>11</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19">
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1901,37 +1921,37 @@
       <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19">
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.15" spans="4:7">
+    <row r="16" s="1" customFormat="1" spans="4:7">
       <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19">
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.15" spans="4:10">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="37">
         <f>SUM(E3:E15)*3</f>
         <v>33</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="38">
         <f>MIN(F3:F16)*(1-$B$5/100)</f>
         <v>6.220424</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="39">
         <f t="shared" si="0"/>
         <v>205.273992</v>
       </c>
@@ -1944,21 +1964,21 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="4:10">
       <c r="D18" s="3"/>
-      <c r="E18" s="24">
+      <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
         <v>44</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
         <v>275.405192</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="26">
+      <c r="I18" s="42">
         <f>G18/E18</f>
         <v>6.25920890909091</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="42">
         <f>((-B4/G18)+1)*I18</f>
         <v>5.54609527272727</v>
       </c>
@@ -1974,10 +1994,10 @@
     <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
@@ -2000,35 +2020,35 @@
     <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>$B$3*10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="lessThan">
       <formula>$F$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
       <formula>$F$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="lessThan">
       <formula>$F$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
       <formula>$F$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
       <formula>$F$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="lessThan">
       <formula>$J$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
       <formula>$B$8+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2063,7 +2083,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2085,26 +2105,26 @@
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="28">
         <v>313.77</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="29">
         <v>-4.8</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="30">
         <v>4</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="31">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>-19.2</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="41">
         <f>I18</f>
         <v>4.51776164334389</v>
       </c>
@@ -2113,29 +2133,29 @@
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="28">
         <f>B3*10/100</f>
         <v>31.377</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
-        <f>E3*(1+$B$6/100)</f>
+      <c r="E4" s="32">
+        <f t="shared" ref="E4:E10" si="1">E3*(1+$B$6/100)</f>
         <v>-6.24</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="33">
         <f>F3*(1+$B$5/100)</f>
         <v>4.068</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="34">
         <f t="shared" si="0"/>
         <v>-25.38432</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="41">
         <f>J18</f>
         <v>4.58626025750356</v>
       </c>
@@ -2144,28 +2164,28 @@
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="35">
         <v>1.7</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
-        <f>E4*(1+$B$6/100)</f>
+      <c r="E5" s="32">
+        <f t="shared" si="1"/>
         <v>-8.112</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="33">
         <f>F4*(1+$B$5/100)</f>
         <v>4.137156</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="34">
         <f t="shared" si="0"/>
         <v>-33.560609472</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="41">
         <f>((J4/J3)-1)*100</f>
         <v>1.51620690880381</v>
       </c>
@@ -2174,28 +2194,28 @@
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="35">
         <v>30</v>
       </c>
       <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="15">
-        <f>E5*(1+$B$6/100)</f>
+      <c r="E6" s="32">
+        <f t="shared" si="1"/>
         <v>-10.5456</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="33">
         <f>F5*(1+$B$5/100)</f>
         <v>4.207487652</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="34">
         <f t="shared" si="0"/>
         <v>-44.3704817829312</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="41">
         <f>E18</f>
         <v>-458.06766144</v>
       </c>
@@ -2204,28 +2224,28 @@
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="35">
         <v>10</v>
       </c>
       <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="15">
-        <f>E6*(1+$B$6/100)</f>
+      <c r="E7" s="32">
+        <f t="shared" si="1"/>
         <v>-13.70928</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="33">
         <f>F6*(1+$B$5/100)</f>
         <v>4.279014942084</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>-58.6622139652133</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="41">
         <f>J6*J4</f>
         <v>-2100.81751090987</v>
       </c>
@@ -2234,29 +2254,29 @@
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="28">
         <f>(LOG10((-B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>-7.9767470638095</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
-        <f>E7*(1+$B$6/100)</f>
+      <c r="E8" s="32">
+        <f t="shared" si="1"/>
         <v>-17.822064</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="33">
         <f>F7*(1+$B$5/100)</f>
         <v>4.35175819609942</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>-77.5573130834085</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="41">
         <f>J5/100*J6*J4</f>
         <v>-31.8527402417756</v>
       </c>
@@ -2265,15 +2285,15 @@
       <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="15">
-        <f>E8*(1+$B$6/100)</f>
+      <c r="E9" s="32">
+        <f t="shared" si="1"/>
         <v>-23.1686832</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="33">
         <f>F8*(1+$B$5/100)</f>
         <v>4.42573808543311</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="36">
         <f t="shared" si="0"/>
         <v>-102.538523627574</v>
       </c>
@@ -2282,15 +2302,15 @@
       <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="15">
-        <f>E9*(1+$B$6/100)</f>
+      <c r="E10" s="32">
+        <f t="shared" si="1"/>
         <v>-30.11928816</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="33">
         <f>F9*(1+$B$5/100)</f>
         <v>4.50097563288548</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="36">
         <f t="shared" si="0"/>
         <v>-135.566182088016</v>
       </c>
@@ -2299,9 +2319,9 @@
       <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19">
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2310,9 +2330,9 @@
       <c r="D12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19">
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2321,9 +2341,9 @@
       <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="19">
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2332,9 +2352,9 @@
       <c r="D14" s="14">
         <v>11</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19">
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2343,9 +2363,9 @@
       <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19">
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2354,26 +2374,26 @@
       <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19">
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.15" spans="4:10">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="37">
         <f>SUM(E3:E15)*3</f>
         <v>-343.55074608</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="38">
         <f>MAX(F3:F16)*(1+$B$5/100)</f>
         <v>4.57749221864453</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="39">
         <f t="shared" si="0"/>
         <v>-1572.60086689072</v>
       </c>
@@ -2386,21 +2406,21 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="4:10">
       <c r="D18" s="3"/>
-      <c r="E18" s="24">
+      <c r="E18" s="40">
         <f>SUM(E3:E17)</f>
         <v>-458.06766144</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40">
         <f>SUM(G3:G17)</f>
         <v>-2069.44051090987</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="26">
+      <c r="I18" s="42">
         <f>G18/E18</f>
         <v>4.51776164334389</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="43">
         <f>((-B4/G18)+1)*I18</f>
         <v>4.58626025750356</v>
       </c>
@@ -2410,10 +2430,10 @@
     <row r="21" s="1" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
@@ -2436,10 +2456,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="lessThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
@@ -2450,22 +2470,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
       <formula>$J$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
       <formula>$F$17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
       <formula>$F$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThan">
       <formula>$F$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
       <formula>$F$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThan">
       <formula>$F$17</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
@@ -2479,7 +2499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThan">
       <formula>$B$8+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2493,8 +2513,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2503,8 +2523,8 @@
     <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889" style="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
@@ -2540,27 +2560,27 @@
         <v>10</v>
       </c>
       <c r="B3" s="9">
-        <v>314.21</v>
+        <v>316.1</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="11">
-        <v>0.521</v>
+        <v>807</v>
       </c>
       <c r="F3" s="12">
-        <v>60.19</v>
+        <v>0.03911</v>
       </c>
       <c r="G3" s="13">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>31.35899</v>
+        <v>31.56177</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.27035557868893</v>
+        <v>-1.27773982182448</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2569,104 +2589,104 @@
       </c>
       <c r="B4" s="9">
         <f>-B3*10/100</f>
-        <v>-31.421</v>
+        <v>-31.61</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
       </c>
       <c r="E4" s="15">
-        <v>0.677</v>
+        <v>1049</v>
       </c>
       <c r="F4" s="16">
-        <v>61.21</v>
+        <v>0.03977</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="0"/>
-        <v>41.43917</v>
+        <v>41.71873</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <f>E18</f>
-        <v>36.632</v>
+        <v>56744</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="9">
         <v>1.7</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
       <c r="E5" s="15">
-        <v>0.88</v>
+        <v>1363</v>
       </c>
       <c r="F5" s="16">
-        <v>62.24</v>
+        <v>0.04043</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>54.7712</v>
+        <v>55.10609</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f>J4*J10</f>
-        <v>2473.40197714</v>
+        <v>2473.8995733</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="9">
         <v>30</v>
       </c>
       <c r="D6" s="14">
         <v>3</v>
       </c>
       <c r="E6" s="15">
-        <v>1.144</v>
+        <v>1772</v>
       </c>
       <c r="F6" s="16">
-        <v>63.26</v>
+        <v>0.0411</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="0"/>
-        <v>72.36944</v>
+        <v>72.8292</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f>J3/100*J4*J10</f>
-        <v>-31.4210000000003</v>
+        <v>-31.6099999999999</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="9">
         <v>10</v>
       </c>
       <c r="D7" s="14">
         <v>4</v>
       </c>
       <c r="E7" s="15">
-        <v>1.488</v>
+        <v>2304</v>
       </c>
       <c r="F7" s="16">
-        <v>64.28</v>
+        <v>0.04177</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="0"/>
-        <v>95.64864</v>
+        <v>96.23808</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2675,20 +2695,20 @@
       </c>
       <c r="B8" s="9">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>-5.20151219278821</v>
+        <v>-4.82532883820551</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
       </c>
       <c r="E8" s="15">
-        <v>1.934</v>
+        <v>2996</v>
       </c>
       <c r="F8" s="16">
-        <v>65.31</v>
+        <v>0.04243</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>126.30954</v>
+        <v>127.12028</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2697,20 +2717,20 @@
       </c>
       <c r="B9" s="9">
         <f>B3*10/100</f>
-        <v>31.421</v>
+        <v>31.61</v>
       </c>
       <c r="D9" s="14">
         <v>6</v>
       </c>
       <c r="E9" s="15">
-        <v>2.514</v>
+        <v>3895</v>
       </c>
       <c r="F9" s="16">
-        <v>66.33</v>
-      </c>
-      <c r="G9" s="19">
-        <f t="shared" si="0"/>
-        <v>166.75362</v>
+        <v>0.0431</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>167.8745</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>24</v>
@@ -2725,17 +2745,17 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <f>G18/E18</f>
-        <v>66.6625075655165</v>
-      </c>
-      <c r="J10" s="27">
+        <v>0.0430404901540251</v>
+      </c>
+      <c r="J10" s="26">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>67.5202548902599</v>
+        <v>0.043597553455872</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
@@ -2744,7 +2764,7 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2755,7 +2775,7 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2766,7 +2786,7 @@
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2777,7 +2797,7 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2788,7 +2808,7 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2799,38 +2819,38 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <f>SUM(E3:E15)*3</f>
-        <v>27.474</v>
-      </c>
-      <c r="F17" s="22">
-        <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/100),MAX(F3:F16)*(1+$B$5/100))</f>
-        <v>67.45761</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="0"/>
-        <v>1853.33037714</v>
+        <v>42558</v>
+      </c>
+      <c r="F17" s="21">
+        <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/2/100),MAX(F3:F16)*(1+$B$5/2/100))</f>
+        <v>0.04346635</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="0"/>
+        <v>1849.8409233</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
       <c r="D18" s="3"/>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f>SUM(E3:E17)</f>
-        <v>36.632</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+        <v>56744</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23">
         <f>SUM(G3:G17)</f>
-        <v>2441.98097714</v>
+        <v>2442.2895733</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -2842,26 +2862,26 @@
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$J$6&gt;=$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$G$18&gt;$B$3*$B$7</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
@@ -2870,15 +2890,15 @@
     <cfRule type="cellIs" dxfId="1" priority="16" operator="lessThan">
       <formula>$B$3*10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
       <formula>$B$8+1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
-    <sheet name="LONG" sheetId="4" r:id="rId2"/>
-    <sheet name="SHORT" sheetId="5" r:id="rId3"/>
-    <sheet name="ALL" sheetId="6" r:id="rId4"/>
+    <sheet name="ALL" sheetId="6" r:id="rId2"/>
+    <sheet name="pruebas" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -34,7 +33,10 @@
     <t>ganancia</t>
   </si>
   <si>
-    <t>LONG</t>
+    <t>ALL IN ONE</t>
+  </si>
+  <si>
+    <t>SELL</t>
   </si>
   <si>
     <t>tipo</t>
@@ -55,71 +57,64 @@
     <t>pp</t>
   </si>
   <si>
-    <t>entrada</t>
+    <t>variacion porc</t>
   </si>
   <si>
     <t>Pérdida</t>
   </si>
   <si>
-    <t>salida</t>
+    <t>cantidad crypto</t>
   </si>
   <si>
     <t>Distancia</t>
   </si>
   <si>
-    <t>variacion porc</t>
+    <t>tamaño usdt</t>
   </si>
   <si>
     <t>Incremento</t>
   </si>
   <si>
-    <t>cantidad crypto</t>
+    <t>pnl</t>
   </si>
   <si>
     <t>Apalancamiento</t>
   </si>
   <si>
-    <t>tamaño usdt</t>
-  </si>
-  <si>
     <t>Cantidad de compensaciones menor a</t>
   </si>
   <si>
-    <t>pnl</t>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>precio de la posicion al final</t>
+  </si>
+  <si>
+    <t>precio stop deberia ser</t>
+  </si>
+  <si>
+    <t>Cantidad de compensaciones</t>
+  </si>
+  <si>
+    <t>suma total de cantidad según la cantidad de compensaciones</t>
   </si>
   <si>
     <t>ataque</t>
   </si>
   <si>
-    <t>precio de la posicion al final</t>
-  </si>
-  <si>
-    <t>precio stop deberia ser</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>ALL IN ONE</t>
-  </si>
-  <si>
-    <t>SELL</t>
-  </si>
-  <si>
-    <t>Entrada</t>
+    <t>compensaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00000"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -321,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,18 +337,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF43308"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -539,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -682,6 +665,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -697,6 +708,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -704,92 +758,6 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -898,152 +866,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1090,13 +1058,13 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,6 +1082,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,58 +1094,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1267,16 +1187,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
@@ -1287,6 +1197,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1600,48 +1520,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="45" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="46" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="29" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="49">
+      <c r="A2" s="33">
         <v>205</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="34">
         <v>0.75</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="50">
+      <c r="A5" s="34">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="34">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1658,868 +1578,13 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A1" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28">
-        <v>313.77</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="F3" s="30">
-        <v>6.437</v>
-      </c>
-      <c r="G3" s="31">
-        <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>30.8976</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="41">
-        <f>I18</f>
-        <v>6.25920890909091</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="28">
-        <f>B3*10/100</f>
-        <v>31.377</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="F4" s="33">
-        <v>6.328</v>
-      </c>
-      <c r="G4" s="34">
-        <f t="shared" si="0"/>
-        <v>39.2336</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="41">
-        <f>J18</f>
-        <v>5.54609527272727</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="35">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="41">
-        <f>((J4/J3)-1)*100</f>
-        <v>-11.3930313993499</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="35">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="41">
-        <f>E18</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="35">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="41">
-        <f>J6*J4</f>
-        <v>244.028192</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="28">
-        <f>(LOG10((-B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>8.68815393698836</v>
-      </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="41">
-        <f>J5/100*J6*J4</f>
-        <v>-27.802208537826</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="4:7">
-      <c r="D9" s="14">
-        <v>6</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="4:7">
-      <c r="D10" s="14">
-        <v>7</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="14">
-        <v>8</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="14">
-        <v>9</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="14">
-        <v>10</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="14">
-        <v>12</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="14">
-        <v>13</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.15" spans="4:10">
-      <c r="D17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="37">
-        <f>SUM(E3:E15)*3</f>
-        <v>33</v>
-      </c>
-      <c r="F17" s="38">
-        <f>MIN(F3:F16)*(1-$B$5/100)</f>
-        <v>6.220424</v>
-      </c>
-      <c r="G17" s="39">
-        <f t="shared" si="0"/>
-        <v>205.273992</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:10">
-      <c r="D18" s="3"/>
-      <c r="E18" s="40">
-        <f>SUM(E3:E17)</f>
-        <v>44</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40">
-        <f>SUM(G3:G17)</f>
-        <v>275.405192</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="42">
-        <f>G18/E18</f>
-        <v>6.25920890909091</v>
-      </c>
-      <c r="J18" s="42">
-        <f>((-B4/G18)+1)*I18</f>
-        <v>5.54609527272727</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-  </sheetData>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>$B$3*$B$7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
-      <formula>$B$3*10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="lessThan">
-      <formula>$F$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
-      <formula>$F$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="lessThan">
-      <formula>$F$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
-      <formula>$F$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
-      <formula>$F$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="lessThan">
-      <formula>$J$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
-      <formula>$B$8+1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="36.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:1">
-      <c r="A1" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28">
-        <v>313.77</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="29">
-        <v>-4.8</v>
-      </c>
-      <c r="F3" s="30">
-        <v>4</v>
-      </c>
-      <c r="G3" s="31">
-        <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>-19.2</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="41">
-        <f>I18</f>
-        <v>4.51776164334389</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="28">
-        <f>B3*10/100</f>
-        <v>31.377</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="32">
-        <f t="shared" ref="E4:E10" si="1">E3*(1+$B$6/100)</f>
-        <v>-6.24</v>
-      </c>
-      <c r="F4" s="33">
-        <f>F3*(1+$B$5/100)</f>
-        <v>4.068</v>
-      </c>
-      <c r="G4" s="34">
-        <f t="shared" si="0"/>
-        <v>-25.38432</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="41">
-        <f>J18</f>
-        <v>4.58626025750356</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="35">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="32">
-        <f t="shared" si="1"/>
-        <v>-8.112</v>
-      </c>
-      <c r="F5" s="33">
-        <f>F4*(1+$B$5/100)</f>
-        <v>4.137156</v>
-      </c>
-      <c r="G5" s="34">
-        <f t="shared" si="0"/>
-        <v>-33.560609472</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="41">
-        <f>((J4/J3)-1)*100</f>
-        <v>1.51620690880381</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="35">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="32">
-        <f t="shared" si="1"/>
-        <v>-10.5456</v>
-      </c>
-      <c r="F6" s="33">
-        <f>F5*(1+$B$5/100)</f>
-        <v>4.207487652</v>
-      </c>
-      <c r="G6" s="34">
-        <f t="shared" si="0"/>
-        <v>-44.3704817829312</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="41">
-        <f>E18</f>
-        <v>-458.06766144</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="35">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="32">
-        <f t="shared" si="1"/>
-        <v>-13.70928</v>
-      </c>
-      <c r="F7" s="33">
-        <f>F6*(1+$B$5/100)</f>
-        <v>4.279014942084</v>
-      </c>
-      <c r="G7" s="34">
-        <f t="shared" si="0"/>
-        <v>-58.6622139652133</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="41">
-        <f>J6*J4</f>
-        <v>-2100.81751090987</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="28">
-        <f>(LOG10((-B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>-7.9767470638095</v>
-      </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="32">
-        <f t="shared" si="1"/>
-        <v>-17.822064</v>
-      </c>
-      <c r="F8" s="33">
-        <f>F7*(1+$B$5/100)</f>
-        <v>4.35175819609942</v>
-      </c>
-      <c r="G8" s="34">
-        <f t="shared" si="0"/>
-        <v>-77.5573130834085</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="41">
-        <f>J5/100*J6*J4</f>
-        <v>-31.8527402417756</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="4:7">
-      <c r="D9" s="14">
-        <v>6</v>
-      </c>
-      <c r="E9" s="32">
-        <f t="shared" si="1"/>
-        <v>-23.1686832</v>
-      </c>
-      <c r="F9" s="33">
-        <f>F8*(1+$B$5/100)</f>
-        <v>4.42573808543311</v>
-      </c>
-      <c r="G9" s="36">
-        <f t="shared" si="0"/>
-        <v>-102.538523627574</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="4:7">
-      <c r="D10" s="14">
-        <v>7</v>
-      </c>
-      <c r="E10" s="32">
-        <f t="shared" si="1"/>
-        <v>-30.11928816</v>
-      </c>
-      <c r="F10" s="33">
-        <f>F9*(1+$B$5/100)</f>
-        <v>4.50097563288548</v>
-      </c>
-      <c r="G10" s="36">
-        <f t="shared" si="0"/>
-        <v>-135.566182088016</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="14">
-        <v>8</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="14">
-        <v>9</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="14">
-        <v>10</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="14">
-        <v>12</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="14">
-        <v>13</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.15" spans="4:10">
-      <c r="D17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="37">
-        <f>SUM(E3:E15)*3</f>
-        <v>-343.55074608</v>
-      </c>
-      <c r="F17" s="38">
-        <f>MAX(F3:F16)*(1+$B$5/100)</f>
-        <v>4.57749221864453</v>
-      </c>
-      <c r="G17" s="39">
-        <f t="shared" si="0"/>
-        <v>-1572.60086689072</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:10">
-      <c r="D18" s="3"/>
-      <c r="E18" s="40">
-        <f>SUM(E3:E17)</f>
-        <v>-458.06766144</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40">
-        <f>SUM(G3:G17)</f>
-        <v>-2069.44051090987</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="42">
-        <f>G18/E18</f>
-        <v>4.51776164334389</v>
-      </c>
-      <c r="J18" s="43">
-        <f>((-B4/G18)+1)*I18</f>
-        <v>4.58626025750356</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-  </sheetData>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
-      <formula>-$B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="lessThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
-      <formula>$B$3*10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
-      <formula>$B$3*$B$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
-      <formula>$J$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
-      <formula>$F$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
-      <formula>$F$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="lessThan">
-      <formula>$F$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
-      <formula>$F$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="lessThan">
-      <formula>$F$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
-      <formula>$F$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>$F$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$F$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThan">
-      <formula>$B$8+1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="36.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889" style="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
@@ -2535,35 +1600,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9">
         <v>316.1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11">
         <v>807</v>
@@ -2576,16 +1641,16 @@
         <v>31.56177</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="24">
+        <v>13</v>
+      </c>
+      <c r="J3" s="25">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.27773982182448</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9">
         <f>-B3*10/100</f>
@@ -2594,27 +1659,27 @@
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="18">
         <v>1049</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>0.03977</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>41.71873</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="24">
+        <v>15</v>
+      </c>
+      <c r="J4" s="25">
         <f>E18</f>
         <v>56744</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9">
         <v>1.7</v>
@@ -2622,27 +1687,27 @@
       <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="18">
         <v>1363</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>0.04043</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>55.10609</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="24">
+        <v>17</v>
+      </c>
+      <c r="J5" s="25">
         <f>J4*J10</f>
         <v>2473.8995733</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9">
         <v>30</v>
@@ -2650,27 +1715,27 @@
       <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="18">
         <v>1772</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0.0411</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>72.8292</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="24">
+        <v>19</v>
+      </c>
+      <c r="J6" s="25">
         <f>J3/100*J4*J10</f>
         <v>-31.6099999999999</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9">
         <v>10</v>
@@ -2678,13 +1743,13 @@
       <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="18">
         <v>2304</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>0.04177</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>96.23808</v>
       </c>
@@ -2700,20 +1765,20 @@
       <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="18">
         <v>2996</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0.04243</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>127.12028</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9">
         <f>B3*10/100</f>
@@ -2722,49 +1787,62 @@
       <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="18">
         <v>3895</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>0.0431</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>167.8745</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="17.4" spans="4:10">
+      <c r="B10" s="28">
+        <v>6</v>
+      </c>
       <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18">
+      <c r="E10" s="18"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <f>G18/E18</f>
         <v>0.0430404901540251</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="27">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.043597553455872</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="4:7">
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="28">
+        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
+        <v>14189.351073</v>
+      </c>
       <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18">
+      <c r="E11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2773,9 +1851,9 @@
       <c r="D12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18">
+      <c r="E12" s="18"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2784,9 +1862,9 @@
       <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18">
+      <c r="E13" s="18"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2795,9 +1873,9 @@
       <c r="D14" s="14">
         <v>11</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18">
+      <c r="E14" s="18"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2806,9 +1884,9 @@
       <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18">
+      <c r="E15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2817,16 +1895,16 @@
       <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18">
+      <c r="E16" s="18"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
       <c r="D17" s="19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E17" s="20">
         <f>SUM(E3:E15)*3</f>
@@ -2862,35 +1940,35 @@
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$J$6&gt;=$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$G$18&gt;$B$3*$B$7</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
       <formula>$B$3*$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="lessThan">
       <formula>$B$3*10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="lessThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
@@ -2898,7 +1976,468 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="lessThan">
+      <formula>$B$8+1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="B1">
+      <formula1>"BUY,SELL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11">
+        <v>807</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.03911</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" ref="G3:G17" si="0">E3*F3</f>
+        <v>31.56177</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="25">
+        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
+        <v>-1.1777175452488</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9">
+        <f>-B3*10/100</f>
+        <v>-100</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <f>E3*(1+$B$6/100)</f>
+        <v>1049.1</v>
+      </c>
+      <c r="F4" s="15">
+        <f>F3*(1+$B$5/100)</f>
+        <v>0.03977487</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>41.727816117</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="25">
+        <f>E18</f>
+        <v>182076.458398381</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <f>E4*(1+$B$6/100)</f>
+        <v>1363.83</v>
+      </c>
+      <c r="F5" s="15">
+        <f>F4*(1+$B$5/100)</f>
+        <v>0.04045104279</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>55.1683456882857</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="25">
+        <f>J4*J10</f>
+        <v>8491.00027450752</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <f>E5*(1+$B$6/100)</f>
+        <v>1772.979</v>
+      </c>
+      <c r="F6" s="15">
+        <f>F5*(1+$B$5/100)</f>
+        <v>0.04113871051743</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>72.9380698344825</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="25">
+        <f>J3/100*J4*J10</f>
+        <v>-99.999999999999</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11">
+        <f>E6*(1+$B$6/100)</f>
+        <v>2304.8727</v>
+      </c>
+      <c r="F7" s="15">
+        <f>F6*(1+$B$5/100)</f>
+        <v>0.0418380685962263</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>96.4314221281693</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9">
+        <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
+        <v>-8.87201699068528</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11">
+        <f>E7*(1+$B$6/100)</f>
+        <v>2996.33451</v>
+      </c>
+      <c r="F8" s="15">
+        <f>F7*(1+$B$5/100)</f>
+        <v>0.0425493157623621</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>127.491983195653</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9">
+        <f>B3*10/100</f>
+        <v>100</v>
+      </c>
+      <c r="D9" s="14">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11">
+        <f>E8*(1+$B$6/100)</f>
+        <v>3895.234863</v>
+      </c>
+      <c r="F9" s="15">
+        <f>F8*(1+$B$5/100)</f>
+        <v>0.0432726541303223</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>168.557150982972</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11">
+        <f>E9*(1+$B$6/100)</f>
+        <v>5063.8053219</v>
+      </c>
+      <c r="F10" s="15">
+        <f>F9*(1+$B$5/100)</f>
+        <v>0.0440082892505378</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>222.849409314588</v>
+      </c>
+      <c r="I10" s="26">
+        <f>G18/E18</f>
+        <v>0.0460850367385118</v>
+      </c>
+      <c r="J10" s="27">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.0466342565601167</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:7">
+      <c r="D11" s="14">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <f>E10*(1+$B$6/100)</f>
+        <v>6582.94691847</v>
+      </c>
+      <c r="F11" s="15">
+        <f>F10*(1+$B$5/100)</f>
+        <v>0.0447564301677969</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>294.629204054817</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:7">
+      <c r="D12" s="14">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11">
+        <f>E11*(1+$B$6/100)</f>
+        <v>8557.830994011</v>
+      </c>
+      <c r="F12" s="15">
+        <f>F11*(1+$B$5/100)</f>
+        <v>0.0455172894806495</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>389.529270680873</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="4:7">
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11">
+        <f>E12*(1+$B$6/100)</f>
+        <v>11125.1802922143</v>
+      </c>
+      <c r="F13" s="15">
+        <f>F12*(1+$B$5/100)</f>
+        <v>0.0462910834018205</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>514.996648767182</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="4:7">
+      <c r="D14" s="14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:7">
+      <c r="D15" s="14">
+        <v>12</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="4:7">
+      <c r="D16" s="14">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="20">
+        <f>SUM(E3:E15)*3</f>
+        <v>136557.343798786</v>
+      </c>
+      <c r="F17" s="21">
+        <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/2/100),MAX(F3:F16)*(1+$B$5/2/100))</f>
+        <v>0.046684557610736</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="0"/>
+        <v>6375.1191837435</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="4:8">
+      <c r="D18" s="3"/>
+      <c r="E18" s="23">
+        <f>SUM(E3:E17)</f>
+        <v>182076.458398381</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23">
+        <f>SUM(G3:G17)</f>
+        <v>8391.00027450752</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="24" spans="5:5">
+      <c r="E24" s="1">
+        <f>((1-(POWER((1+($B$6/100)),(B10+1))))/(1-(1+($B$6/100))))*E3</f>
+        <v>7297.7817</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="1">
+        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
+        <v>7297.7817</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="24"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$J$6&gt;=$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+      <formula>$B$3*10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+      <formula>$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$G$18&gt;$B$3*$B$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
       <formula>$B$8+1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
     <sheet name="ALL" sheetId="6" r:id="rId2"/>
-    <sheet name="pruebas" sheetId="7" r:id="rId3"/>
+    <sheet name="para probar1" sheetId="7" r:id="rId3"/>
+    <sheet name="para probar2" sheetId="8" r:id="rId4"/>
+    <sheet name="CALCULADORA" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -102,7 +104,37 @@
     <t>ataque</t>
   </si>
   <si>
+    <t>BUY</t>
+  </si>
+  <si>
     <t>compensaciones</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Entry Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Variación %</t>
+  </si>
+  <si>
+    <t>QUEDA EN</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>PNL</t>
+  </si>
+  <si>
+    <t>Posición</t>
+  </si>
+  <si>
+    <t>Ataque</t>
   </si>
 </sst>
 </file>
@@ -110,11 +142,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -123,13 +155,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Berlin Sans FB"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -147,6 +172,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -172,6 +204,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,11 +219,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,25 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +266,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,40 +289,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,6 +317,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -337,43 +369,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,146 +553,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -531,6 +563,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -584,21 +670,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -777,36 +848,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,13 +876,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,24 +926,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,131 +958,131 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,82 +1090,109 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1520,48 +1618,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="29" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="29" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="30" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="38" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="33">
+      <c r="A2" s="42">
         <v>205</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="43">
         <v>0.75</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="34">
+      <c r="A5" s="43">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="43">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1578,8 +1676,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1599,338 +1697,338 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>316.1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="21">
         <v>807</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="22">
         <v>0.03911</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="23">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>31.56177</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="34">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.27773982182448</v>
+        <v>-1.2777398218245</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <f>-B3*10/100</f>
         <v>-31.61</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="28">
         <v>1049</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="25">
         <v>0.03977</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="26">
         <f t="shared" si="0"/>
         <v>41.71873</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="34">
         <f>E18</f>
         <v>56744</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1.7</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="28">
         <v>1363</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="25">
         <v>0.04043</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="26">
         <f t="shared" si="0"/>
         <v>55.10609</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="34">
         <f>J4*J10</f>
         <v>2473.8995733</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="28">
         <v>1772</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="25">
         <v>0.0411</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="26">
         <f t="shared" si="0"/>
         <v>72.8292</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="34">
         <f>J3/100*J4*J10</f>
-        <v>-31.6099999999999</v>
+        <v>-31.6100000000004</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="24">
         <v>4</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="28">
         <v>2304</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="25">
         <v>0.04177</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>96.23808</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>-4.82532883820551</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="24">
         <v>5</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="28">
         <v>2996</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="25">
         <v>0.04243</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="26">
         <f t="shared" si="0"/>
         <v>127.12028</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <f>B3*10/100</f>
         <v>31.61</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="24">
         <v>6</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="28">
         <v>3895</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="25">
         <v>0.0431</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
         <v>167.8745</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="11">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="24">
         <v>7</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="26">
+      <c r="E10" s="28"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
         <f>G18/E18</f>
         <v>0.0430404901540251</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="36">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.043597553455872</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="11">
         <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
         <v>14189.351073</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="24">
         <v>8</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17">
+      <c r="E11" s="28"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="14">
+      <c r="D12" s="24">
         <v>9</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17">
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="14">
+      <c r="D13" s="24">
         <v>10</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17">
+      <c r="E13" s="28"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="14">
+      <c r="D14" s="24">
         <v>11</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17">
+      <c r="E14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="14">
+      <c r="D15" s="24">
         <v>12</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17">
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="14">
+      <c r="D16" s="24">
         <v>13</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17">
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="30">
         <f>SUM(E3:E15)*3</f>
         <v>42558</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="31">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/2/100),MAX(F3:F16)*(1+$B$5/2/100))</f>
         <v>0.04346635</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="32">
         <f t="shared" si="0"/>
         <v>1849.8409233</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
-      <c r="D18" s="3"/>
-      <c r="E18" s="23">
+      <c r="D18" s="2"/>
+      <c r="E18" s="33">
         <f>SUM(E3:E17)</f>
         <v>56744</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
         <f>SUM(G3:G17)</f>
         <v>2442.2895733</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1"/>
     <row r="20" s="1" customFormat="1"/>
@@ -1996,7 +2094,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2006,7 +2104,7 @@
     <col min="3" max="3" width="12.8888888888889" style="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4444444444444" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
@@ -2016,385 +2114,311 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>316.1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="21">
+        <v>11.9</v>
+      </c>
+      <c r="F3" s="22">
+        <v>112.11</v>
+      </c>
+      <c r="G3" s="23">
+        <f>E3*F3</f>
+        <v>1334.109</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="34">
+        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
+        <v>-1.18354538677522</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <f>-B3*10/100</f>
+        <v>-31.61</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26">
+        <f t="shared" ref="G3:G17" si="0">E4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="34">
+        <f>E18</f>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="34">
+        <f>J4*J10</f>
+        <v>2639.179</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="34">
+        <f>J3/100*J4*J10</f>
+        <v>-31.2358813032404</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24">
+        <v>4</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
+        <v>0.882753293176985</v>
+      </c>
+      <c r="D8" s="24">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <f>B3*10/100</f>
+        <v>31.61</v>
+      </c>
+      <c r="D9" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11">
-        <v>807</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.03911</v>
-      </c>
-      <c r="G3" s="13">
-        <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>31.56177</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="25">
-        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.1777175452488</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="9">
-        <f>-B3*10/100</f>
-        <v>-100</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <f>E3*(1+$B$6/100)</f>
-        <v>1049.1</v>
-      </c>
-      <c r="F4" s="15">
-        <f>F3*(1+$B$5/100)</f>
-        <v>0.03977487</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>41.727816117</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="25">
-        <f>E18</f>
-        <v>182076.458398381</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <f>E4*(1+$B$6/100)</f>
-        <v>1363.83</v>
-      </c>
-      <c r="F5" s="15">
-        <f>F4*(1+$B$5/100)</f>
-        <v>0.04045104279</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" si="0"/>
-        <v>55.1683456882857</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="25">
-        <f>J4*J10</f>
-        <v>8491.00027450752</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11">
-        <f>E5*(1+$B$6/100)</f>
-        <v>1772.979</v>
-      </c>
-      <c r="F6" s="15">
-        <f>F5*(1+$B$5/100)</f>
-        <v>0.04113871051743</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" si="0"/>
-        <v>72.9380698344825</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="25">
-        <f>J3/100*J4*J10</f>
-        <v>-99.999999999999</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11">
-        <f>E6*(1+$B$6/100)</f>
-        <v>2304.8727</v>
-      </c>
-      <c r="F7" s="15">
-        <f>F6*(1+$B$5/100)</f>
-        <v>0.0418380685962263</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>96.4314221281693</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9">
-        <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>-8.87201699068528</v>
-      </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11">
-        <f>E7*(1+$B$6/100)</f>
-        <v>2996.33451</v>
-      </c>
-      <c r="F8" s="15">
-        <f>F7*(1+$B$5/100)</f>
-        <v>0.0425493157623621</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>127.491983195653</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9">
-        <f>B3*10/100</f>
-        <v>100</v>
-      </c>
-      <c r="D9" s="14">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11">
-        <f>E8*(1+$B$6/100)</f>
-        <v>3895.234863</v>
-      </c>
-      <c r="F9" s="15">
-        <f>F8*(1+$B$5/100)</f>
-        <v>0.0432726541303223</v>
-      </c>
-      <c r="G9" s="17">
-        <f t="shared" si="0"/>
-        <v>168.557150982972</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="24">
         <v>7</v>
       </c>
-      <c r="E10" s="11">
-        <f>E9*(1+$B$6/100)</f>
-        <v>5063.8053219</v>
-      </c>
-      <c r="F10" s="15">
-        <f>F9*(1+$B$5/100)</f>
-        <v>0.0440082892505378</v>
-      </c>
-      <c r="G10" s="17">
-        <f t="shared" si="0"/>
-        <v>222.849409314588</v>
-      </c>
-      <c r="I10" s="26">
+      <c r="E10" s="21"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
         <f>G18/E18</f>
-        <v>0.0460850367385118</v>
-      </c>
-      <c r="J10" s="27">
+        <v>111.748493723849</v>
+      </c>
+      <c r="J10" s="36">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0466342565601167</v>
+        <v>110.42589958159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="14">
+      <c r="D11" s="24">
         <v>8</v>
       </c>
-      <c r="E11" s="11">
-        <f>E10*(1+$B$6/100)</f>
-        <v>6582.94691847</v>
-      </c>
-      <c r="F11" s="15">
-        <f>F10*(1+$B$5/100)</f>
-        <v>0.0447564301677969</v>
-      </c>
-      <c r="G11" s="17">
-        <f t="shared" si="0"/>
-        <v>294.629204054817</v>
+      <c r="E11" s="21"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="14">
+      <c r="D12" s="24">
         <v>9</v>
       </c>
-      <c r="E12" s="11">
-        <f>E11*(1+$B$6/100)</f>
-        <v>8557.830994011</v>
-      </c>
-      <c r="F12" s="15">
-        <f>F11*(1+$B$5/100)</f>
-        <v>0.0455172894806495</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="0"/>
-        <v>389.529270680873</v>
+      <c r="E12" s="21"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="14">
+      <c r="D13" s="24">
         <v>10</v>
       </c>
-      <c r="E13" s="11">
-        <f>E12*(1+$B$6/100)</f>
-        <v>11125.1802922143</v>
-      </c>
-      <c r="F13" s="15">
-        <f>F12*(1+$B$5/100)</f>
-        <v>0.0462910834018205</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="0"/>
-        <v>514.996648767182</v>
+      <c r="E13" s="21"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="14">
+      <c r="D14" s="24">
         <v>11</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17">
+      <c r="E14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="14">
+      <c r="D15" s="24">
         <v>12</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17">
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="14">
+      <c r="D16" s="24">
         <v>13</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17">
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="20">
-        <f>SUM(E3:E15)*3</f>
-        <v>136557.343798786</v>
-      </c>
-      <c r="F17" s="21">
-        <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/2/100),MAX(F3:F16)*(1+$B$5/2/100))</f>
-        <v>0.046684557610736</v>
-      </c>
-      <c r="G17" s="22">
-        <f t="shared" si="0"/>
-        <v>6375.1191837435</v>
+      <c r="E17" s="30">
+        <v>12</v>
+      </c>
+      <c r="F17" s="31">
+        <v>111.39</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="0"/>
+        <v>1336.68</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
-      <c r="D18" s="3"/>
-      <c r="E18" s="23">
+      <c r="D18" s="2"/>
+      <c r="E18" s="33">
         <f>SUM(E3:E17)</f>
-        <v>182076.458398381</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+        <v>23.9</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
         <f>SUM(G3:G17)</f>
-        <v>8391.00027450752</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>2670.789</v>
+      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1"/>
     <row r="20" s="1" customFormat="1"/>
     <row r="21" s="1" customFormat="1"/>
-    <row r="24" spans="5:5">
-      <c r="E24" s="1">
-        <f>((1-(POWER((1+($B$6/100)),(B10+1))))/(1-(1+($B$6/100))))*E3</f>
-        <v>7297.7817</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="1">
-        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>7297.7817</v>
-      </c>
-    </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="24"/>
+      <c r="E27" s="37"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2449,4 +2473,630 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>316.1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="21">
+        <v>55.3</v>
+      </c>
+      <c r="F3" s="22">
+        <v>6.926</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" ref="G3:G17" si="0">E3*F3</f>
+        <v>383.0078</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="34">
+        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
+        <v>-2.08039526588649</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <f>-B3*10/100</f>
+        <v>-31.61</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="34">
+        <f>E18</f>
+        <v>221.2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="34">
+        <f>J4*J10</f>
+        <v>1487.8128</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="34">
+        <f>J3/100*J4*J10</f>
+        <v>-30.9523870564533</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24">
+        <v>4</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
+        <v>1.70809770766547</v>
+      </c>
+      <c r="D8" s="24">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <f>B3*10/100</f>
+        <v>31.61</v>
+      </c>
+      <c r="D9" s="24">
+        <v>6</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24">
+        <v>7</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
+        <f>G18/E18</f>
+        <v>6.869</v>
+      </c>
+      <c r="J10" s="36">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>6.72609764918626</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:7">
+      <c r="D11" s="24">
+        <v>8</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:7">
+      <c r="D12" s="24">
+        <v>9</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="4:7">
+      <c r="D13" s="24">
+        <v>10</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="4:7">
+      <c r="D14" s="24">
+        <v>11</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:7">
+      <c r="D15" s="24">
+        <v>12</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="4:7">
+      <c r="D16" s="24">
+        <v>13</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
+      <c r="D17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="30">
+        <f>SUM(E3:E15)*3</f>
+        <v>165.9</v>
+      </c>
+      <c r="F17" s="31">
+        <v>6.85</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="0"/>
+        <v>1136.415</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="4:8">
+      <c r="D18" s="2"/>
+      <c r="E18" s="33">
+        <f>SUM(E3:E17)</f>
+        <v>221.2</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
+        <f>SUM(G3:G17)</f>
+        <v>1519.4228</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1"/>
+  </sheetData>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$J$6&gt;=$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$G$18&gt;$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+      <formula>$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+      <formula>$B$3*10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+      <formula>$B$8+1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="B1">
+      <formula1>"BUY,SELL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="58.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
+    <col min="7" max="8" width="12.8888888888889" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6">
+        <v>320.9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1334</v>
+      </c>
+      <c r="F3" s="8">
+        <v>112.11</v>
+      </c>
+      <c r="G3" s="8">
+        <f>E3/F3</f>
+        <v>11.8990277406119</v>
+      </c>
+      <c r="H3" s="9">
+        <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
+        <v>-1.2015666422035</v>
+      </c>
+      <c r="I3" s="9">
+        <f>SUM(E3:E4)/SUM(G3:G4)</f>
+        <v>111.748479017064</v>
+      </c>
+      <c r="J3" s="12">
+        <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
+        <v>110.405746570025</v>
+      </c>
+      <c r="K3" s="13">
+        <f>H3/100*SUM(G3:G4)*J3</f>
+        <v>-31.7044172645173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <f>-B3*10/100</f>
+        <v>-32.09</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1336.68</v>
+      </c>
+      <c r="F4" s="8">
+        <v>111.39</v>
+      </c>
+      <c r="G4" s="8">
+        <f>E4/F4</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B3*10/100</f>
+        <v>32.09</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11">
+        <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
+        <v>17016.54402</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="A2">
+      <formula1>"BUY,SELL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Cantidad de compensaciones</t>
   </si>
   <si>
-    <t>suma total de cantidad según la cantidad de compensaciones</t>
+    <t>suma total de cantidad según el número de compensaciones</t>
   </si>
   <si>
     <t>ataque</t>
@@ -142,11 +142,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -204,9 +204,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,11 +280,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,6 +292,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,21 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,16 +341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,187 +369,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,17 +837,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,16 +912,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,29 +934,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,134 +955,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1090,16 +1090,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,13 +1114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,55 +1141,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1618,48 +1615,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="38" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="39" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="37" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="37" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>205</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="42">
         <v>0.75</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1677,7 +1674,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1697,7 +1694,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1705,16 +1702,16 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1725,25 +1722,25 @@
       <c r="B3" s="6">
         <v>316.1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>807</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0.03911</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>31.56177</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="33">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.2777398218245</v>
+        <v>-1.27773982182448</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -1754,23 +1751,23 @@
         <f>-B3*10/100</f>
         <v>-31.61</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>1049</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>0.03977</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <f t="shared" si="0"/>
         <v>41.71873</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <f>E18</f>
         <v>56744</v>
       </c>
@@ -1782,23 +1779,23 @@
       <c r="B5" s="6">
         <v>1.7</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>1363</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>0.04043</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <f t="shared" si="0"/>
         <v>55.10609</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <f>J4*J10</f>
         <v>2473.8995733</v>
       </c>
@@ -1810,25 +1807,25 @@
       <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>1772</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>0.0411</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <f t="shared" si="0"/>
         <v>72.8292</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <f>J3/100*J4*J10</f>
-        <v>-31.6100000000004</v>
+        <v>-31.6099999999999</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
@@ -1838,16 +1835,16 @@
       <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>2304</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>0.04177</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <f t="shared" si="0"/>
         <v>96.23808</v>
       </c>
@@ -1860,16 +1857,16 @@
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>-4.82532883820551</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>2996</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>0.04243</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <f t="shared" si="0"/>
         <v>127.12028</v>
       </c>
@@ -1882,16 +1879,16 @@
         <f>B3*10/100</f>
         <v>31.61</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>6</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>3895</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>0.0431</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <f t="shared" si="0"/>
         <v>167.8745</v>
       </c>
@@ -1906,23 +1903,23 @@
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11">
-        <v>6</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23">
         <v>7</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27">
+      <c r="E10" s="27"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <f>G18/E18</f>
         <v>0.0430404901540251</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.043597553455872</v>
       </c>
@@ -1931,100 +1928,107 @@
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>14189.351073</v>
-      </c>
-      <c r="D11" s="24">
+        <v>807</v>
+      </c>
+      <c r="D11" s="23">
         <v>8</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27">
+      <c r="E11" s="27"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="24">
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8">
+        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*G3</f>
+        <v>31.56177</v>
+      </c>
+      <c r="D12" s="23">
         <v>9</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27">
+      <c r="E12" s="27"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>10</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27">
+      <c r="E13" s="27"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>11</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27">
+      <c r="E14" s="27"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>12</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27">
+      <c r="E15" s="27"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27">
+      <c r="E16" s="27"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f>SUM(E3:E15)*3</f>
         <v>42558</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/2/100),MAX(F3:F16)*(1+$B$5/2/100))</f>
         <v>0.04346635</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <f t="shared" si="0"/>
         <v>1849.8409233</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
       <c r="D18" s="2"/>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f>SUM(E3:E17)</f>
         <v>56744</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
         <f>SUM(G3:G17)</f>
         <v>2442.2895733</v>
       </c>
@@ -2094,7 +2098,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2114,24 +2118,24 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2140,27 +2144,27 @@
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>316.1</v>
-      </c>
-      <c r="D3" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="21">
-        <v>11.9</v>
-      </c>
-      <c r="F3" s="22">
-        <v>112.11</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="E3" s="20">
+        <v>41</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.7848</v>
+      </c>
+      <c r="G3" s="22">
         <f>E3*F3</f>
-        <v>1334.109</v>
+        <v>32.1768</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="33">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.18354538677522</v>
+        <v>-1.27035104134628</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2169,23 +2173,29 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*10/100</f>
-        <v>-31.61</v>
-      </c>
-      <c r="D4" s="24">
+        <v>-32</v>
+      </c>
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26">
+      <c r="E4" s="20">
+        <f>E3*(1+$B$6/100)</f>
+        <v>53.3</v>
+      </c>
+      <c r="F4" s="24">
+        <f>F3*(1+$B$5/100)</f>
+        <v>0.7981416</v>
+      </c>
+      <c r="G4" s="25">
         <f t="shared" ref="G3:G17" si="0">E4*F4</f>
-        <v>0</v>
+        <v>42.54094728</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <f>E18</f>
-        <v>23.9</v>
+        <v>2883.585596</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2195,21 +2205,27 @@
       <c r="B5" s="6">
         <v>1.7</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E5" s="20">
+        <f t="shared" ref="E5:E10" si="1">E4*(1+$B$6/100)</f>
+        <v>69.29</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" ref="F5:F10" si="2">F4*(1+$B$5/100)</f>
+        <v>0.8117100072</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="0"/>
+        <v>56.243386398888</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <f>J4*J10</f>
-        <v>2639.179</v>
+        <v>2518.98876440383</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2219,21 +2235,27 @@
       <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E6" s="20">
+        <f t="shared" si="1"/>
+        <v>90.077</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="2"/>
+        <v>0.8255090773224</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="0"/>
+        <v>74.3593811579698</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <f>J3/100*J4*J10</f>
-        <v>-31.2358813032404</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
@@ -2243,14 +2265,20 @@
       <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E7" s="20">
+        <f t="shared" si="1"/>
+        <v>117.1001</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="2"/>
+        <v>0.839542731636881</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" si="0"/>
+        <v>98.3105378289519</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2259,16 +2287,22 @@
       </c>
       <c r="B8" s="6">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>0.882753293176985</v>
-      </c>
-      <c r="D8" s="24">
+        <v>-4.74823765148543</v>
+      </c>
+      <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E8" s="20">
+        <f t="shared" si="1"/>
+        <v>152.23013</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="2"/>
+        <v>0.853814958074707</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="0"/>
+        <v>129.976362063657</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2277,16 +2311,22 @@
       </c>
       <c r="B9" s="6">
         <f>B3*10/100</f>
-        <v>31.61</v>
-      </c>
-      <c r="D9" s="24">
+        <v>32</v>
+      </c>
+      <c r="D9" s="23">
         <v>6</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E9" s="20">
+        <f t="shared" si="1"/>
+        <v>197.899169</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="2"/>
+        <v>0.868329812361977</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>171.841748284361</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
@@ -2296,121 +2336,136 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23">
         <v>7</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27">
+      <c r="E10" s="20"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <f>G18/E18</f>
-        <v>111.748493723849</v>
-      </c>
-      <c r="J10" s="36">
+        <v>0.862463998937186</v>
+      </c>
+      <c r="J10" s="35">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>110.42589958159</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="24">
+        <v>0.873561293931442</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
+        <v>41</v>
+      </c>
+      <c r="D11" s="23">
         <v>8</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27">
+      <c r="E11" s="20"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="24">
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8">
+        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*G3</f>
+        <v>32.1768</v>
+      </c>
+      <c r="D12" s="23">
         <v>9</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27">
+      <c r="E12" s="20"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>10</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27">
+      <c r="E13" s="20"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>11</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27">
+      <c r="E14" s="20"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>12</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27">
+      <c r="E15" s="27"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27">
+      <c r="E16" s="27"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30">
-        <v>12</v>
-      </c>
-      <c r="F17" s="31">
-        <v>111.39</v>
-      </c>
-      <c r="G17" s="32">
-        <f t="shared" si="0"/>
-        <v>1336.68</v>
+      <c r="E17" s="29">
+        <f>SUM(E3:E15)*3</f>
+        <v>2162.689197</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0.87</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="0"/>
+        <v>1881.53960139</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
       <c r="D18" s="2"/>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f>SUM(E3:E17)</f>
-        <v>23.9</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
+        <v>2883.585596</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
         <f>SUM(G3:G17)</f>
-        <v>2670.789</v>
+        <v>2486.98876440383</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -2418,7 +2473,7 @@
     <row r="20" s="1" customFormat="1"/>
     <row r="21" s="1" customFormat="1"/>
     <row r="27" spans="5:5">
-      <c r="E27" s="37"/>
+      <c r="E27" s="36"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2481,7 +2536,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2501,7 +2556,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2509,16 +2564,16 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2529,23 +2584,23 @@
       <c r="B3" s="6">
         <v>316.1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>55.3</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>6.926</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>383.0078</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="33">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-2.08039526588649</v>
       </c>
@@ -2558,19 +2613,19 @@
         <f>-B3*10/100</f>
         <v>-31.61</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26">
+      <c r="E4" s="20"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <f>E18</f>
         <v>221.2</v>
       </c>
@@ -2582,19 +2637,19 @@
       <c r="B5" s="6">
         <v>1.7</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26">
+      <c r="E5" s="20"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <f>J4*J10</f>
         <v>1487.8128</v>
       </c>
@@ -2606,19 +2661,19 @@
       <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26">
+      <c r="E6" s="20"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="33">
         <f>J3/100*J4*J10</f>
         <v>-30.9523870564533</v>
       </c>
@@ -2630,12 +2685,12 @@
       <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26">
+      <c r="E7" s="20"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2648,12 +2703,12 @@
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
         <v>1.70809770766547</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26">
+      <c r="E8" s="20"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2666,12 +2721,12 @@
         <f>B3*10/100</f>
         <v>31.61</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>6</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27">
+      <c r="E9" s="20"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2689,114 +2744,114 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>7</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27">
+      <c r="E10" s="20"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <f>G18/E18</f>
         <v>6.869</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>6.72609764918626</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>8</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27">
+      <c r="E11" s="20"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>9</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27">
+      <c r="E12" s="20"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>10</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27">
+      <c r="E13" s="20"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>11</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27">
+      <c r="E14" s="27"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>12</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27">
+      <c r="E15" s="27"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>13</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27">
+      <c r="E16" s="27"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f>SUM(E3:E15)*3</f>
         <v>165.9</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <v>6.85</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <f t="shared" si="0"/>
         <v>1136.415</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
       <c r="D18" s="2"/>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f>SUM(E3:E17)</f>
         <v>221.2</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
         <f>SUM(G3:G17)</f>
         <v>1519.4228</v>
       </c>
@@ -2863,8 +2918,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2894,7 +2949,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2926,37 +2981,37 @@
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>320.9</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="8">
-        <v>1334</v>
+        <v>210</v>
       </c>
       <c r="F3" s="8">
-        <v>112.11</v>
+        <v>0.809</v>
       </c>
       <c r="G3" s="8">
         <f>E3/F3</f>
-        <v>11.8990277406119</v>
+        <v>259.579728059332</v>
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-1.2015666422035</v>
+        <v>-9.51206623216486</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>111.748479017064</v>
-      </c>
-      <c r="J3" s="12">
+        <v>0.81847598123016</v>
+      </c>
+      <c r="J3" s="11">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>110.405746570025</v>
-      </c>
-      <c r="K3" s="13">
+        <v>0.9045139469425</v>
+      </c>
+      <c r="K3" s="12">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-31.7044172645173</v>
+        <v>-32.4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2965,26 +3020,26 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*10/100</f>
-        <v>-32.09</v>
+        <v>-32.4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="8">
-        <v>1336.68</v>
+        <v>98.22</v>
       </c>
       <c r="F4" s="8">
-        <v>111.39</v>
+        <v>0.8395</v>
       </c>
       <c r="G4" s="8">
         <f>E4/F4</f>
-        <v>12</v>
+        <v>116.998213222156</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -3040,7 +3095,7 @@
       </c>
       <c r="B8" s="6">
         <f>B3*10/100</f>
-        <v>32.09</v>
+        <v>32.4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3055,8 +3110,8 @@
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11">
-        <v>5</v>
+      <c r="B9" s="8">
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3071,9 +3126,9 @@
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>17016.54402</v>
+        <v>3692.39619</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3098,5 +3153,27 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="1" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>CALCULADORA!F3</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -2919,7 +2919,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2999,19 +2999,19 @@
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-9.51206623216486</v>
+        <v>-2.60785576303927</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.81847598123016</v>
+        <v>0.824720708392809</v>
       </c>
       <c r="J3" s="11">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.9045139469425</v>
+        <v>0.846804138931591</v>
       </c>
       <c r="K3" s="12">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-32.4</v>
+        <v>-32.3999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3027,14 +3027,14 @@
         <v>38</v>
       </c>
       <c r="E4" s="8">
-        <v>98.22</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="8">
-        <v>0.8395</v>
+        <v>0.8281</v>
       </c>
       <c r="G4" s="8">
         <f>E4/F4</f>
-        <v>116.998213222156</v>
+        <v>1207.58362516604</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
     <sheet name="ALL" sheetId="6" r:id="rId2"/>
     <sheet name="CALCULADORA" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -153,13 +152,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Berlin Sans FB"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,6 +167,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="4"/>
@@ -556,12 +555,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -609,21 +662,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -786,45 +824,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1083,104 +1082,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1664,7 +1663,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1684,345 +1683,345 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>316.1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="20">
         <v>807</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="21">
         <v>0.03911</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="22">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
         <v>31.56177</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="33">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.27773982182448</v>
+        <v>-1.28042968270586</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <f>-B3*10/100</f>
         <v>-31.61</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="24">
         <v>1049</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="25">
         <v>0.03977</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="26">
         <f t="shared" si="0"/>
         <v>41.71873</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="33">
         <f>E18</f>
         <v>56744</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1.7</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="24">
         <v>1363</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="25">
         <v>0.04043</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="26">
         <f t="shared" si="0"/>
         <v>55.10609</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="33">
         <f>J4*J10</f>
-        <v>2473.8995733</v>
+        <v>2468.7025322</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="24">
         <v>1772</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="25">
         <v>0.0411</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="26">
         <f t="shared" si="0"/>
         <v>72.8292</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="33">
         <f>J3/100*J4*J10</f>
-        <v>-31.6099999999999</v>
+        <v>-31.6100000000001</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="24">
         <v>2304</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="25">
         <v>0.04177</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>96.23808</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>-4.82532883820551</v>
-      </c>
-      <c r="D8" s="14">
+        <v>-4.69945995558952</v>
+      </c>
+      <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="24">
         <v>2996</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="25">
         <v>0.04243</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="26">
         <f t="shared" si="0"/>
         <v>127.12028</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <f>B3*10/100</f>
         <v>31.61</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="23">
         <v>6</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="24">
         <v>3895</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="25">
         <v>0.0431</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
         <v>167.8745</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="23">
         <v>7</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18">
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="34">
         <f>G18/E18</f>
-        <v>0.0430404901540251</v>
-      </c>
-      <c r="J10" s="27">
+        <v>0.0429489026540251</v>
+      </c>
+      <c r="J10" s="35">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.043597553455872</v>
+        <v>0.043505965955872</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="8">
         <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
         <v>14189.351073</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="23">
         <v>8</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18">
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="8">
         <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*G3</f>
         <v>554.94552046503</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="23">
         <v>9</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18">
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="14">
+      <c r="D13" s="23">
         <v>10</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18">
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="14">
+      <c r="D14" s="23">
         <v>11</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18">
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="14">
+      <c r="D15" s="23">
         <v>12</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18">
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="14">
+      <c r="D16" s="23">
         <v>13</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18">
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="29">
         <f>SUM(E3:E15)*3</f>
         <v>42558</v>
       </c>
-      <c r="F17" s="22">
-        <f>IF(B1="BUY",MIN(F3:F16)*(1-$B$5/2/100),MAX(F3:F16)*(1+$B$5/2/100))</f>
-        <v>0.04346635</v>
-      </c>
-      <c r="G17" s="23">
+      <c r="F17" s="30">
+        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
+        <v>0.0433442333333333</v>
+      </c>
+      <c r="G17" s="31">
         <f t="shared" si="0"/>
-        <v>1849.8409233</v>
+        <v>1844.6438822</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:8">
-      <c r="D18" s="3"/>
-      <c r="E18" s="24">
+      <c r="D18" s="2"/>
+      <c r="E18" s="32">
         <f>SUM(E3:E17)</f>
         <v>56744</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
         <f>SUM(G3:G17)</f>
-        <v>2442.2895733</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>2437.0925322</v>
+      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1"/>
     <row r="20" s="1" customFormat="1"/>
@@ -2087,7 +2086,7 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2117,104 +2116,104 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>330.92</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="8">
         <v>210</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="8">
         <v>0.809</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="8">
         <f>E3/F3</f>
         <v>259.579728059332</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="9">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
         <v>-2.66207167289306</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
         <v>0.824720708392809</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="11">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
         <v>0.847275797386309</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="12">
         <f>H3/100*SUM(G3:G4)*J3</f>
         <v>-33.0919999999998</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <f>-B3*10/100</f>
         <v>-33.092</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="8">
         <v>1000</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="8">
         <v>0.8281</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="8">
         <f>E4/F4</f>
         <v>1207.58362516604</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="35"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1.7</v>
       </c>
       <c r="C5" s="1"/>
@@ -2227,10 +2226,10 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>30</v>
       </c>
       <c r="C6" s="1"/>
@@ -2243,10 +2242,10 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
@@ -2259,10 +2258,10 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <f>B3*10/100</f>
         <v>33.092</v>
       </c>
@@ -2276,10 +2275,10 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -2292,10 +2291,10 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="8">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
         <v>3692.39619</v>
       </c>
@@ -2345,452 +2344,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="58.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9">
-        <v>316.1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11">
-        <v>807</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.03911</v>
-      </c>
-      <c r="G3" s="13">
-        <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>31.56177</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="25">
-        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.60039061795415</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="9">
-        <f>-B3*10/100</f>
-        <v>-31.61</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
-        <f>E3*(1+$B$6/100)</f>
-        <v>887.7</v>
-      </c>
-      <c r="F4" s="16">
-        <f>F3*(1+$B$5/100)</f>
-        <v>0.03977487</v>
-      </c>
-      <c r="G4" s="17">
-        <f t="shared" si="0"/>
-        <v>35.308152099</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="25">
-        <f>E18</f>
-        <v>43834.55146548</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <f>E4*(1+$B$6/100)</f>
-        <v>976.47</v>
-      </c>
-      <c r="F5" s="16">
-        <f>F4*(1+$B$5/100)</f>
-        <v>0.04045104279</v>
-      </c>
-      <c r="G5" s="17">
-        <f t="shared" si="0"/>
-        <v>39.4992297531513</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="25">
-        <f>J4*J10</f>
-        <v>1975.14279610116</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-      <c r="E6" s="15">
-        <f>E5*(1+$B$6/100)</f>
-        <v>1074.117</v>
-      </c>
-      <c r="F6" s="16">
-        <f>F5*(1+$B$5/100)</f>
-        <v>0.04113871051743</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" si="0"/>
-        <v>44.1877883248504</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="25">
-        <f>J3/100*J4*J10</f>
-        <v>-31.6100000000002</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="15">
-        <f>E6*(1+$B$6/100)</f>
-        <v>1181.5287</v>
-      </c>
-      <c r="F7" s="16">
-        <f>F6*(1+$B$5/100)</f>
-        <v>0.0418380685962263</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="0"/>
-        <v>49.4328787990101</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="9">
-        <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>-6.36085165311165</v>
-      </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="15">
-        <f>E7*(1+$B$6/100)</f>
-        <v>1299.68157</v>
-      </c>
-      <c r="F8" s="16">
-        <f>F7*(1+$B$5/100)</f>
-        <v>0.0425493157623621</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" si="0"/>
-        <v>55.3005615124526</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9">
-        <f>B3*10/100</f>
-        <v>31.61</v>
-      </c>
-      <c r="D9" s="14">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15">
-        <f>E8*(1+$B$6/100)</f>
-        <v>1429.649727</v>
-      </c>
-      <c r="F9" s="16">
-        <f>F8*(1+$B$5/100)</f>
-        <v>0.0432726541303223</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="0"/>
-        <v>61.8647381639807</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="19">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14">
-        <v>7</v>
-      </c>
-      <c r="E10" s="15">
-        <f>E9*(1+$B$6/100)</f>
-        <v>1572.6146997</v>
-      </c>
-      <c r="F10" s="16">
-        <f>F9*(1+$B$5/100)</f>
-        <v>0.0440082892505378</v>
-      </c>
-      <c r="G10" s="18">
-        <f t="shared" si="0"/>
-        <v>69.2080825840452</v>
-      </c>
-      <c r="I10" s="26">
-        <f>G18/E18</f>
-        <v>0.0443379190872229</v>
-      </c>
-      <c r="J10" s="27">
-        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0450590397316281</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="19">
-        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>7656.146997</v>
-      </c>
-      <c r="D11" s="14">
-        <v>8</v>
-      </c>
-      <c r="E11" s="15">
-        <f>E10*(1+$B$6/100)</f>
-        <v>1729.87616967</v>
-      </c>
-      <c r="F11" s="16">
-        <f>F10*(1+$B$5/100)</f>
-        <v>0.0447564301677969</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" si="0"/>
-        <v>77.4230819867714</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="19">
-        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*G3</f>
-        <v>299.43190905267</v>
-      </c>
-      <c r="D12" s="14">
-        <v>9</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="14">
-        <v>10</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="14">
-        <v>12</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="14">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="21">
-        <f>SUM(E3:E15)*3</f>
-        <v>32875.91359911</v>
-      </c>
-      <c r="F17" s="22">
-        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.0450100499387478</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="0"/>
-        <v>1479.7465128779</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:8">
-      <c r="D18" s="3"/>
-      <c r="E18" s="24">
-        <f>SUM(E3:E17)</f>
-        <v>43834.55146548</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
-        <f>SUM(G3:G17)</f>
-        <v>1943.53279610116</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-  </sheetData>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$J$6&gt;=$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>$B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
-      <formula>$B$3*10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
-      <formula>$B$3*$B$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$G$18&gt;$B$3*$B$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
-      <formula>$B$8+1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="B1">
-      <formula1>"BUY,SELL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Apalancamiento</t>
   </si>
   <si>
+    <t>Soporta una varacion %</t>
+  </si>
+  <si>
     <t>Cantidad de compensaciones menor a</t>
   </si>
   <si>
@@ -96,49 +99,71 @@
     <t>Cantidad de compensaciones</t>
   </si>
   <si>
+    <t>cantidad total según el número de compensaciones</t>
+  </si>
+  <si>
+    <t>cantidad total USDT según el número de compensaciones</t>
+  </si>
+  <si>
+    <t>ataque</t>
+  </si>
+  <si>
+    <t>ataque USDT</t>
+  </si>
+  <si>
+    <t>cantidad total con ataque</t>
+  </si>
+  <si>
+    <t>cantidad total con ataque USDT</t>
+  </si>
+  <si>
+    <t>precio posicion final</t>
+  </si>
+  <si>
+    <t>precio stop</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Entry Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Variación %</t>
+  </si>
+  <si>
+    <t>QUEDA EN</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>PNL</t>
+  </si>
+  <si>
+    <t>Posición</t>
+  </si>
+  <si>
+    <t>Ataque</t>
+  </si>
+  <si>
     <t>suma total de cantidad según el número de compensaciones</t>
-  </si>
-  <si>
-    <t>ataque</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Entry Price</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Variación %</t>
-  </si>
-  <si>
-    <t>QUEDA EN</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>PNL</t>
-  </si>
-  <si>
-    <t>Posición</t>
-  </si>
-  <si>
-    <t>Ataque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -196,8 +221,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,40 +335,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,66 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -325,20 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -361,181 +386,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +858,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -853,6 +898,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -869,6 +923,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -882,60 +951,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -947,134 +972,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1082,7 +1107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,13 +1116,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,10 +1134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1133,52 +1161,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1271,6 +1302,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
@@ -1281,16 +1322,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="0.6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1604,48 +1635,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="36" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="36" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="37" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="38" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="40">
+      <c r="A2" s="42">
         <v>205</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="43">
         <v>0.75</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="42">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="41">
+      <c r="A5" s="43">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="43">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1660,16 +1691,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="58.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889" style="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
@@ -1683,7 +1714,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1691,16 +1722,16 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1709,27 +1740,27 @@
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>316.1</v>
-      </c>
-      <c r="D3" s="19" t="s">
+        <v>352.6164</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20">
-        <v>807</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.03911</v>
-      </c>
-      <c r="G3" s="22">
+      <c r="E3" s="21">
+        <v>616</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.056</v>
+      </c>
+      <c r="G3" s="23">
         <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>31.56177</v>
+        <v>34.496</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="34">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.28042968270586</v>
+        <v>-1.63287604926647</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -1738,27 +1769,29 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*10/100</f>
-        <v>-31.61</v>
-      </c>
-      <c r="D4" s="23">
+        <v>-35.26164</v>
+      </c>
+      <c r="D4" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
-        <v>1049</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0.03977</v>
-      </c>
-      <c r="G4" s="26">
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E11" si="1">E3*(1+$B$6/100)</f>
+        <v>677.6</v>
+      </c>
+      <c r="F4" s="26">
+        <f>F3*(1+$B$5/100)</f>
+        <v>0.056952</v>
+      </c>
+      <c r="G4" s="27">
         <f t="shared" si="0"/>
-        <v>41.71873</v>
+        <v>38.5906752</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="34">
         <f>E18</f>
-        <v>56744</v>
+        <v>33459.83110624</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -1768,25 +1801,27 @@
       <c r="B5" s="6">
         <v>1.7</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="24">
-        <v>1363</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0.04043</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="E5" s="25">
+        <f t="shared" si="1"/>
+        <v>745.36</v>
+      </c>
+      <c r="F5" s="26">
+        <f>F4*(1+$B$5/100)</f>
+        <v>0.057920184</v>
+      </c>
+      <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>55.10609</v>
+        <v>43.17138834624</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="34">
         <f>J4*J10</f>
-        <v>2468.7025322</v>
+        <v>2159.4805077728</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -1794,280 +1829,378 @@
         <v>18</v>
       </c>
       <c r="B6" s="6">
-        <v>30</v>
-      </c>
-      <c r="D6" s="23">
+        <v>10</v>
+      </c>
+      <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="24">
-        <v>1772</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0.0411</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="E6" s="25">
+        <f t="shared" si="1"/>
+        <v>819.896</v>
+      </c>
+      <c r="F6" s="26">
+        <f>F5*(1+$B$5/100)</f>
+        <v>0.058904827128</v>
+      </c>
+      <c r="G6" s="27">
         <f t="shared" si="0"/>
-        <v>72.8292</v>
+        <v>48.2958321429387</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="34">
         <f>J3/100*J4*J10</f>
-        <v>-31.6100000000001</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+        <v>-35.2616400000001</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <v>4</v>
       </c>
-      <c r="E7" s="24">
-        <v>2304</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0.04177</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="E7" s="25">
+        <f t="shared" si="1"/>
+        <v>901.8856</v>
+      </c>
+      <c r="F7" s="26">
+        <f>F6*(1+$B$5/100)</f>
+        <v>0.059906209189176</v>
+      </c>
+      <c r="G7" s="27">
         <f t="shared" si="0"/>
-        <v>96.23808</v>
+        <v>54.0285474183055</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="8">
+        <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
+        <v>-13.231421390233</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6">
         <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>-4.69945995558952</v>
-      </c>
-      <c r="D8" s="23">
+        <v>-6.34095069146323</v>
+      </c>
+      <c r="D8" s="24">
         <v>5</v>
       </c>
-      <c r="E8" s="24">
-        <v>2996</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0.04243</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="E8" s="25">
+        <f t="shared" si="1"/>
+        <v>992.07416</v>
+      </c>
+      <c r="F8" s="26">
+        <f>F7*(1+$B$5/100)</f>
+        <v>0.060924614745392</v>
+      </c>
+      <c r="G8" s="27">
         <f t="shared" si="0"/>
-        <v>127.12028</v>
+        <v>60.4417359968584</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6">
         <f>B3*10/100</f>
-        <v>31.61</v>
-      </c>
-      <c r="D9" s="23">
+        <v>35.26164</v>
+      </c>
+      <c r="D9" s="24">
         <v>6</v>
       </c>
-      <c r="E9" s="24">
-        <v>3895</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0.0431</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
+        <v>1091.281576</v>
+      </c>
+      <c r="F9" s="26">
+        <f>F8*(1+$B$5/100)</f>
+        <v>0.0619603331960636</v>
+      </c>
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>167.8745</v>
+        <v>67.6161700596855</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8">
-        <v>6</v>
-      </c>
-      <c r="D10" s="23">
+        <v>8</v>
+      </c>
+      <c r="D10" s="24">
         <v>7</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27">
+      <c r="E10" s="25">
+        <f t="shared" si="1"/>
+        <v>1200.4097336</v>
+      </c>
+      <c r="F10" s="26">
+        <f>F9*(1+$B$5/100)</f>
+        <v>0.0630136588603967</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
+        <v>75.6422094457701</v>
+      </c>
+      <c r="I10" s="35">
+        <f>G18/E18</f>
+        <v>0.0634856422624516</v>
+      </c>
+      <c r="J10" s="36">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.0645394921724538</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8">
+        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
+        <v>8364.95777656</v>
+      </c>
+      <c r="D11" s="24">
+        <v>8</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>1320.45070696</v>
+      </c>
+      <c r="F11" s="26">
+        <f>F10*(1+$B$5/100)</f>
+        <v>0.0640848910610234</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
+        <v>84.620939706983</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8">
+        <f>((1-POWER(1+$B$6/100,$B$10+1))/(1-(1+$B$6/100)))*$G$3</f>
+        <v>468.43763548736</v>
+      </c>
+      <c r="D12" s="24">
+        <v>9</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="34">
-        <f>G18/E18</f>
-        <v>0.0429489026540251</v>
-      </c>
-      <c r="J10" s="35">
-        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.043505965955872</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8">
-        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>14189.351073</v>
-      </c>
-      <c r="D11" s="23">
-        <v>8</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <f>B11*3</f>
+        <v>25094.87332968</v>
+      </c>
+      <c r="D13" s="24">
+        <v>10</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8">
-        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*G3</f>
-        <v>554.94552046503</v>
-      </c>
-      <c r="D12" s="23">
-        <v>9</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27">
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <f>B12*3</f>
+        <v>1405.31290646208</v>
+      </c>
+      <c r="D14" s="24">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="4:7">
-      <c r="D13" s="23">
-        <v>10</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27">
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B13+B11</f>
+        <v>33459.83110624</v>
+      </c>
+      <c r="D15" s="24">
+        <v>12</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="4:7">
-      <c r="D14" s="23">
-        <v>11</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27">
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B14+B12</f>
+        <v>1873.75054194944</v>
+      </c>
+      <c r="D16" s="24">
+        <v>13</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="4:7">
-      <c r="D15" s="23">
-        <v>12</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27">
+    <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8">
+        <f>B16/B15</f>
+        <v>0.056</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="30">
+        <f>SUM(E3:E15)*3</f>
+        <v>25094.87332968</v>
+      </c>
+      <c r="F17" s="31">
+        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
+        <v>0.0644480387770359</v>
+      </c>
+      <c r="G17" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:7">
-      <c r="D16" s="23">
-        <v>13</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="18.15" spans="4:7">
-      <c r="D17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="29">
-        <f>SUM(E3:E15)*3</f>
-        <v>42558</v>
-      </c>
-      <c r="F17" s="30">
-        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.0433442333333333</v>
-      </c>
-      <c r="G17" s="31">
-        <f t="shared" si="0"/>
-        <v>1844.6438822</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="4:8">
+        <v>1617.31536945602</v>
+      </c>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8">
+        <f>IF(B1="BUY",((B4/B16)+1)*B17,((B4/-B16)+1)*B17)</f>
+        <v>0.0570538499100022</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="32">
+      <c r="E18" s="33">
         <f>SUM(E3:E17)</f>
-        <v>56744</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32">
+        <v>33459.83110624</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
         <f>SUM(G3:G17)</f>
-        <v>2437.0925322</v>
+        <v>2124.2188677728</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="10:10">
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="10:10">
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="10:10">
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="37"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$J$6&gt;=$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>$G$18&gt;$B$3*$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
       <formula>$B$3*$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
       <formula>$B$3*10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="lessThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="greaterThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="4" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="lessThan">
       <formula>$B$8+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2086,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2123,25 +2256,25 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2149,37 +2282,37 @@
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>330.92</v>
+        <v>353.86</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="8">
-        <v>210</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.809</v>
+        <v>621.74</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.05835</v>
       </c>
       <c r="G3" s="8">
         <f>E3/F3</f>
-        <v>259.579728059332</v>
-      </c>
-      <c r="H3" s="9">
+        <v>10655.3556126821</v>
+      </c>
+      <c r="H3" s="10">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-2.66207167289306</v>
-      </c>
-      <c r="I3" s="9">
+        <v>-0.584204456040693</v>
+      </c>
+      <c r="I3" s="10">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.824720708392809</v>
-      </c>
-      <c r="J3" s="11">
+        <v>0.062618152119243</v>
+      </c>
+      <c r="J3" s="12">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.847275797386309</v>
-      </c>
-      <c r="K3" s="12">
+        <v>0.0629861198380238</v>
+      </c>
+      <c r="K3" s="13">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-33.0919999999998</v>
+        <v>-35.3859999999994</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2188,26 +2321,26 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*10/100</f>
-        <v>-33.092</v>
+        <v>-35.386</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.8281</v>
+        <v>5400</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.06315</v>
       </c>
       <c r="G4" s="8">
         <f>E4/F4</f>
-        <v>1207.58362516604</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="13"/>
+        <v>85510.6888361045</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -2259,11 +2392,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6">
         <f>B3*10/100</f>
-        <v>33.092</v>
+        <v>35.386</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2276,7 +2409,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8">
         <v>6</v>
@@ -2292,11 +2425,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>3692.39619</v>
+        <v>10931.95431986</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
-    <sheet name="ALL" sheetId="6" r:id="rId2"/>
+    <sheet name="GRILLA" sheetId="6" r:id="rId2"/>
     <sheet name="CALCULADORA" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -36,7 +36,7 @@
     <t>ALL IN ONE</t>
   </si>
   <si>
-    <t>SELL</t>
+    <t>BUY</t>
   </si>
   <si>
     <t>tipo</t>
@@ -84,21 +84,18 @@
     <t>Soporta una varacion %</t>
   </si>
   <si>
-    <t>Cantidad de compensaciones menor a</t>
-  </si>
-  <si>
     <t>Entrada</t>
   </si>
   <si>
+    <t>Cantidad de compensaciones</t>
+  </si>
+  <si>
     <t>precio de la posicion al final</t>
   </si>
   <si>
     <t>precio stop deberia ser</t>
   </si>
   <si>
-    <t>Cantidad de compensaciones</t>
-  </si>
-  <si>
     <t>cantidad total según el número de compensaciones</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>precio stop</t>
+  </si>
+  <si>
+    <t>Porcentaje de entrada</t>
+  </si>
+  <si>
+    <t>Porcentaje de pérdida</t>
   </si>
   <si>
     <t>Size</t>
@@ -158,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
@@ -221,6 +224,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -230,108 +318,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,7 +332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,8 +353,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,37 +377,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF6F5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,97 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,62 +585,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -783,20 +798,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -811,8 +841,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -820,65 +852,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,6 +873,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -922,6 +906,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -951,18 +944,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,134 +974,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,13 +1160,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,34 +1178,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,21 +1291,21 @@
   <dxfs count="5">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1330,6 +1338,9 @@
   <colors>
     <mruColors>
       <color rgb="00F43308"/>
+      <color rgb="00EF9437"/>
+      <color rgb="0053198A"/>
+      <color rgb="00F6F5E3"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1635,48 +1646,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="38" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="38" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="39" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="40" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="42">
+      <c r="A2" s="44">
         <v>205</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>0.75</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="44">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="43">
+      <c r="A5" s="45">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="45">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1693,8 +1704,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1703,7 +1714,7 @@
     <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889" style="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
@@ -1739,28 +1750,29 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
-        <v>352.6164</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="20">
+        <v>320.11</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="21">
-        <v>616</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0.056</v>
-      </c>
-      <c r="G3" s="23">
-        <f t="shared" ref="G3:G17" si="0">E3*F3</f>
-        <v>34.496</v>
+      <c r="E3" s="22">
+        <f>G3/F3</f>
+        <v>3518.33669170178</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.005459</v>
+      </c>
+      <c r="G3" s="24">
+        <f>B8</f>
+        <v>19.2066</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="36">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.63287604926647</v>
+        <v>-1.48327505872033</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -1768,30 +1780,30 @@
         <v>14</v>
       </c>
       <c r="B4" s="6">
-        <f>-B3*10/100</f>
-        <v>-35.26164</v>
-      </c>
-      <c r="D4" s="24">
+        <f>-B3*$B$19/100</f>
+        <v>-32.011</v>
+      </c>
+      <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
-        <f t="shared" ref="E4:E11" si="1">E3*(1+$B$6/100)</f>
-        <v>677.6</v>
-      </c>
-      <c r="F4" s="26">
-        <f>F3*(1+$B$5/100)</f>
-        <v>0.056952</v>
-      </c>
-      <c r="G4" s="27">
-        <f t="shared" si="0"/>
-        <v>38.5906752</v>
+      <c r="E4" s="26">
+        <f>E3*(1+$B$6/100)</f>
+        <v>4573.83769921231</v>
+      </c>
+      <c r="F4" s="27">
+        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
+        <v>0.005366197</v>
+      </c>
+      <c r="G4" s="24">
+        <f t="shared" ref="G4:G16" si="0">E4*F4</f>
+        <v>24.54411414</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="36">
         <f>E18</f>
-        <v>33459.83110624</v>
+        <v>450558.167326035</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -1801,27 +1813,27 @@
       <c r="B5" s="6">
         <v>1.7</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="25">
         <v>2</v>
       </c>
-      <c r="E5" s="25">
-        <f t="shared" si="1"/>
-        <v>745.36</v>
-      </c>
-      <c r="F5" s="26">
-        <f>F4*(1+$B$5/100)</f>
-        <v>0.057920184</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:E16" si="1">E4*(1+$B$6/100)</f>
+        <v>5945.989008976</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <v>0.005274971651</v>
+      </c>
+      <c r="G5" s="24">
         <f t="shared" si="0"/>
-        <v>43.17138834624</v>
+        <v>31.364923459506</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>2159.4805077728</v>
+        <v>2126.11872865713</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -1829,29 +1841,29 @@
         <v>18</v>
       </c>
       <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="24">
+        <v>30</v>
+      </c>
+      <c r="D6" s="25">
         <v>3</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="26">
         <f t="shared" si="1"/>
-        <v>819.896</v>
-      </c>
-      <c r="F6" s="26">
-        <f>F5*(1+$B$5/100)</f>
-        <v>0.058904827128</v>
-      </c>
-      <c r="G6" s="27">
+        <v>7729.78571166881</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="2"/>
+        <v>0.005185297132933</v>
+      </c>
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
-        <v>48.2958321429387</v>
+        <v>40.0812356889027</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-35.2616400000001</v>
+        <v>-31.5361888209531</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -1861,27 +1873,27 @@
       <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="25">
         <v>4</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <f t="shared" si="1"/>
-        <v>901.8856</v>
-      </c>
-      <c r="F7" s="26">
-        <f>F6*(1+$B$5/100)</f>
-        <v>0.059906209189176</v>
-      </c>
-      <c r="G7" s="27">
+        <v>10048.7214251694</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="2"/>
+        <v>0.00509714708167314</v>
+      </c>
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
-        <v>54.0285474183055</v>
+        <v>51.2198110868488</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="8">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
-        <v>-13.231421390233</v>
+        <v>-13.5582496633238</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -1889,47 +1901,46 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <f>(LOG10((B4+G18)/(E18*F3))/LOG10(1-(B5/100)))</f>
-        <v>-6.34095069146323</v>
-      </c>
-      <c r="D8" s="24">
+        <f>B3*$B$18/100</f>
+        <v>19.2066</v>
+      </c>
+      <c r="D8" s="25">
         <v>5</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>992.07416</v>
-      </c>
-      <c r="F8" s="26">
-        <f>F7*(1+$B$5/100)</f>
-        <v>0.060924614745392</v>
-      </c>
-      <c r="G8" s="27">
+        <v>13063.3378527203</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="2"/>
+        <v>0.0050104955812847</v>
+      </c>
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
-        <v>60.4417359968584</v>
+        <v>65.4537965878841</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
-        <f>B3*10/100</f>
-        <v>35.26164</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="B9" s="29">
+        <v>8</v>
+      </c>
+      <c r="D9" s="25">
         <v>6</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1091.281576</v>
-      </c>
-      <c r="F9" s="26">
-        <f>F8*(1+$B$5/100)</f>
-        <v>0.0619603331960636</v>
-      </c>
-      <c r="G9" s="28">
+        <v>16982.3392085364</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="2"/>
+        <v>0.00492531715640286</v>
+      </c>
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
-        <v>67.6161700596855</v>
+        <v>83.6434066596571</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>24</v>
@@ -1939,233 +1950,239 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="29">
+        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
+        <v>112639.541831509</v>
+      </c>
+      <c r="D10" s="25">
+        <v>7</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="1"/>
+        <v>22077.0409710973</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="2"/>
+        <v>0.00484158676474401</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="0"/>
+        <v>106.887909370376</v>
+      </c>
+      <c r="I10" s="37">
+        <f>G18/E18</f>
+        <v>0.00478990258120314</v>
+      </c>
+      <c r="J10" s="38">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.00471885515087915</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="29">
+        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
+        <v>614.899258858206</v>
+      </c>
+      <c r="D11" s="25">
         <v>8</v>
       </c>
-      <c r="D10" s="24">
-        <v>7</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>1200.4097336</v>
-      </c>
-      <c r="F10" s="26">
-        <f>F9*(1+$B$5/100)</f>
-        <v>0.0630136588603967</v>
-      </c>
-      <c r="G10" s="28">
+        <v>28700.1532624265</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="2"/>
+        <v>0.00475927978974336</v>
+      </c>
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
-        <v>75.6422094457701</v>
-      </c>
-      <c r="I10" s="35">
-        <f>G18/E18</f>
-        <v>0.0634856422624516</v>
-      </c>
-      <c r="J10" s="36">
-        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0645394921724538</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="8">
-        <f>((1-POWER(1+$B$6/100,B10+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>8364.95777656</v>
-      </c>
-      <c r="D11" s="24">
-        <v>8</v>
-      </c>
-      <c r="E11" s="25">
-        <f t="shared" si="1"/>
-        <v>1320.45070696</v>
-      </c>
-      <c r="F11" s="26">
-        <f>F10*(1+$B$5/100)</f>
-        <v>0.0640848910610234</v>
-      </c>
-      <c r="G11" s="28">
-        <f t="shared" si="0"/>
-        <v>84.620939706983</v>
+        <v>136.592059384403</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8">
-        <f>((1-POWER(1+$B$6/100,$B$10+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>468.43763548736</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="B12" s="29">
+        <f>B10*3</f>
+        <v>337918.625494526</v>
+      </c>
+      <c r="D12" s="25">
         <v>9</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28">
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="29">
         <f>B11*3</f>
-        <v>25094.87332968</v>
-      </c>
-      <c r="D13" s="24">
+        <v>1844.69777657462</v>
+      </c>
+      <c r="D13" s="25">
         <v>10</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8">
-        <f>B12*3</f>
-        <v>1405.31290646208</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="B14" s="29">
+        <f>B12+B10</f>
+        <v>450558.167326035</v>
+      </c>
+      <c r="D14" s="25">
         <v>11</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="28">
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="29">
         <f>B13+B11</f>
-        <v>33459.83110624</v>
-      </c>
-      <c r="D15" s="24">
+        <v>2459.59703543282</v>
+      </c>
+      <c r="D15" s="25">
         <v>12</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8">
-        <f>B14+B12</f>
-        <v>1873.75054194944</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="B16" s="29">
+        <f>B15/B14</f>
+        <v>0.005459</v>
+      </c>
+      <c r="D16" s="25">
         <v>13</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28">
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="8">
-        <f>B16/B15</f>
-        <v>0.056</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="30">
+      <c r="B17" s="29">
+        <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
+        <v>0.00538795256967601</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="31">
         <f>SUM(E3:E15)*3</f>
-        <v>25094.87332968</v>
-      </c>
-      <c r="F17" s="31">
+        <v>337918.625494526</v>
+      </c>
+      <c r="F17" s="32">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.0644480387770359</v>
-      </c>
-      <c r="G17" s="32">
-        <f t="shared" si="0"/>
-        <v>1617.31536945602</v>
-      </c>
-      <c r="J17" s="37"/>
+        <v>0.00473231053760148</v>
+      </c>
+      <c r="G17" s="33">
+        <f>E17*F17</f>
+        <v>1599.13587227955</v>
+      </c>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8">
-        <f>IF(B1="BUY",((B4/B16)+1)*B17,((B4/-B16)+1)*B17)</f>
-        <v>0.0570538499100022</v>
+      <c r="B18" s="34">
+        <v>6</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="33">
+      <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>33459.83110624</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
+        <v>450558.167326035</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>2124.2188677728</v>
+        <v>2158.12972865713</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="10:10">
-      <c r="J19" s="37"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="34">
+        <v>10</v>
+      </c>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="37"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="37"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="37"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="37"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="37"/>
+      <c r="J24" s="39"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$J$6&gt;=$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$J$6&gt;=$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
@@ -2186,22 +2203,22 @@
     <cfRule type="expression" dxfId="3" priority="10">
       <formula>$G$18&gt;$B$3*$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="greaterThan">
       <formula>$B$3*$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
       <formula>$B$3*10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="lessThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="greaterThan">
       <formula>#REF!*#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="2" priority="25" operator="lessThan">
-      <formula>$B$8+1</formula>
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThan">
+      <formula>#REF!+1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2219,8 +2236,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2256,25 +2273,25 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2282,37 +2299,37 @@
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>353.86</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8">
-        <v>621.74</v>
+        <v>221.14</v>
       </c>
       <c r="F3" s="9">
-        <v>0.05835</v>
+        <v>0.005201</v>
       </c>
       <c r="G3" s="8">
         <f>E3/F3</f>
-        <v>10655.3556126821</v>
+        <v>42518.746394924</v>
       </c>
       <c r="H3" s="10">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-0.584204456040693</v>
+        <v>-2.37673524380461</v>
       </c>
       <c r="I3" s="10">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.062618152119243</v>
+        <v>0.00503255488662331</v>
       </c>
       <c r="J3" s="12">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.0629861198380238</v>
+        <v>0.00491294438096912</v>
       </c>
       <c r="K3" s="13">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-35.3859999999994</v>
+        <v>-30.6537051334455</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2321,21 +2338,21 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*10/100</f>
-        <v>-35.386</v>
+        <v>-31.4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8">
-        <v>5400</v>
+        <v>1100</v>
       </c>
       <c r="F4" s="9">
-        <v>0.06315</v>
+        <v>0.005</v>
       </c>
       <c r="G4" s="8">
         <f>E4/F4</f>
-        <v>85510.6888361045</v>
+        <v>220000</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2392,11 +2409,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6">
         <f>B3*10/100</f>
-        <v>35.386</v>
+        <v>31.4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2409,7 +2426,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8">
         <v>6</v>
@@ -2425,11 +2442,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="8">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>10931.95431986</v>
+        <v>3888.26901646</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1751,21 +1751,21 @@
         <v>11</v>
       </c>
       <c r="B3" s="20">
-        <v>320.11</v>
+        <v>320.28</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="22">
         <f>G3/F3</f>
-        <v>3518.33669170178</v>
+        <v>3520.20516578128</v>
       </c>
       <c r="F3" s="23">
         <v>0.005459</v>
       </c>
       <c r="G3" s="24">
         <f>B8</f>
-        <v>19.2066</v>
+        <v>19.2168</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
@@ -1781,14 +1781,14 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*$B$19/100</f>
-        <v>-32.011</v>
+        <v>-32.028</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3*(1+$B$6/100)</f>
-        <v>4573.83769921231</v>
+        <v>4576.26671551566</v>
       </c>
       <c r="F4" s="27">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -1796,14 +1796,14 @@
       </c>
       <c r="G4" s="24">
         <f t="shared" ref="G4:G16" si="0">E4*F4</f>
-        <v>24.54411414</v>
+        <v>24.55714872</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="36">
         <f>E18</f>
-        <v>450558.167326035</v>
+        <v>450797.444101035</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -1817,23 +1817,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="26">
-        <f t="shared" ref="E5:E16" si="1">E4*(1+$B$6/100)</f>
-        <v>5945.989008976</v>
+        <f>E4*(1+$B$6/100)</f>
+        <v>5949.14673017036</v>
       </c>
       <c r="F5" s="27">
-        <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <f t="shared" ref="F5:F12" si="1">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005274971651</v>
       </c>
       <c r="G5" s="24">
         <f t="shared" si="0"/>
-        <v>31.364923459506</v>
+        <v>31.381580349288</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>2126.11872865713</v>
+        <v>2127.24784109933</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -1847,23 +1847,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="26">
+        <f>E5*(1+$B$6/100)</f>
+        <v>7733.89074922147</v>
+      </c>
+      <c r="F6" s="27">
         <f t="shared" si="1"/>
-        <v>7729.78571166881</v>
-      </c>
-      <c r="F6" s="27">
-        <f t="shared" si="2"/>
         <v>0.005185297132933</v>
       </c>
       <c r="G6" s="24">
         <f t="shared" si="0"/>
-        <v>40.0812356889027</v>
+        <v>40.1025215283551</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-31.5361888209531</v>
+        <v>-31.5529366641931</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -1877,16 +1877,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="26">
+        <f>E6*(1+$B$6/100)</f>
+        <v>10054.0579739879</v>
+      </c>
+      <c r="F7" s="27">
         <f t="shared" si="1"/>
-        <v>10048.7214251694</v>
-      </c>
-      <c r="F7" s="27">
-        <f t="shared" si="2"/>
         <v>0.00509714708167314</v>
       </c>
       <c r="G7" s="24">
         <f t="shared" si="0"/>
-        <v>51.2198110868488</v>
+        <v>51.247012261085</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>21</v>
@@ -1902,22 +1902,22 @@
       </c>
       <c r="B8" s="6">
         <f>B3*$B$18/100</f>
-        <v>19.2066</v>
+        <v>19.2168</v>
       </c>
       <c r="D8" s="25">
         <v>5</v>
       </c>
       <c r="E8" s="26">
+        <f>E7*(1+$B$6/100)</f>
+        <v>13070.2753661843</v>
+      </c>
+      <c r="F8" s="27">
         <f t="shared" si="1"/>
-        <v>13063.3378527203</v>
-      </c>
-      <c r="F8" s="27">
-        <f t="shared" si="2"/>
         <v>0.0050104955812847</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="0"/>
-        <v>65.4537965878841</v>
+        <v>65.4885569684405</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -1931,16 +1931,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="26">
+        <f>E8*(1+$B$6/100)</f>
+        <v>16991.3579760396</v>
+      </c>
+      <c r="F9" s="27">
         <f t="shared" si="1"/>
-        <v>16982.3392085364</v>
-      </c>
-      <c r="F9" s="27">
-        <f t="shared" si="2"/>
         <v>0.00492531715640286</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="0"/>
-        <v>83.6434066596571</v>
+        <v>83.6878269499702</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>24</v>
@@ -1955,22 +1955,22 @@
       </c>
       <c r="B10" s="29">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
-        <v>112639.541831509</v>
+        <v>112699.361025259</v>
       </c>
       <c r="D10" s="25">
         <v>7</v>
       </c>
       <c r="E10" s="26">
-        <f t="shared" si="1"/>
-        <v>22077.0409710973</v>
+        <f>E9*(1+$B$6/100)</f>
+        <v>22088.7653688514</v>
       </c>
       <c r="F10" s="27">
-        <f t="shared" si="2"/>
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00484158676474401</v>
       </c>
       <c r="G10" s="24">
         <f t="shared" si="0"/>
-        <v>106.887909370376</v>
+        <v>106.944674059367</v>
       </c>
       <c r="I10" s="37">
         <f>G18/E18</f>
@@ -1987,22 +1987,22 @@
       </c>
       <c r="B11" s="29">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>614.899258858206</v>
+        <v>615.225811836888</v>
       </c>
       <c r="D11" s="25">
         <v>8</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" si="1"/>
-        <v>28700.1532624265</v>
+        <f>E10*(1+$B$6/100)</f>
+        <v>28715.3949795069</v>
       </c>
       <c r="F11" s="27">
-        <f t="shared" si="2"/>
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00475927978974336</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="0"/>
-        <v>136.592059384403</v>
+        <v>136.664598980465</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B12" s="29">
         <f>B10*3</f>
-        <v>337918.625494526</v>
+        <v>338098.083075777</v>
       </c>
       <c r="D12" s="25">
         <v>9</v>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B13" s="29">
         <f>B11*3</f>
-        <v>1844.69777657462</v>
+        <v>1845.67743551066</v>
       </c>
       <c r="D13" s="25">
         <v>10</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B14" s="29">
         <f>B12+B10</f>
-        <v>450558.167326035</v>
+        <v>450797.444101035</v>
       </c>
       <c r="D14" s="25">
         <v>11</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B15" s="29">
         <f>B13+B11</f>
-        <v>2459.59703543282</v>
+        <v>2460.90324734755</v>
       </c>
       <c r="D15" s="25">
         <v>12</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="E17" s="31">
         <f>SUM(E3:E15)*3</f>
-        <v>337918.625494526</v>
+        <v>338098.083075777</v>
       </c>
       <c r="F17" s="32">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G17" s="33">
         <f>E17*F17</f>
-        <v>1599.13587227955</v>
+        <v>1599.98512128236</v>
       </c>
       <c r="J17" s="39"/>
     </row>
@@ -2130,12 +2130,12 @@
       <c r="D18" s="2"/>
       <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>450558.167326035</v>
+        <v>450797.444101035</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>2158.12972865713</v>
+        <v>2159.27584109933</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="39"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -224,6 +224,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -232,8 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +265,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,22 +294,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -309,28 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -346,7 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -355,7 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,181 +407,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +852,41 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,17 +908,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -906,30 +930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -956,7 +956,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,134 +974,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1200,9 +1200,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1646,48 +1643,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="40" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="41" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="39" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="39" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="44">
+      <c r="A2" s="43">
         <v>205</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>0.75</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="43">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>256.510711583785</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <f>A5-A2</f>
         <v>51.5107115837845</v>
       </c>
@@ -1704,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1751,26 +1748,26 @@
         <v>11</v>
       </c>
       <c r="B3" s="20">
-        <v>320.28</v>
+        <v>321.72</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="22">
         <f>G3/F3</f>
-        <v>3520.20516578128</v>
+        <v>3536.03224033706</v>
       </c>
       <c r="F3" s="23">
         <v>0.005459</v>
       </c>
       <c r="G3" s="24">
         <f>B8</f>
-        <v>19.2168</v>
+        <v>19.3032</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.48327505872033</v>
       </c>
@@ -1781,29 +1778,29 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*$B$19/100</f>
-        <v>-32.028</v>
+        <v>-32.172</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
       </c>
       <c r="E4" s="26">
-        <f>E3*(1+$B$6/100)</f>
-        <v>4576.26671551566</v>
+        <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
+        <v>4596.84191243818</v>
       </c>
       <c r="F4" s="27">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005366197</v>
       </c>
       <c r="G4" s="24">
-        <f t="shared" ref="G4:G16" si="0">E4*F4</f>
-        <v>24.55714872</v>
+        <f t="shared" ref="G4:G17" si="1">E4*F4</f>
+        <v>24.66755928</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f>E18</f>
-        <v>450797.444101035</v>
+        <v>452824.259136334</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -1817,23 +1814,23 @@
         <v>2</v>
       </c>
       <c r="E5" s="26">
-        <f>E4*(1+$B$6/100)</f>
-        <v>5949.14673017036</v>
+        <f t="shared" si="0"/>
+        <v>5975.89448616963</v>
       </c>
       <c r="F5" s="27">
-        <f t="shared" ref="F5:F12" si="1">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005274971651</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" si="0"/>
-        <v>31.381580349288</v>
+        <f t="shared" si="1"/>
+        <v>31.522674003912</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <f>J4*J10</f>
-        <v>2127.24784109933</v>
+        <v>2136.81208766853</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -1847,23 +1844,23 @@
         <v>3</v>
       </c>
       <c r="E6" s="26">
-        <f>E5*(1+$B$6/100)</f>
-        <v>7733.89074922147</v>
+        <f t="shared" si="0"/>
+        <v>7768.66283202052</v>
       </c>
       <c r="F6" s="27">
+        <f t="shared" si="2"/>
+        <v>0.005185297132933</v>
+      </c>
+      <c r="G6" s="24">
         <f t="shared" si="1"/>
-        <v>0.005185297132933</v>
-      </c>
-      <c r="G6" s="24">
-        <f t="shared" si="0"/>
-        <v>40.1025215283551</v>
+        <v>40.2828251095991</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <f>J3/100*J4*J10</f>
-        <v>-31.5529366641931</v>
+        <v>-31.6948007481086</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -1877,16 +1874,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="26">
-        <f>E6*(1+$B$6/100)</f>
-        <v>10054.0579739879</v>
+        <f t="shared" si="0"/>
+        <v>10099.2616816267</v>
       </c>
       <c r="F7" s="27">
+        <f t="shared" si="2"/>
+        <v>0.00509714708167314</v>
+      </c>
+      <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>0.00509714708167314</v>
-      </c>
-      <c r="G7" s="24">
-        <f t="shared" si="0"/>
-        <v>51.247012261085</v>
+        <v>51.4774222075568</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>21</v>
@@ -1902,22 +1899,22 @@
       </c>
       <c r="B8" s="6">
         <f>B3*$B$18/100</f>
-        <v>19.2168</v>
+        <v>19.3032</v>
       </c>
       <c r="D8" s="25">
         <v>5</v>
       </c>
       <c r="E8" s="26">
-        <f>E7*(1+$B$6/100)</f>
-        <v>13070.2753661843</v>
+        <f t="shared" si="0"/>
+        <v>13129.0401861147</v>
       </c>
       <c r="F8" s="27">
+        <f t="shared" si="2"/>
+        <v>0.0050104955812847</v>
+      </c>
+      <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>0.0050104955812847</v>
-      </c>
-      <c r="G8" s="24">
-        <f t="shared" si="0"/>
-        <v>65.4885569684405</v>
+        <v>65.7829978390368</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -1931,16 +1928,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="26">
-        <f>E8*(1+$B$6/100)</f>
-        <v>16991.3579760396</v>
+        <f t="shared" si="0"/>
+        <v>17067.7522419491</v>
       </c>
       <c r="F9" s="27">
+        <f t="shared" si="2"/>
+        <v>0.00492531715640286</v>
+      </c>
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>0.00492531715640286</v>
-      </c>
-      <c r="G9" s="24">
-        <f t="shared" si="0"/>
-        <v>83.6878269499702</v>
+        <v>84.0640929385052</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>24</v>
@@ -1955,30 +1952,30 @@
       </c>
       <c r="B10" s="29">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
-        <v>112699.361025259</v>
+        <v>113206.064784084</v>
       </c>
       <c r="D10" s="25">
         <v>7</v>
       </c>
       <c r="E10" s="26">
-        <f>E9*(1+$B$6/100)</f>
-        <v>22088.7653688514</v>
+        <f t="shared" si="0"/>
+        <v>22188.0779145338</v>
       </c>
       <c r="F10" s="27">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00484158676474401</v>
       </c>
       <c r="G10" s="24">
-        <f t="shared" si="0"/>
-        <v>106.944674059367</v>
-      </c>
-      <c r="I10" s="37">
+        <f t="shared" si="1"/>
+        <v>107.425504366116</v>
+      </c>
+      <c r="I10" s="36">
         <f>G18/E18</f>
         <v>0.00478990258120314</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00471885515087915</v>
+        <v>0.00471885515087916</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
@@ -1987,22 +1984,22 @@
       </c>
       <c r="B11" s="29">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>615.225811836888</v>
+        <v>617.991907656312</v>
       </c>
       <c r="D11" s="25">
         <v>8</v>
       </c>
       <c r="E11" s="26">
-        <f>E10*(1+$B$6/100)</f>
-        <v>28715.3949795069</v>
+        <f t="shared" si="0"/>
+        <v>28844.5012888939</v>
       </c>
       <c r="F11" s="27">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00475927978974336</v>
       </c>
       <c r="G11" s="24">
-        <f t="shared" si="0"/>
-        <v>136.664598980465</v>
+        <f t="shared" si="1"/>
+        <v>137.279052029459</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
@@ -2011,7 +2008,7 @@
       </c>
       <c r="B12" s="29">
         <f>B10*3</f>
-        <v>338098.083075777</v>
+        <v>339618.194352251</v>
       </c>
       <c r="D12" s="25">
         <v>9</v>
@@ -2019,7 +2016,7 @@
       <c r="E12" s="26"/>
       <c r="F12" s="27"/>
       <c r="G12" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2029,7 +2026,7 @@
       </c>
       <c r="B13" s="29">
         <f>B11*3</f>
-        <v>1845.67743551066</v>
+        <v>1853.97572296894</v>
       </c>
       <c r="D13" s="25">
         <v>10</v>
@@ -2037,7 +2034,7 @@
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
       <c r="G13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2047,7 +2044,7 @@
       </c>
       <c r="B14" s="29">
         <f>B12+B10</f>
-        <v>450797.444101035</v>
+        <v>452824.259136334</v>
       </c>
       <c r="D14" s="25">
         <v>11</v>
@@ -2055,7 +2052,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="27"/>
       <c r="G14" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2065,7 +2062,7 @@
       </c>
       <c r="B15" s="29">
         <f>B13+B11</f>
-        <v>2460.90324734755</v>
+        <v>2471.96763062525</v>
       </c>
       <c r="D15" s="25">
         <v>12</v>
@@ -2073,7 +2070,7 @@
       <c r="E15" s="26"/>
       <c r="F15" s="27"/>
       <c r="G15" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2091,7 +2088,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
       <c r="G16" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2108,61 +2105,61 @@
       </c>
       <c r="E17" s="31">
         <f>SUM(E3:E15)*3</f>
-        <v>338098.083075777</v>
+        <v>339618.194352251</v>
       </c>
       <c r="F17" s="32">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.00473231053760148</v>
       </c>
       <c r="G17" s="33">
-        <f>E17*F17</f>
-        <v>1599.98512128236</v>
-      </c>
-      <c r="J17" s="39"/>
+        <f t="shared" si="1"/>
+        <v>1607.17875989434</v>
+      </c>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="8">
         <v>6</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <f>SUM(E3:E17)</f>
-        <v>450797.444101035</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35">
+        <v>452824.259136334</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34">
         <f>SUM(G3:G17)</f>
-        <v>2159.27584109933</v>
+        <v>2168.98408766853</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="J18" s="39"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="8">
         <v>10</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="39"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="39"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="39"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="39"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="39"/>
+      <c r="J24" s="38"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2236,8 +2233,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2299,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>314</v>
+        <v>321.72</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -2317,7 +2314,7 @@
       </c>
       <c r="H3" s="10">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-2.37673524380461</v>
+        <v>-2.43516962623189</v>
       </c>
       <c r="I3" s="10">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
@@ -2325,11 +2322,11 @@
       </c>
       <c r="J3" s="12">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.00491294438096912</v>
+        <v>0.00491000363860081</v>
       </c>
       <c r="K3" s="13">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-30.6537051334455</v>
+        <v>-31.3885572278487</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2338,7 +2335,7 @@
       </c>
       <c r="B4" s="6">
         <f>-B3*10/100</f>
-        <v>-31.4</v>
+        <v>-32.172</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
@@ -2413,7 +2410,7 @@
       </c>
       <c r="B8" s="6">
         <f>B3*10/100</f>
-        <v>31.4</v>
+        <v>32.172</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
     <sheet name="GRILLA" sheetId="6" r:id="rId2"/>
-    <sheet name="CALCULADORA" sheetId="9" r:id="rId3"/>
+    <sheet name="grilla de pruebas" sheetId="10" r:id="rId3"/>
+    <sheet name="CALCULADORA" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -33,10 +34,16 @@
     <t>ganancia</t>
   </si>
   <si>
+    <t>calculadora diaria</t>
+  </si>
+  <si>
+    <t>ganancia diaria</t>
+  </si>
+  <si>
     <t>ALL IN ONE</t>
   </si>
   <si>
-    <t>BUY</t>
+    <t>SELL</t>
   </si>
   <si>
     <t>tipo</t>
@@ -161,12 +168,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -224,24 +231,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,8 +261,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,9 +301,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,29 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -339,9 +346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,8 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F5E3"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,67 +432,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,103 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,17 +859,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,11 +878,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,32 +932,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,10 +949,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,139 +981,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,21 +1125,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,6 +1161,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,7 +1176,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,34 +1194,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,6 +1250,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1635,61 +1663,91 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="39" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="39" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="40" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="43" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="43" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="43">
-        <v>205</v>
-      </c>
-      <c r="B2" s="44">
-        <v>0.75</v>
-      </c>
-      <c r="C2" s="43">
+      <c r="A2" s="47">
+        <v>328.24</v>
+      </c>
+      <c r="B2" s="48">
+        <v>0.82</v>
+      </c>
+      <c r="C2" s="47">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1"/>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="44">
+      <c r="A5" s="48">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>256.510711583785</v>
-      </c>
-      <c r="B5" s="44">
+        <v>419.365111421745</v>
+      </c>
+      <c r="B5" s="48">
         <f>A5-A2</f>
-        <v>51.5107115837845</v>
+        <v>91.1251114217453</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="51">
+        <v>3</v>
+      </c>
+      <c r="B9" s="51">
+        <f>A9*100/A2</f>
+        <v>0.913965391177187</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1701,8 +1759,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1722,444 +1780,444 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="20">
-        <v>321.72</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="22">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23">
+        <v>328.24</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>3536.03224033706</v>
-      </c>
-      <c r="F3" s="23">
+        <v>3607.69371679795</v>
+      </c>
+      <c r="F3" s="26">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="27">
         <f>B8</f>
-        <v>19.3032</v>
+        <v>19.6944</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="35">
+        <v>15</v>
+      </c>
+      <c r="J3" s="39">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.48327505872033</v>
+        <v>-1.1306113867434</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
         <f>-B3*$B$19/100</f>
-        <v>-32.172</v>
-      </c>
-      <c r="D4" s="25">
+        <v>-32.824</v>
+      </c>
+      <c r="D4" s="28">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="29">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
-        <v>4596.84191243818</v>
-      </c>
-      <c r="F4" s="27">
+        <v>4690.00183183733</v>
+      </c>
+      <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.005366197</v>
-      </c>
-      <c r="G4" s="24">
+        <v>0.005551803</v>
+      </c>
+      <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>24.66755928</v>
+        <v>26.03796624</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="35">
+        <v>17</v>
+      </c>
+      <c r="J4" s="39">
         <f>E18</f>
-        <v>452824.259136334</v>
+        <v>462001.227212826</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12">
         <v>1.7</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="28">
         <v>2</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="29">
         <f t="shared" si="0"/>
-        <v>5975.89448616963</v>
-      </c>
-      <c r="F5" s="27">
+        <v>6097.00238138853</v>
+      </c>
+      <c r="F5" s="30">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.005274971651</v>
-      </c>
-      <c r="G5" s="24">
+        <v>0.005646183651</v>
+      </c>
+      <c r="G5" s="27">
         <f t="shared" si="1"/>
-        <v>31.522674003912</v>
+        <v>34.424795165904</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="35">
+        <v>19</v>
+      </c>
+      <c r="J5" s="39">
         <f>J4*J10</f>
-        <v>2136.81208766853</v>
+        <v>2903.20797975916</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12">
         <v>30</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="28">
         <v>3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="29">
         <f t="shared" si="0"/>
-        <v>7768.66283202052</v>
-      </c>
-      <c r="F6" s="27">
+        <v>7926.10309580509</v>
+      </c>
+      <c r="F6" s="30">
         <f t="shared" si="2"/>
-        <v>0.005185297132933</v>
-      </c>
-      <c r="G6" s="24">
+        <v>0.005742168773067</v>
+      </c>
+      <c r="G6" s="27">
         <f t="shared" si="1"/>
-        <v>40.2828251095991</v>
+        <v>45.5130216888417</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="35">
+        <v>21</v>
+      </c>
+      <c r="J6" s="39">
         <f>J3/100*J4*J10</f>
-        <v>-31.6948007481086</v>
+        <v>-32.824</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
         <v>10</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="28">
         <v>4</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
-        <v>10099.2616816267</v>
-      </c>
-      <c r="F7" s="27">
+        <v>10303.9340245466</v>
+      </c>
+      <c r="F7" s="30">
         <f t="shared" si="2"/>
-        <v>0.00509714708167314</v>
-      </c>
-      <c r="G7" s="24">
+        <v>0.00583978564220914</v>
+      </c>
+      <c r="G7" s="27">
         <f t="shared" si="1"/>
-        <v>51.4774222075568</v>
+        <v>60.1727659748176</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="8">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
-        <v>-13.5582496633238</v>
+        <v>-13.1283491593311</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
         <f>B3*$B$18/100</f>
-        <v>19.3032</v>
-      </c>
-      <c r="D8" s="25">
+        <v>19.6944</v>
+      </c>
+      <c r="D8" s="28">
         <v>5</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
-        <v>13129.0401861147</v>
-      </c>
-      <c r="F8" s="27">
+        <v>13395.1142319106</v>
+      </c>
+      <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>0.0050104955812847</v>
-      </c>
-      <c r="G8" s="24">
+        <v>0.00593906199812669</v>
+      </c>
+      <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>65.7829978390368</v>
+        <v>79.5544138953063</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="29">
+      <c r="A9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="32">
         <v>8</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="28">
         <v>6</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
-        <v>17067.7522419491</v>
-      </c>
-      <c r="F9" s="27">
+        <v>17413.6485014838</v>
+      </c>
+      <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>0.00492531715640286</v>
-      </c>
-      <c r="G9" s="24">
+        <v>0.00604002605209485</v>
+      </c>
+      <c r="G9" s="27">
         <f t="shared" si="1"/>
-        <v>84.0640929385052</v>
+        <v>105.178890610984</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="29">
+      <c r="A10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="32">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
-        <v>113206.064784084</v>
-      </c>
-      <c r="D10" s="25">
+        <v>115500.306803206</v>
+      </c>
+      <c r="D10" s="28">
         <v>7</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
-        <v>22188.0779145338</v>
-      </c>
-      <c r="F10" s="27">
+        <v>22637.7430519289</v>
+      </c>
+      <c r="F10" s="30">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.00484158676474401</v>
-      </c>
-      <c r="G10" s="24">
+        <v>0.00614270649498046</v>
+      </c>
+      <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>107.425504366116</v>
-      </c>
-      <c r="I10" s="36">
+        <v>139.057011276783</v>
+      </c>
+      <c r="I10" s="40">
         <f>G18/E18</f>
-        <v>0.00478990258120314</v>
-      </c>
-      <c r="J10" s="37">
+        <v>0.00621293583368965</v>
+      </c>
+      <c r="J10" s="41">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00471885515087916</v>
+        <v>0.00628398326401364</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="A11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="32">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>617.991907656312</v>
-      </c>
-      <c r="D11" s="25">
+        <v>630.516174838704</v>
+      </c>
+      <c r="D11" s="28">
         <v>8</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
-        <v>28844.5012888939</v>
-      </c>
-      <c r="F11" s="27">
+        <v>29429.0659675076</v>
+      </c>
+      <c r="F11" s="30">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>0.00475927978974336</v>
-      </c>
-      <c r="G11" s="24">
+        <v>0.00624713250539512</v>
+      </c>
+      <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>137.279052029459</v>
+        <v>183.847274609034</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="29">
+      <c r="A12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="32">
         <f>B10*3</f>
-        <v>339618.194352251</v>
-      </c>
-      <c r="D12" s="25">
+        <v>346500.920409619</v>
+      </c>
+      <c r="D12" s="28">
         <v>9</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="24">
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="29">
+      <c r="A13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="32">
         <f>B11*3</f>
-        <v>1853.97572296894</v>
-      </c>
-      <c r="D13" s="25">
+        <v>1891.54852451611</v>
+      </c>
+      <c r="D13" s="28">
         <v>10</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="24">
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="A14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="32">
         <f>B12+B10</f>
-        <v>452824.259136334</v>
-      </c>
-      <c r="D14" s="25">
+        <v>462001.227212826</v>
+      </c>
+      <c r="D14" s="28">
         <v>11</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="24">
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="A15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="32">
         <f>B13+B11</f>
-        <v>2471.96763062525</v>
-      </c>
-      <c r="D15" s="25">
+        <v>2522.06469935482</v>
+      </c>
+      <c r="D15" s="28">
         <v>12</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="A16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="32">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="28">
         <v>13</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24">
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="A17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="32">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
-        <v>0.00538795256967601</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="31">
+        <v>0.00553004743032399</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="34">
         <f>SUM(E3:E15)*3</f>
-        <v>339618.194352251</v>
-      </c>
-      <c r="F17" s="32">
+        <v>346500.920409619</v>
+      </c>
+      <c r="F17" s="35">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00473231053760148</v>
-      </c>
-      <c r="G17" s="33">
+        <v>0.0062825329229257</v>
+      </c>
+      <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>1607.17875989434</v>
-      </c>
-      <c r="J17" s="38"/>
+        <v>2176.90344029749</v>
+      </c>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="8">
+        <v>36</v>
+      </c>
+      <c r="B18" s="10">
         <v>6</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="34">
+      <c r="D18" s="37"/>
+      <c r="E18" s="38">
         <f>SUM(E3:E17)</f>
-        <v>452824.259136334</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34">
+        <v>462001.227212826</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38">
         <f>SUM(G3:G17)</f>
-        <v>2168.98408766853</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="J18" s="38"/>
+        <v>2870.38397975916</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="8">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10">
         <v>10</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="38"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="38"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="38"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="38"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="38"/>
+      <c r="J24" s="42"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2231,10 +2289,568 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:XFD24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="58.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23">
+        <v>328.24</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="25">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26">
+        <v>5.995</v>
+      </c>
+      <c r="G3" s="27">
+        <f>B8</f>
+        <v>19.6944</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="39">
+        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
+        <v>-1.23594629586301</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
+        <f>-B3*$B$19/100</f>
+        <v>-32.824</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
+        <v>3.9</v>
+      </c>
+      <c r="F4" s="30">
+        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
+        <v>6.096915</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G17" si="1">E4*F4</f>
+        <v>23.7779685</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="39">
+        <f>E18</f>
+        <v>384.17997492</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.07</v>
+      </c>
+      <c r="F5" s="30">
+        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <v>6.200562555</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="1"/>
+        <v>31.43685215385</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="39">
+        <f>J4*J10</f>
+        <v>2655.77882387524</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12">
+        <v>30</v>
+      </c>
+      <c r="D6" s="28">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
+        <f t="shared" si="0"/>
+        <v>6.591</v>
+      </c>
+      <c r="F6" s="30">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>6.305972118435</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="1"/>
+        <v>41.5626622326051</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="39">
+        <f>J3/100*J4*J10</f>
+        <v>-32.8240000000003</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="28">
+        <v>4</v>
+      </c>
+      <c r="E7" s="29">
+        <f t="shared" si="0"/>
+        <v>8.5683</v>
+      </c>
+      <c r="F7" s="30">
+        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
+        <v>6.41317364444839</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="1"/>
+        <v>54.9499957377272</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10">
+        <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
+        <v>-13.2774563551684</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
+        <f>B3*$B$18/100</f>
+        <v>19.6944</v>
+      </c>
+      <c r="D8" s="28">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29">
+        <f t="shared" si="0"/>
+        <v>11.13879</v>
+      </c>
+      <c r="F8" s="30">
+        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
+        <v>6.52219759640401</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="1"/>
+        <v>72.6493893648491</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="32">
+        <v>8</v>
+      </c>
+      <c r="D9" s="28">
+        <v>6</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>14.480427</v>
+      </c>
+      <c r="F9" s="30">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>6.63307495554288</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>96.049757679267</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="32">
+        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
+        <v>96.04499373</v>
+      </c>
+      <c r="D10" s="28">
+        <v>7</v>
+      </c>
+      <c r="E10" s="29">
+        <f t="shared" si="0"/>
+        <v>18.8245551</v>
+      </c>
+      <c r="F10" s="30">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>6.74583722978711</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>126.987384627759</v>
+      </c>
+      <c r="I10" s="40">
+        <f>G18/E18</f>
+        <v>6.82741161722818</v>
+      </c>
+      <c r="J10" s="41">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>6.91285073988634</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="32">
+        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
+        <v>630.516174838704</v>
+      </c>
+      <c r="D11" s="28">
+        <v>8</v>
+      </c>
+      <c r="E11" s="29">
+        <f t="shared" si="0"/>
+        <v>24.47192163</v>
+      </c>
+      <c r="F11" s="30">
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
+        <v>6.86051646269349</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="1"/>
+        <v>167.89002121636</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="32">
+        <f>B10*3</f>
+        <v>288.13498119</v>
+      </c>
+      <c r="D12" s="28">
+        <v>9</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="32">
+        <f>B11*3</f>
+        <v>1891.54852451611</v>
+      </c>
+      <c r="D13" s="28">
+        <v>10</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="32">
+        <f>B12+B10</f>
+        <v>384.17997492</v>
+      </c>
+      <c r="D14" s="28">
+        <v>11</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="32">
+        <f>B13+B11</f>
+        <v>2522.06469935482</v>
+      </c>
+      <c r="D15" s="28">
+        <v>12</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="32">
+        <f>B15/B14</f>
+        <v>6.5648</v>
+      </c>
+      <c r="D16" s="28">
+        <v>13</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
+      <c r="A17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="32">
+        <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
+        <v>6.65023912265816</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="34">
+        <f>SUM(E3:E15)*3</f>
+        <v>288.13498119</v>
+      </c>
+      <c r="F17" s="35">
+        <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
+        <v>6.89939272264875</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>1987.95639236282</v>
+      </c>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="10">
+        <v>6</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38">
+        <f>SUM(E3:E17)</f>
+        <v>384.17997492</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38">
+        <f>SUM(G3:G17)</f>
+        <v>2622.95482387524</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10">
+        <v>10</v>
+      </c>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="10:10">
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="10:10">
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="10:16384">
+      <c r="J22" s="42"/>
+      <c r="XEV22"/>
+      <c r="XEW22"/>
+      <c r="XEX22"/>
+      <c r="XEY22"/>
+      <c r="XEZ22"/>
+      <c r="XFA22"/>
+      <c r="XFB22"/>
+      <c r="XFC22"/>
+      <c r="XFD22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="10:16384">
+      <c r="J23" s="42"/>
+      <c r="XEV23"/>
+      <c r="XEW23"/>
+      <c r="XEX23"/>
+      <c r="XEY23"/>
+      <c r="XEZ23"/>
+      <c r="XFA23"/>
+      <c r="XFB23"/>
+      <c r="XFC23"/>
+      <c r="XFD23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="10:16384">
+      <c r="J24" s="42"/>
+      <c r="XEV24"/>
+      <c r="XEW24"/>
+      <c r="XEX24"/>
+      <c r="XEY24"/>
+      <c r="XEZ24"/>
+      <c r="XFA24"/>
+      <c r="XFB24"/>
+      <c r="XFC24"/>
+      <c r="XFD24"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$J$6&gt;=$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="4" priority="11">
+      <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+      <formula>$B$3*10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+      <formula>$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$G$18&gt;$B$3*$B$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="lessThan">
+      <formula>#REF!+1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="B1">
+      <formula1>"BUY,SELL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2264,103 +2880,103 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>321.72</v>
+        <v>329.89</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8">
-        <v>221.14</v>
+        <v>179</v>
       </c>
       <c r="F3" s="9">
-        <v>0.005201</v>
-      </c>
-      <c r="G3" s="8">
+        <v>5.2334</v>
+      </c>
+      <c r="G3" s="10">
         <f>E3/F3</f>
-        <v>42518.746394924</v>
-      </c>
-      <c r="H3" s="10">
+        <v>34.2033859441281</v>
+      </c>
+      <c r="H3" s="11">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-2.43516962623189</v>
-      </c>
-      <c r="I3" s="10">
+        <v>-8.72750265219359</v>
+      </c>
+      <c r="I3" s="11">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.00503255488662331</v>
-      </c>
-      <c r="J3" s="12">
+        <v>5.2935597087471</v>
+      </c>
+      <c r="J3" s="14">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.00491000363860081</v>
-      </c>
-      <c r="K3" s="13">
+        <v>5.79973142246264</v>
+      </c>
+      <c r="K3" s="15">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-31.3885572278487</v>
+        <v>-32.989</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
         <f>-B3*10/100</f>
-        <v>-32.172</v>
+        <v>-32.989</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8">
-        <v>1100</v>
+        <v>166</v>
       </c>
       <c r="F4" s="9">
-        <v>0.005</v>
-      </c>
-      <c r="G4" s="8">
+        <v>5.36</v>
+      </c>
+      <c r="G4" s="10">
         <f>E4/F4</f>
-        <v>220000</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
+        <v>30.9701492537313</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12">
         <v>1.7</v>
       </c>
       <c r="C5" s="1"/>
@@ -2374,9 +2990,9 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12">
         <v>30</v>
       </c>
       <c r="C6" s="1"/>
@@ -2390,9 +3006,9 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
@@ -2406,11 +3022,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
         <f>B3*10/100</f>
-        <v>32.172</v>
+        <v>32.989</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2423,9 +3039,9 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -2439,11 +3055,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="8">
+        <v>47</v>
+      </c>
+      <c r="B10" s="10">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>3888.26901646</v>
+        <v>3147.328181</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
     <sheet name="GRILLA" sheetId="6" r:id="rId2"/>
-    <sheet name="grilla de pruebas" sheetId="10" r:id="rId3"/>
-    <sheet name="CALCULADORA" sheetId="9" r:id="rId4"/>
+    <sheet name="CALCULADORA" sheetId="9" r:id="rId3"/>
+    <sheet name="grilla de pruebas" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -169,10 +169,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="26">
@@ -182,6 +182,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -199,13 +206,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Berlin Sans FB"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -231,20 +231,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -253,35 +239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,14 +284,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -332,6 +315,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -339,8 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +353,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -360,16 +361,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,31 +384,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +438,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,157 +546,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,16 +602,223 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -656,254 +863,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,20 +905,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,16 +945,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,130 +981,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,128 +1113,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1255,10 +1255,10 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1759,8 +1759,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1780,444 +1780,444 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="9">
         <v>328.24</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="11">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="12">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="13">
         <f>B8</f>
         <v>19.6944</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="27">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <f>-B3*$B$19/100</f>
         <v>-32.824</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="16">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>4690.00183183733</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="17">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005551803</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="13">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>26.03796624</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="27">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>1.7</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>6097.00238138853</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="17">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005646183651</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="13">
         <f t="shared" si="1"/>
         <v>34.424795165904</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="27">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>30</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="15">
         <v>3</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>7926.10309580509</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="17">
         <f t="shared" si="2"/>
         <v>0.005742168773067</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>45.5130216888417</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="27">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="15">
         <v>4</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>10303.9340245466</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="17">
         <f t="shared" si="2"/>
         <v>0.00583978564220914</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
-        <v>60.1727659748176</v>
-      </c>
-      <c r="I7" s="5" t="s">
+        <v>60.1727659748174</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="24">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <f>B3*$B$18/100</f>
         <v>19.6944</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>13395.1142319106</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="17">
         <f t="shared" si="2"/>
         <v>0.00593906199812669</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>79.5544138953063</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="19">
         <v>8</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="15">
         <v>6</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>17413.6485014838</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="17">
         <f t="shared" si="2"/>
         <v>0.00604002605209485</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
-        <v>105.178890610984</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>105.178890610985</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="19">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>22637.7430519289</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="17">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00614270649498046</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
-        <v>139.057011276783</v>
-      </c>
-      <c r="I10" s="40">
+        <v>139.057011276782</v>
+      </c>
+      <c r="I10" s="28">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="19">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>29429.0659675076</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="17">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00624713250539512</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>183.847274609034</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="19">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="15">
         <v>9</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="27">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="19">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="15">
         <v>10</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="19">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="15">
         <v>11</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="27">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="19">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="15">
         <v>12</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="27">
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="19">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="15">
         <v>13</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="19">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="21">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="22">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="23">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="42"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="24">
         <v>6</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38">
+      <c r="D18" s="25"/>
+      <c r="E18" s="26">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="25"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="24">
         <v>10</v>
       </c>
-      <c r="J19" s="42"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="42"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="42"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="42"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="42"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="42"/>
+      <c r="J24" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2289,10 +2289,275 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="58.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
+    <col min="7" max="8" width="12.8888888888889" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="34">
+        <v>329.89</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="36">
+        <v>179</v>
+      </c>
+      <c r="F3" s="37">
+        <v>5.2334</v>
+      </c>
+      <c r="G3" s="24">
+        <f>E3/F3</f>
+        <v>34.2033859441281</v>
+      </c>
+      <c r="H3" s="38">
+        <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
+        <v>-8.72750265219359</v>
+      </c>
+      <c r="I3" s="38">
+        <f>SUM(E3:E4)/SUM(G3:G4)</f>
+        <v>5.2935597087471</v>
+      </c>
+      <c r="J3" s="40">
+        <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
+        <v>5.79973142246264</v>
+      </c>
+      <c r="K3" s="41">
+        <f>H3/100*SUM(G3:G4)*J3</f>
+        <v>-32.989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14">
+        <f>-B3*10/100</f>
+        <v>-32.989</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="36">
+        <v>166</v>
+      </c>
+      <c r="F4" s="37">
+        <v>5.36</v>
+      </c>
+      <c r="G4" s="24">
+        <f>E4/F4</f>
+        <v>30.9701492537313</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14">
+        <f>B3*10/100</f>
+        <v>32.989</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="24">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="24">
+        <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
+        <v>3147.328181</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="A2">
+      <formula1>"BUY,SELL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="1" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>CALCULADORA!F3</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2312,437 +2577,438 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23">
-        <v>328.24</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="9">
+        <v>344.17</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="11">
+        <f>G3/F3</f>
+        <v>3782.78072907126</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.005459</v>
+      </c>
+      <c r="G3" s="13">
+        <f>B8</f>
+        <v>20.6502</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="27">
+        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
+        <v>-1.1306113867434</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14">
+        <f>-B3*$B$19/100</f>
+        <v>-34.417</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
+        <v>4917.61494779264</v>
+      </c>
+      <c r="F4" s="17">
+        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
+        <v>0.005551803</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G17" si="1">E4*F4</f>
+        <v>27.30162942</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="27">
+        <f>E18</f>
+        <v>484422.868540818</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>6392.89943213043</v>
+      </c>
+      <c r="F5" s="17">
+        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <v>0.005646183651</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="1"/>
+        <v>36.095484256182</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="27">
+        <f>J4*J10</f>
+        <v>3044.10519861598</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="26">
-        <v>5.995</v>
-      </c>
-      <c r="G3" s="27">
-        <f>B8</f>
-        <v>19.6944</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="39">
-        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.23594629586301</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12">
-        <f>-B3*$B$19/100</f>
-        <v>-32.824</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
-        <v>3.9</v>
-      </c>
-      <c r="F4" s="30">
-        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>6.096915</v>
-      </c>
-      <c r="G4" s="27">
-        <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>23.7779685</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="39">
-        <f>E18</f>
-        <v>384.17997492</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="28">
-        <v>2</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
-        <v>5.07</v>
-      </c>
-      <c r="F5" s="30">
-        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>6.200562555</v>
-      </c>
-      <c r="G5" s="27">
+        <v>8310.76926176955</v>
+      </c>
+      <c r="F6" s="17">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>0.005742168773067</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" si="1"/>
-        <v>31.43685215385</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="39">
-        <f>J4*J10</f>
-        <v>2655.77882387524</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="12">
+        <v>47.7218397350982</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="27">
+        <f>J3/100*J4*J10</f>
+        <v>-34.417</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>10804.0000403004</v>
+      </c>
+      <c r="F7" s="17">
+        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
+        <v>0.00583978564220914</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="1"/>
+        <v>63.0930443137733</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="24">
+        <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
+        <v>-13.1283491593311</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14">
+        <f>B3*$B$18/100</f>
+        <v>20.6502</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>14045.2000523905</v>
+      </c>
+      <c r="F8" s="17">
+        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
+        <v>0.00593906199812669</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="1"/>
+        <v>83.4153138872397</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="19">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>18258.7600681077</v>
+      </c>
+      <c r="F9" s="17">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>0.00604002605209485</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>110.28338649032</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19">
+        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
+        <v>121105.717135205</v>
+      </c>
+      <c r="D10" s="15">
+        <v>7</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>23736.38808854</v>
+      </c>
+      <c r="F10" s="17">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>0.00614270649498046</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>145.805665278852</v>
+      </c>
+      <c r="I10" s="28">
+        <f>G18/E18</f>
+        <v>0.00621293583368965</v>
+      </c>
+      <c r="J10" s="29">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.00628398326401364</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="19">
+        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
+        <v>661.116109841082</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>30857.304515102</v>
+      </c>
+      <c r="F11" s="17">
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
+        <v>0.00624713250539512</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>192.76967006517</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="28">
-        <v>3</v>
-      </c>
-      <c r="E6" s="29">
-        <f t="shared" si="0"/>
-        <v>6.591</v>
-      </c>
-      <c r="F6" s="30">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>6.305972118435</v>
-      </c>
-      <c r="G6" s="27">
-        <f t="shared" si="1"/>
-        <v>41.5626622326051</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="39">
-        <f>J3/100*J4*J10</f>
-        <v>-32.8240000000003</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12">
-        <v>10</v>
-      </c>
-      <c r="D7" s="28">
-        <v>4</v>
-      </c>
-      <c r="E7" s="29">
-        <f t="shared" si="0"/>
-        <v>8.5683</v>
-      </c>
-      <c r="F7" s="30">
-        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>6.41317364444839</v>
-      </c>
-      <c r="G7" s="27">
-        <f t="shared" si="1"/>
-        <v>54.9499957377272</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="10">
-        <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
-        <v>-13.2774563551684</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12">
-        <f>B3*$B$18/100</f>
-        <v>19.6944</v>
-      </c>
-      <c r="D8" s="28">
-        <v>5</v>
-      </c>
-      <c r="E8" s="29">
-        <f t="shared" si="0"/>
-        <v>11.13879</v>
-      </c>
-      <c r="F8" s="30">
-        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>6.52219759640401</v>
-      </c>
-      <c r="G8" s="27">
-        <f t="shared" si="1"/>
-        <v>72.6493893648491</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="32">
-        <v>8</v>
-      </c>
-      <c r="D9" s="28">
-        <v>6</v>
-      </c>
-      <c r="E9" s="29">
-        <f t="shared" si="0"/>
-        <v>14.480427</v>
-      </c>
-      <c r="F9" s="30">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>6.63307495554288</v>
-      </c>
-      <c r="G9" s="27">
-        <f t="shared" si="1"/>
-        <v>96.049757679267</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="32">
-        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
-        <v>96.04499373</v>
-      </c>
-      <c r="D10" s="28">
-        <v>7</v>
-      </c>
-      <c r="E10" s="29">
-        <f t="shared" si="0"/>
-        <v>18.8245551</v>
-      </c>
-      <c r="F10" s="30">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>6.74583722978711</v>
-      </c>
-      <c r="G10" s="27">
-        <f t="shared" si="1"/>
-        <v>126.987384627759</v>
-      </c>
-      <c r="I10" s="40">
-        <f>G18/E18</f>
-        <v>6.82741161722818</v>
-      </c>
-      <c r="J10" s="41">
-        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>6.91285073988634</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="32">
-        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>630.516174838704</v>
-      </c>
-      <c r="D11" s="28">
-        <v>8</v>
-      </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>24.47192163</v>
-      </c>
-      <c r="F11" s="30">
-        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>6.86051646269349</v>
-      </c>
-      <c r="G11" s="27">
-        <f t="shared" si="1"/>
-        <v>167.89002121636</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="32">
+      <c r="B12" s="19">
         <f>B10*3</f>
-        <v>288.13498119</v>
-      </c>
-      <c r="D12" s="28">
+        <v>363317.151405614</v>
+      </c>
+      <c r="D12" s="15">
         <v>9</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="27">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="19">
         <f>B11*3</f>
-        <v>1891.54852451611</v>
-      </c>
-      <c r="D13" s="28">
+        <v>1983.34832952325</v>
+      </c>
+      <c r="D13" s="15">
         <v>10</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="19">
         <f>B12+B10</f>
-        <v>384.17997492</v>
-      </c>
-      <c r="D14" s="28">
+        <v>484422.868540819</v>
+      </c>
+      <c r="D14" s="15">
         <v>11</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="27">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="19">
         <f>B13+B11</f>
-        <v>2522.06469935482</v>
-      </c>
-      <c r="D15" s="28">
+        <v>2644.46443936433</v>
+      </c>
+      <c r="D15" s="15">
         <v>12</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="27">
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="19">
         <f>B15/B14</f>
-        <v>6.5648</v>
-      </c>
-      <c r="D16" s="28">
+        <v>0.005459</v>
+      </c>
+      <c r="D16" s="15">
         <v>13</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="19">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
-        <v>6.65023912265816</v>
-      </c>
-      <c r="D17" s="33" t="s">
+        <v>0.00553004743032399</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="21">
         <f>SUM(E3:E15)*3</f>
-        <v>288.13498119</v>
-      </c>
-      <c r="F17" s="35">
+        <v>363317.151405614</v>
+      </c>
+      <c r="F17" s="22">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>6.89939272264875</v>
-      </c>
-      <c r="G17" s="36">
+        <v>0.0062825329229257</v>
+      </c>
+      <c r="G17" s="23">
         <f t="shared" si="1"/>
-        <v>1987.95639236282</v>
-      </c>
-      <c r="J17" s="42"/>
+        <v>2282.55196516935</v>
+      </c>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="24">
         <v>6</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38">
+      <c r="D18" s="25"/>
+      <c r="E18" s="26">
         <f>SUM(E3:E17)</f>
-        <v>384.17997492</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38">
+        <v>484422.868540818</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
         <f>SUM(G3:G17)</f>
-        <v>2622.95482387524</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="J18" s="42"/>
+        <v>3009.68819861598</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="24">
         <v>10</v>
       </c>
-      <c r="J19" s="42"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="42"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="42"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="10:16384">
-      <c r="J22" s="42"/>
+      <c r="J22" s="30"/>
       <c r="XEV22"/>
       <c r="XEW22"/>
       <c r="XEX22"/>
@@ -2754,7 +3020,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="10:16384">
-      <c r="J23" s="42"/>
+      <c r="J23" s="30"/>
       <c r="XEV23"/>
       <c r="XEW23"/>
       <c r="XEX23"/>
@@ -2766,7 +3032,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="10:16384">
-      <c r="J24" s="42"/>
+      <c r="J24" s="30"/>
       <c r="XEV24"/>
       <c r="XEW24"/>
       <c r="XEX24"/>
@@ -2842,269 +3108,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="58.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
-    <col min="7" max="8" width="12.8888888888889" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6">
-        <v>329.89</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="8">
-        <v>179</v>
-      </c>
-      <c r="F3" s="9">
-        <v>5.2334</v>
-      </c>
-      <c r="G3" s="10">
-        <f>E3/F3</f>
-        <v>34.2033859441281</v>
-      </c>
-      <c r="H3" s="11">
-        <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-8.72750265219359</v>
-      </c>
-      <c r="I3" s="11">
-        <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>5.2935597087471</v>
-      </c>
-      <c r="J3" s="14">
-        <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>5.79973142246264</v>
-      </c>
-      <c r="K3" s="15">
-        <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-32.989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12">
-        <f>-B3*10/100</f>
-        <v>-32.989</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="8">
-        <v>166</v>
-      </c>
-      <c r="F4" s="9">
-        <v>5.36</v>
-      </c>
-      <c r="G4" s="10">
-        <f>E4/F4</f>
-        <v>30.9701492537313</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="12">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12">
-        <f>B3*10/100</f>
-        <v>32.989</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="10">
-        <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>3147.328181</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="A2">
-      <formula1>"BUY,SELL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="1" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>CALCULADORA!F3</xm:f>
-              <xm:sqref>D14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -2557,7 +2557,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="J3" s="27">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.1306113867434</v>
+        <v>-1.19153422996205</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2644,11 +2644,11 @@
       </c>
       <c r="F4" s="17">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.005551803</v>
+        <v>0.00551359</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>27.30162942</v>
+        <v>27.1137126</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
@@ -2663,7 +2663,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="14">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15">
         <v>2</v>
@@ -2674,18 +2674,18 @@
       </c>
       <c r="F5" s="17">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.005646183651</v>
+        <v>0.0055687259</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="1"/>
-        <v>36.095484256182</v>
+        <v>35.6003046438</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="27">
         <f>J4*J10</f>
-        <v>3044.10519861598</v>
+        <v>2888.46087124968</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2704,18 +2704,18 @@
       </c>
       <c r="F6" s="17">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.005742168773067</v>
+        <v>0.005624413159</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
-        <v>47.7218397350982</v>
+        <v>46.7431999973094</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="27">
         <f>J3/100*J4*J10</f>
-        <v>-34.417</v>
+        <v>-34.4170000000001</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -2734,18 +2734,18 @@
       </c>
       <c r="F7" s="17">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.00583978564220914</v>
+        <v>0.00568065729059</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="1"/>
-        <v>63.0930443137733</v>
+        <v>61.3738215964672</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="24">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
-        <v>-13.1283491593311</v>
+        <v>-8.44728188337158</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="F8" s="17">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.00593906199812669</v>
+        <v>0.0057374638634959</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="1"/>
-        <v>83.4153138872397</v>
+        <v>80.5838277561615</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="F9" s="17">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.00604002605209485</v>
+        <v>0.00579483850213086</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="1"/>
-        <v>110.28338649032</v>
+        <v>105.80656584384</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
@@ -2818,19 +2818,19 @@
       </c>
       <c r="F10" s="17">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.00614270649498046</v>
+        <v>0.00585278688715217</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="1"/>
-        <v>145.805665278852</v>
+        <v>138.924020952962</v>
       </c>
       <c r="I10" s="28">
         <f>G18/E18</f>
-        <v>0.00621293583368965</v>
+        <v>0.00589163736189137</v>
       </c>
       <c r="J10" s="29">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00628398326401364</v>
+        <v>0.00596268479221536</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
@@ -2850,11 +2850,11 @@
       </c>
       <c r="F11" s="17">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>0.00624713250539512</v>
+        <v>0.00591131475602369</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="1"/>
-        <v>192.76967006517</v>
+        <v>182.407239511239</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
@@ -2964,11 +2964,11 @@
       </c>
       <c r="F17" s="22">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.0062825329229257</v>
+        <v>0.00593101913854377</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="1"/>
-        <v>2282.55196516935</v>
+        <v>2154.8409783479</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -2987,7 +2987,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26">
         <f>SUM(G3:G17)</f>
-        <v>3009.68819861598</v>
+        <v>2854.04387124968</v>
       </c>
       <c r="H18" s="25"/>
       <c r="J18" s="30"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
     <t>DIAS</t>
   </si>
   <si>
-    <t>FORMULA</t>
-  </si>
-  <si>
-    <t>ganancia</t>
+    <t>SALDO TOTAL AL FINAL</t>
+  </si>
+  <si>
+    <t>GANANCIA TOTAL</t>
   </si>
   <si>
     <t>calculadora diaria</t>
@@ -168,12 +168,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -231,23 +231,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +246,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -269,7 +254,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,21 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -307,18 +285,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,6 +310,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -347,7 +325,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,14 +362,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,181 +414,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,17 +866,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,15 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -920,17 +902,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,16 +936,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,134 +981,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1134,31 +1134,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,13 +1170,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,31 +1185,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,10 +1227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1240,16 +1240,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1665,8 +1668,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1689,16 +1692,19 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
       <c r="A2" s="47">
-        <v>328.24</v>
+        <v>449.74</v>
       </c>
       <c r="B2" s="48">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="C2" s="47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+    </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
       <c r="A4" s="45" t="s">
         <v>3</v>
@@ -1710,38 +1716,38 @@
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
       <c r="A5" s="48">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>419.365111421745</v>
+        <v>1101.24805909641</v>
       </c>
       <c r="B5" s="48">
         <f>A5-A2</f>
-        <v>91.1251114217453</v>
+        <v>651.508059096408</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="51">
+      <c r="A9" s="52">
         <v>3</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="52">
         <f>A9*100/A2</f>
-        <v>0.913965391177187</v>
+        <v>0.667052074531952</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2562,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="47">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
@@ -1716,11 +1716,11 @@
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
       <c r="A5" s="48">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>1101.24805909641</v>
+        <v>606.181571181821</v>
       </c>
       <c r="B5" s="48">
         <f>A5-A2</f>
-        <v>651.508059096408</v>
+        <v>156.441571181821</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>suma total de cantidad según el número de compensaciones</t>
+  </si>
+  <si>
+    <t>BUY</t>
   </si>
 </sst>
 </file>
@@ -692,20 +695,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -736,21 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -854,6 +831,32 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -1108,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1140,52 +1143,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,7 +1212,7 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,20 +1221,26 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1668,84 +1674,84 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="43" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="43" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="44" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="44" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="44" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="47">
+      <c r="A2" s="48">
         <v>449.74</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="49">
         <v>1</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="48">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="48">
+      <c r="A5" s="49">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>606.181571181821</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="49">
         <f>A5-A2</f>
         <v>156.441571181821</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52">
+      <c r="A9" s="53">
         <v>3</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="53">
         <f>A9*100/A2</f>
         <v>0.667052074531952</v>
       </c>
@@ -1766,7 +1772,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1817,21 +1823,21 @@
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="42">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="43">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>B8</f>
         <v>19.6944</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
@@ -1840,29 +1846,29 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f>-B3*$B$19/100</f>
         <v>-32.824</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>4690.00183183733</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005551803</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>26.03796624</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
@@ -1871,28 +1877,28 @@
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1.7</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>6097.00238138853</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005646183651</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
         <v>34.424795165904</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
@@ -1901,28 +1907,28 @@
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>30</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>7926.10309580509</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <f t="shared" si="2"/>
         <v>0.005742168773067</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>45.5130216888417</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
@@ -1931,28 +1937,28 @@
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>10303.9340245466</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <f t="shared" si="2"/>
         <v>0.00583978564220914</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>60.1727659748174</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="25">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
@@ -1961,45 +1967,45 @@
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>B3*$B$18/100</f>
         <v>19.6944</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>13395.1142319106</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <f t="shared" si="2"/>
         <v>0.00593906199812669</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>79.5544138953063</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>17413.6485014838</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <f t="shared" si="2"/>
         <v>0.00604002605209485</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
         <v>105.178890610985</v>
       </c>
@@ -2011,219 +2017,219 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>22637.7430519289</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00614270649498046</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>29429.0659675076</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00624713250539512</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
         <v>183.847274609034</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>9</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="13">
+      <c r="E12" s="11"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13">
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>11</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="13">
+      <c r="E14" s="11"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="13">
+      <c r="E15" s="11"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="13">
+      <c r="E16" s="11"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="20">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="25">
         <v>6</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
+      <c r="D18" s="23"/>
+      <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="J18" s="30"/>
+      <c r="H18" s="23"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="30"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="30"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="30"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="30"/>
+      <c r="J24" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2327,31 +2333,31 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2359,36 +2365,36 @@
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>329.89</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>179</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <v>5.2334</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="25">
         <f>E3/F3</f>
         <v>34.2033859441281</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="37">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
         <v>-8.72750265219359</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="37">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
         <v>5.2935597087471</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="39">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
         <v>5.79973142246264</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="40">
         <f>H3/100*SUM(G3:G4)*J3</f>
         <v>-32.989</v>
       </c>
@@ -2397,34 +2403,34 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f>-B3*10/100</f>
         <v>-32.989</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>166</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>5.36</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="25">
         <f>E4/F4</f>
         <v>30.9701492537313</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="42"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1.7</v>
       </c>
       <c r="C5" s="1"/>
@@ -2440,7 +2446,7 @@
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>30</v>
       </c>
       <c r="C6" s="1"/>
@@ -2456,7 +2462,7 @@
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
@@ -2472,7 +2478,7 @@
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>B3*10/100</f>
         <v>32.989</v>
       </c>
@@ -2489,7 +2495,7 @@
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="25">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -2505,7 +2511,7 @@
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
         <v>3147.328181</v>
       </c>
@@ -2562,8 +2568,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2582,12 +2588,12 @@
     <col min="16375" max="16375" width="8.44444444444444" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
@@ -2609,196 +2615,196 @@
         <v>13</v>
       </c>
       <c r="B3" s="9">
-        <v>344.17</v>
+        <v>451.94</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11">
         <f>G3/F3</f>
-        <v>3782.78072907126</v>
-      </c>
-      <c r="F3" s="12">
+        <v>8278.80564205898</v>
+      </c>
+      <c r="F3" s="11">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>B8</f>
-        <v>20.6502</v>
+        <v>45.194</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.19153422996205</v>
+        <v>-1.56864228017839</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f>-B3*$B$19/100</f>
-        <v>-34.417</v>
-      </c>
-      <c r="D4" s="15">
+        <v>-45.194</v>
+      </c>
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
-        <v>4917.61494779264</v>
-      </c>
-      <c r="F4" s="17">
+        <v>10762.4473346767</v>
+      </c>
+      <c r="F4" s="15">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.00551359</v>
-      </c>
-      <c r="G4" s="13">
+        <v>0.005366197</v>
+      </c>
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>27.1137126</v>
+        <v>57.7534126</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <f>E18</f>
-        <v>484422.868540818</v>
+        <v>582259.626866459</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>6392.89943213043</v>
-      </c>
-      <c r="F5" s="17">
+        <v>13991.1815350797</v>
+      </c>
+      <c r="F5" s="15">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.0055687259</v>
-      </c>
-      <c r="G5" s="13">
+        <v>0.005274971651</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>35.6003046438</v>
+        <v>73.80308596154</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f>J4*J10</f>
-        <v>2888.46087124968</v>
+        <v>2835.89626328555</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>30</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>8310.76926176955</v>
-      </c>
-      <c r="F6" s="17">
+        <v>18188.5359956036</v>
+      </c>
+      <c r="F6" s="15">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.005624413159</v>
-      </c>
-      <c r="G6" s="13">
+        <v>0.005185297132933</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>46.7431999973094</v>
+        <v>94.3129635502519</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f>J3/100*J4*J10</f>
-        <v>-34.4170000000001</v>
+        <v>-44.4850678078961</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>10804.0000403004</v>
-      </c>
-      <c r="F7" s="17">
+        <v>23645.0967942847</v>
+      </c>
+      <c r="F7" s="15">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.00568065729059</v>
-      </c>
-      <c r="G7" s="13">
+        <v>0.00509714708167314</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>61.3738215964672</v>
+        <v>120.522536120867</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="25">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
-        <v>-8.44728188337158</v>
+        <v>-10.7803390882689</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>B3*$B$18/100</f>
-        <v>20.6502</v>
-      </c>
-      <c r="D8" s="15">
+        <v>45.194</v>
+      </c>
+      <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>14045.2000523905</v>
-      </c>
-      <c r="F8" s="17">
+        <v>30738.6258325701</v>
+      </c>
+      <c r="F8" s="15">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.0057374638634959</v>
-      </c>
-      <c r="G8" s="13">
+        <v>0.0050104955812847</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>80.5838277561615</v>
+        <v>154.015748908856</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>8</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>18258.7600681077</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" s="11">
+        <f>E8*(1+$B$6/100)</f>
+        <v>39960.2135823411</v>
+      </c>
+      <c r="F9" s="15">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.00579483850213086</v>
-      </c>
-      <c r="G9" s="13">
+        <v>0.00492531715640286</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>105.80656584384</v>
+        <v>196.816725530627</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
@@ -2808,213 +2814,201 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
-        <v>121105.717135205</v>
-      </c>
-      <c r="D10" s="15">
+        <v>265045.945327815</v>
+      </c>
+      <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="16">
-        <f t="shared" si="0"/>
-        <v>23736.38808854</v>
-      </c>
-      <c r="F10" s="17">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.00585278688715217</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="1"/>
-        <v>138.924020952962</v>
-      </c>
-      <c r="I10" s="28">
-        <f>G18/E18</f>
-        <v>0.00589163736189137</v>
-      </c>
-      <c r="J10" s="29">
-        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00596268479221536</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="19">
-        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>661.116109841082</v>
-      </c>
-      <c r="D11" s="15">
-        <v>8</v>
-      </c>
-      <c r="E11" s="16">
-        <f t="shared" si="0"/>
-        <v>30857.304515102</v>
-      </c>
-      <c r="F11" s="17">
-        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>0.00591131475602369</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="1"/>
-        <v>182.407239511239</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="19">
-        <f>B10*3</f>
-        <v>363317.151405614</v>
-      </c>
-      <c r="D12" s="15">
-        <v>9</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="13">
+      <c r="E10" s="11"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="19">
-        <f>B11*3</f>
-        <v>1983.34832952325</v>
-      </c>
-      <c r="D13" s="15">
-        <v>10</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13">
+      <c r="I10" s="27">
+        <f>G18/E18</f>
+        <v>0.00494811958505638</v>
+      </c>
+      <c r="J10" s="28">
+        <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
+        <v>0.0048705012891714</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="17">
+        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
+        <v>1446.88581554454</v>
+      </c>
+      <c r="D11" s="14">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="19">
-        <f>B12+B10</f>
-        <v>484422.868540819</v>
-      </c>
-      <c r="D14" s="15">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="13">
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17">
+        <f>B10*3</f>
+        <v>795137.835983444</v>
+      </c>
+      <c r="D12" s="14">
+        <v>9</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="19">
-        <f>B13+B11</f>
-        <v>2644.46443936433</v>
-      </c>
-      <c r="D15" s="15">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="13">
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B11*3</f>
+        <v>4340.65744663362</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="17">
+        <f>B12+B10</f>
+        <v>1060183.78131126</v>
+      </c>
+      <c r="D14" s="14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="17">
+        <f>B13+B11</f>
+        <v>5787.54326217816</v>
+      </c>
+      <c r="D15" s="14">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>13</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="13">
+      <c r="E16" s="11"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
-        <v>0.00553004743032399</v>
-      </c>
-      <c r="D17" s="20" t="s">
+        <v>0.00541637154180561</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <f>SUM(E3:E15)*3</f>
-        <v>363317.151405614</v>
-      </c>
-      <c r="F17" s="22">
+        <v>436694.720149844</v>
+      </c>
+      <c r="F17" s="20">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00593101913854377</v>
-      </c>
-      <c r="G17" s="23">
+        <v>0.00489740702584991</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="1"/>
-        <v>2154.8409783479</v>
-      </c>
-      <c r="J17" s="30"/>
+        <v>2138.67179061341</v>
+      </c>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="24">
-        <v>6</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
+      <c r="B18" s="22">
+        <v>10</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
-        <v>484422.868540818</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26">
+        <v>582259.626866459</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
-        <v>2854.04387124968</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="J18" s="30"/>
+        <v>2881.09026328555</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="30"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="10:16384">
-      <c r="J22" s="30"/>
+      <c r="J22" s="29"/>
       <c r="XEV22"/>
       <c r="XEW22"/>
       <c r="XEX22"/>
@@ -3026,7 +3020,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="10:16384">
-      <c r="J23" s="30"/>
+      <c r="J23" s="29"/>
       <c r="XEV23"/>
       <c r="XEW23"/>
       <c r="XEX23"/>
@@ -3038,7 +3032,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="10:16384">
-      <c r="J24" s="30"/>
+      <c r="J24" s="29"/>
       <c r="XEV24"/>
       <c r="XEW24"/>
       <c r="XEX24"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>suma total de cantidad según el número de compensaciones</t>
-  </si>
-  <si>
-    <t>BUY</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2301,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2366,37 +2363,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="33">
-        <v>329.89</v>
+        <v>456.88</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="35">
-        <v>179</v>
+        <v>550.62</v>
       </c>
       <c r="F3" s="36">
-        <v>5.2334</v>
+        <v>5.1197</v>
       </c>
       <c r="G3" s="25">
         <f>E3/F3</f>
-        <v>34.2033859441281</v>
+        <v>107.549270465066</v>
       </c>
       <c r="H3" s="37">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-8.72750265219359</v>
+        <v>-3.98566528367595</v>
       </c>
       <c r="I3" s="37">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>5.2935597087471</v>
+        <v>5.13975965431498</v>
       </c>
       <c r="J3" s="39">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>5.79973142246264</v>
+        <v>5.35311697935572</v>
       </c>
       <c r="K3" s="40">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-32.989</v>
+        <v>-45.6880000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2405,21 +2402,21 @@
       </c>
       <c r="B4" s="13">
         <f>-B3*10/100</f>
-        <v>-32.989</v>
+        <v>-45.688</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="34" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="35">
-        <v>166</v>
+        <v>550</v>
       </c>
       <c r="F4" s="36">
-        <v>5.36</v>
+        <v>5.16</v>
       </c>
       <c r="G4" s="25">
         <f>E4/F4</f>
-        <v>30.9701492537313</v>
+        <v>106.589147286822</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -2480,7 +2477,7 @@
       </c>
       <c r="B8" s="13">
         <f>B3*10/100</f>
-        <v>32.989</v>
+        <v>45.688</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2513,7 +2510,7 @@
       </c>
       <c r="B10" s="25">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>3147.328181</v>
+        <v>9681.46281018</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2569,7 +2566,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2593,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
@@ -2622,21 +2619,21 @@
       </c>
       <c r="E3" s="11">
         <f>G3/F3</f>
-        <v>8278.80564205898</v>
+        <v>4967.28338523539</v>
       </c>
       <c r="F3" s="11">
         <v>0.005459</v>
       </c>
       <c r="G3" s="12">
         <f>B8</f>
-        <v>45.194</v>
+        <v>27.1164</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="26">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.56864228017839</v>
+        <v>-1.16500348456849</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2652,22 +2649,22 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
-        <v>10762.4473346767</v>
+        <v>6457.46840080601</v>
       </c>
       <c r="F4" s="15">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.005366197</v>
+        <v>0.005529967</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>57.7534126</v>
+        <v>35.70958716</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="26">
         <f>E18</f>
-        <v>582259.626866459</v>
+        <v>636110.268786755</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2675,29 +2672,29 @@
         <v>18</v>
       </c>
       <c r="B5" s="13">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>13991.1815350797</v>
+        <v>8394.70892104781</v>
       </c>
       <c r="F5" s="15">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.005274971651</v>
+        <v>0.005601856571</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>73.80308596154</v>
+        <v>47.025955331004</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="26">
         <f>J4*J10</f>
-        <v>2835.89626328555</v>
+        <v>3879.30170155145</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2712,22 +2709,22 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>18188.5359956036</v>
+        <v>10913.1215973622</v>
       </c>
       <c r="F6" s="15">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.005185297132933</v>
+        <v>0.005674680706423</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="1"/>
-        <v>94.3129635502519</v>
+        <v>61.9284805753991</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="26">
         <f>J3/100*J4*J10</f>
-        <v>-44.4850678078961</v>
+        <v>-45.1939999999993</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -2742,22 +2739,22 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>23645.0967942847</v>
+        <v>14187.0580765708</v>
       </c>
       <c r="F7" s="15">
         <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.00509714708167314</v>
+        <v>0.0057484515556065</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>120.522536120867</v>
+        <v>81.5536160697431</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="25">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
-        <v>-10.7803390882689</v>
+        <v>-10.4857981033513</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2766,22 +2763,22 @@
       </c>
       <c r="B8" s="13">
         <f>B3*$B$18/100</f>
-        <v>45.194</v>
+        <v>27.1164</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>30738.6258325701</v>
+        <v>18443.175499542</v>
       </c>
       <c r="F8" s="15">
         <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.0050104955812847</v>
+        <v>0.00582318142582938</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="1"/>
-        <v>154.015748908856</v>
+        <v>107.397957002245</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2796,15 +2793,15 @@
       </c>
       <c r="E9" s="11">
         <f>E8*(1+$B$6/100)</f>
-        <v>39960.2135823411</v>
+        <v>23976.1281494047</v>
       </c>
       <c r="F9" s="15">
         <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.00492531715640286</v>
+        <v>0.00589888278436516</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>196.816725530627</v>
+        <v>141.432369576256</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
@@ -2819,24 +2816,30 @@
       </c>
       <c r="B10" s="17">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
-        <v>265045.945327815</v>
+        <v>159027.567196689</v>
       </c>
       <c r="D10" s="14">
         <v>7</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="11">
+        <f>E9*(1+$B$6/100)</f>
+        <v>31168.9665942261</v>
+      </c>
+      <c r="F10" s="15">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>0.00597556826056191</v>
+      </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>186.252287494972</v>
       </c>
       <c r="I10" s="27">
         <f>G18/E18</f>
-        <v>0.00494811958505638</v>
+        <v>0.00602742620216491</v>
       </c>
       <c r="J10" s="28">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0048705012891714</v>
+        <v>0.0060984736324889</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
@@ -2845,16 +2848,22 @@
       </c>
       <c r="B11" s="17">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>1446.88581554454</v>
+        <v>868.131489326724</v>
       </c>
       <c r="D11" s="14">
         <v>8</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="11">
+        <f>E10*(1+$B$6/100)</f>
+        <v>40519.6565724939</v>
+      </c>
+      <c r="F11" s="15">
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
+        <v>0.00605325064794921</v>
+      </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>245.275637402128</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
@@ -2863,7 +2872,7 @@
       </c>
       <c r="B12" s="17">
         <f>B10*3</f>
-        <v>795137.835983444</v>
+        <v>477082.701590066</v>
       </c>
       <c r="D12" s="14">
         <v>9</v>
@@ -2881,7 +2890,7 @@
       </c>
       <c r="B13" s="17">
         <f>B11*3</f>
-        <v>4340.65744663362</v>
+        <v>2604.39446798017</v>
       </c>
       <c r="D13" s="14">
         <v>10</v>
@@ -2899,7 +2908,7 @@
       </c>
       <c r="B14" s="17">
         <f>B12+B10</f>
-        <v>1060183.78131126</v>
+        <v>636110.268786755</v>
       </c>
       <c r="D14" s="14">
         <v>11</v>
@@ -2917,7 +2926,7 @@
       </c>
       <c r="B15" s="17">
         <f>B13+B11</f>
-        <v>5787.54326217816</v>
+        <v>3472.5259573069</v>
       </c>
       <c r="D15" s="14">
         <v>12</v>
@@ -2953,22 +2962,22 @@
       </c>
       <c r="B17" s="17">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
-        <v>0.00541637154180561</v>
+        <v>0.00553004743032399</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="19">
         <f>SUM(E3:E15)*3</f>
-        <v>436694.720149844</v>
+        <v>477082.701590066</v>
       </c>
       <c r="F17" s="20">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00489740702584991</v>
+        <v>0.00607948140075699</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
-        <v>2138.67179061341</v>
+        <v>2900.41541093971</v>
       </c>
       <c r="J17" s="29"/>
     </row>
@@ -2977,17 +2986,17 @@
         <v>36</v>
       </c>
       <c r="B18" s="22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
-        <v>582259.626866459</v>
+        <v>636110.268786755</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
-        <v>2881.09026328555</v>
+        <v>3834.10770155145</v>
       </c>
       <c r="H18" s="23"/>
       <c r="J18" s="29"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>suma total de cantidad según el número de compensaciones</t>
+  </si>
+  <si>
+    <t>Soporta una varación en contra %</t>
+  </si>
+  <si>
+    <t>peor de los casos</t>
+  </si>
+  <si>
+    <t>donde quedaría el precio al final</t>
+  </si>
+  <si>
+    <t>distancia entre posicion y precio</t>
   </si>
 </sst>
 </file>
@@ -169,11 +181,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -232,7 +244,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,15 +265,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,7 +290,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,9 +351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,29 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,19 +408,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,25 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,145 +558,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,10 +813,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -827,10 +839,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -859,65 +871,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,6 +905,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -960,155 +961,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1143,6 +1155,9 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1155,10 +1170,7 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,19 +1185,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,34 +1200,43 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,13 +1245,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1263,9 +1284,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1677,64 +1695,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="44" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="45" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="47" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="48">
+      <c r="A2" s="51">
         <v>449.74</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="51">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="49">
+      <c r="A5" s="52">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>606.181571181821</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="52">
         <f>A5-A2</f>
         <v>156.441571181821</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="53" t="s">
@@ -1769,7 +1787,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -1820,21 +1838,21 @@
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="43">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="44">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <f>B8</f>
         <v>19.6944</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
@@ -1843,29 +1861,29 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <f>-B3*$B$19/100</f>
         <v>-32.824</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>4690.00183183733</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005551803</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>26.03796624</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
@@ -1874,28 +1892,28 @@
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>1.7</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>6097.00238138853</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005646183651</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <f t="shared" si="1"/>
         <v>34.424795165904</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
@@ -1904,28 +1922,28 @@
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>30</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>3</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>7926.10309580509</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <f t="shared" si="2"/>
         <v>0.005742168773067</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>45.5130216888417</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
@@ -1934,28 +1952,28 @@
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>4</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>10303.9340245466</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <f t="shared" si="2"/>
         <v>0.00583978564220914</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>60.1727659748174</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="17">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
@@ -1964,45 +1982,45 @@
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <f>B3*$B$18/100</f>
         <v>19.6944</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>5</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>13395.1142319106</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <f t="shared" si="2"/>
         <v>0.00593906199812669</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>79.5544138953063</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="46">
         <v>8</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="15">
         <v>6</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>17413.6485014838</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <f t="shared" si="2"/>
         <v>0.00604002605209485</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>105.178890610985</v>
       </c>
@@ -2014,156 +2032,156 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="46">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>7</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>22637.7430519289</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00614270649498046</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="25">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="46">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="15">
         <v>8</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>29429.0659675076</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00624713250539512</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>183.847274609034</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="46">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="15">
         <v>9</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="12">
+      <c r="F12" s="16"/>
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="46">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="15">
         <v>10</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12">
+      <c r="F13" s="16"/>
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="46">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="15">
         <v>11</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="12">
+      <c r="F14" s="16"/>
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="46">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="15">
         <v>12</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="12">
+      <c r="F15" s="16"/>
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="46">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="15">
         <v>13</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="12">
+      <c r="F16" s="16"/>
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="46">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
@@ -2182,51 +2200,51 @@
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="17">
         <v>6</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24">
+      <c r="D18" s="22"/>
+      <c r="E18" s="23">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="J18" s="29"/>
+      <c r="H18" s="22"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="17">
         <v>10</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="29"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="29"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="29"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="29"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="29"/>
+      <c r="J24" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2306,7 +2324,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="58.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="26.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
     <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
@@ -2330,31 +2348,31 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="27" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2362,36 +2380,36 @@
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="34">
         <v>456.88</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>550.62</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="37">
         <v>5.1197</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="17">
         <f>E3/F3</f>
         <v>107.549270465066</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="38">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
         <v>-3.98566528367595</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="38">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
         <v>5.13975965431498</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="40">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
         <v>5.35311697935572</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="41">
         <f>H3/100*SUM(G3:G4)*J3</f>
         <v>-45.6880000000002</v>
       </c>
@@ -2400,34 +2418,34 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <f>-B3*10/100</f>
         <v>-45.688</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="36">
         <v>550</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="37">
         <v>5.16</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="17">
         <f>E4/F4</f>
         <v>106.589147286822</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="41"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>1.7</v>
       </c>
       <c r="C5" s="1"/>
@@ -2443,7 +2461,7 @@
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>30</v>
       </c>
       <c r="C6" s="1"/>
@@ -2459,7 +2477,7 @@
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
@@ -2475,7 +2493,7 @@
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <f>B3*10/100</f>
         <v>45.688</v>
       </c>
@@ -2492,7 +2510,7 @@
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -2508,7 +2526,7 @@
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="17">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
         <v>9681.46281018</v>
       </c>
@@ -2566,7 +2584,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2578,14 +2596,16 @@
     <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="1" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="16375" max="16375" width="8.44444444444444" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.15" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2612,196 +2632,178 @@
         <v>13</v>
       </c>
       <c r="B3" s="9">
-        <v>451.94</v>
+        <v>496.3</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11">
         <f>G3/F3</f>
-        <v>4967.28338523539</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.005459</v>
-      </c>
-      <c r="G3" s="12">
+        <v>239.604119729643</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.12428</v>
+      </c>
+      <c r="G3" s="13">
         <f>B8</f>
-        <v>27.1164</v>
+        <v>29.778</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-1.16500348456849</v>
+        <v>-20.7099083127728</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13">
-        <f>-B3*$B$19/100</f>
-        <v>-45.194</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="B4" s="14">
+        <f>-B3*$B$10/100</f>
+        <v>-49.63</v>
+      </c>
+      <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
-        <v>6457.46840080601</v>
-      </c>
-      <c r="F4" s="15">
+        <f>E3*(1+$B$6/100)</f>
+        <v>311.485355648536</v>
+      </c>
+      <c r="F4" s="16">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.005529967</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" ref="G4:G17" si="1">E4*F4</f>
-        <v>35.70958716</v>
+        <v>0.12639276</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
+        <v>39.3694938</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <f>E18</f>
-        <v>636110.268786755</v>
+        <v>1482.4306887673</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="B5" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="15">
         <v>2</v>
       </c>
       <c r="E5" s="11">
+        <f>E4*(1+$B$6/100)</f>
+        <v>404.930962343096</v>
+      </c>
+      <c r="F5" s="16">
+        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <v>0.12854143692</v>
+      </c>
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
-        <v>8394.70892104781</v>
-      </c>
-      <c r="F5" s="15">
-        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.005601856571</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>47.025955331004</v>
+        <v>52.05040775298</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <f>J4*J10</f>
-        <v>3879.30170155145</v>
+        <v>239.643745643195</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>30</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>3</v>
       </c>
       <c r="E6" s="11">
+        <f>E5*(1+$B$6/100)</f>
+        <v>526.410251046025</v>
+      </c>
+      <c r="F6" s="16">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>0.13072664134764</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>10913.1215973622</v>
-      </c>
-      <c r="F6" s="15">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.005674680706423</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="1"/>
-        <v>61.9284805753991</v>
+        <v>68.8158440902148</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <f>J3/100*J4*J10</f>
-        <v>-45.1939999999993</v>
+        <v>-49.6300000000001</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="11"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
-        <v>14187.0580765708</v>
-      </c>
-      <c r="F7" s="15">
-        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.0057484515556065</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
-        <v>81.5536160697431</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="25">
-        <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
-        <v>-10.4857981033513</v>
+        <v>48</v>
+      </c>
+      <c r="J7" s="17">
+        <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
+        <v>30.0739885166909</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13">
-        <f>B3*$B$18/100</f>
-        <v>27.1164</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="B8" s="14">
+        <f>B3*$B$9/100</f>
+        <v>29.778</v>
+      </c>
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="11"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>18443.175499542</v>
-      </c>
-      <c r="F8" s="15">
-        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.00582318142582938</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="1"/>
-        <v>107.397957002245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
+      <c r="A9" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="17">
-        <v>8</v>
-      </c>
-      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
-        <f>E8*(1+$B$6/100)</f>
-        <v>23976.1281494047</v>
-      </c>
-      <c r="F9" s="15">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.00589888278436516</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="1"/>
-        <v>141.432369576256</v>
+      <c r="D9" s="15">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
@@ -2811,213 +2813,157 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
+      <c r="A10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="17">
-        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
-        <v>159027.567196689</v>
-      </c>
-      <c r="D10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="E10" s="11">
-        <f>E9*(1+$B$6/100)</f>
-        <v>31168.9665942261</v>
-      </c>
-      <c r="F10" s="15">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.00597556826056191</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
-        <v>186.252287494972</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="E10" s="11"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
         <f>G18/E18</f>
-        <v>0.00602742620216491</v>
-      </c>
-      <c r="J10" s="28">
+        <v>0.128177153294903</v>
+      </c>
+      <c r="J10" s="26">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0060984736324889</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="17">
-        <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
-        <v>868.131489326724</v>
-      </c>
-      <c r="D11" s="14">
+        <v>0.161655952928543</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="4:7">
+      <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="11">
-        <f>E10*(1+$B$6/100)</f>
-        <v>40519.6565724939</v>
-      </c>
-      <c r="F11" s="15">
-        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>0.00605325064794921</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="1"/>
-        <v>245.275637402128</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="17">
-        <f>B10*3</f>
-        <v>477082.701590066</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="E11" s="11"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:7">
+      <c r="D12" s="15">
         <v>9</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="12">
-        <f t="shared" si="1"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17">
-        <f>B11*3</f>
-        <v>2604.39446798017</v>
-      </c>
-      <c r="D13" s="14">
+    <row r="13" s="1" customFormat="1" spans="4:10">
+      <c r="D13" s="15">
         <v>10</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12">
-        <f t="shared" si="1"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="17">
-        <f>B12+B10</f>
-        <v>636110.268786755</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="I13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="4:9">
+      <c r="D14" s="15">
         <v>11</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="12">
-        <f t="shared" si="1"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="17">
-        <f>B13+B11</f>
-        <v>3472.5259573069</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="I14" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="4:9">
+      <c r="D15" s="15">
         <v>12</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="17">
-        <f>B15/B14</f>
-        <v>0.005459</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="I15" s="17">
+        <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
+        <v>0.161655952928543</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="4:9">
+      <c r="D16" s="15">
         <v>13</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="12">
-        <f t="shared" si="1"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="17">
-        <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
-        <v>0.00553004743032399</v>
-      </c>
+      <c r="I16" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.15" spans="4:10">
       <c r="D17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="19">
-        <f>SUM(E3:E15)*3</f>
-        <v>477082.701590066</v>
-      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="20">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00607948140075699</v>
+        <v>0.13146742564861</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" si="1"/>
-        <v>2900.41541093971</v>
-      </c>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="22">
-        <v>6</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
+        <v>26.1191630279183</v>
+      </c>
+      <c r="J17" s="30" t="str">
+        <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
+        <v>TIENE QUE BAJAR</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="4:10">
+      <c r="D18" s="22"/>
+      <c r="E18" s="23">
         <f>SUM(E3:E17)</f>
-        <v>636110.268786755</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+        <v>1482.4306887673</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23">
         <f>SUM(G3:G17)</f>
-        <v>3834.10770155145</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="25">
-        <v>10</v>
-      </c>
-      <c r="J19" s="29"/>
+        <v>190.013745643195</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="10:10">
+      <c r="J19" s="31"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="29"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="29"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="10:16384">
-      <c r="J22" s="29"/>
+      <c r="J22" s="31"/>
       <c r="XEV22"/>
       <c r="XEW22"/>
       <c r="XEX22"/>
@@ -3029,7 +2975,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="10:16384">
-      <c r="J23" s="29"/>
+      <c r="J23" s="31"/>
       <c r="XEV23"/>
       <c r="XEW23"/>
       <c r="XEX23"/>
@@ -3041,7 +2987,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="10:16384">
-      <c r="J24" s="29"/>
+      <c r="J24" s="31"/>
       <c r="XEV24"/>
       <c r="XEW24"/>
       <c r="XEX24"/>
@@ -3053,55 +2999,58 @@
       <c r="XFD24"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I13:J13"/>
+  </mergeCells>
   <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+      <formula>$B$4</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
       <formula>$J$6&gt;=$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>$B$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$B$4</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>IF(AND($J$10&lt;$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>IF(AND($J$10&gt;=$F$17,$B$1="BUY"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>IF(AND($J$10&gt;$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>IF(AND($J$10&lt;=$F$17,$B$1="SELL"),TRUE,FALSE)</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$G$18&gt;$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+      <formula>$B$3*$B$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+      <formula>$B$3*10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
+      <formula>#REF!*#REF!</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
       <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
-      <formula>#REF!*#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
-      <formula>$B$3*10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
-      <formula>$B$3*$B$7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$G$18&gt;$B$3*$B$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -180,11 +180,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="26">
@@ -243,15 +243,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,15 +268,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,22 +292,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,14 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -343,11 +328,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,8 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,13 +381,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -426,19 +426,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,13 +546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,13 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,121 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,32 +875,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,11 +923,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,148 +975,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,28 +1146,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,28 +1176,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,16 +1212,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,19 +1239,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2319,7 +2319,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2381,37 +2381,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="34">
-        <v>456.88</v>
+        <v>498.78</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="35" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="36">
-        <v>550.62</v>
+        <v>178.96</v>
       </c>
       <c r="F3" s="37">
-        <v>5.1197</v>
+        <v>1.3</v>
       </c>
       <c r="G3" s="17">
         <f>E3/F3</f>
-        <v>107.549270465066</v>
+        <v>137.661538461538</v>
       </c>
       <c r="H3" s="38">
         <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-3.98566528367595</v>
+        <v>-12.2599167236099</v>
       </c>
       <c r="I3" s="38">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>5.13975965431498</v>
+        <v>1.30989677247175</v>
       </c>
       <c r="J3" s="40">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>5.35311697935572</v>
+        <v>1.49292857216176</v>
       </c>
       <c r="K3" s="41">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-45.6880000000002</v>
+        <v>-49.878</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2420,21 +2420,21 @@
       </c>
       <c r="B4" s="14">
         <f>-B3*10/100</f>
-        <v>-45.688</v>
+        <v>-49.878</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="35" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="36">
-        <v>550</v>
+        <v>178</v>
       </c>
       <c r="F4" s="37">
-        <v>5.16</v>
+        <v>1.32</v>
       </c>
       <c r="G4" s="17">
         <f>E4/F4</f>
-        <v>106.589147286822</v>
+        <v>134.848484848485</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B8" s="14">
         <f>B3*10/100</f>
-        <v>45.688</v>
+        <v>49.878</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B10" s="17">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>9681.46281018</v>
+        <v>3146.62486744</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2584,7 +2584,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2632,28 +2632,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="9">
-        <v>496.3</v>
+        <v>502.22</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11">
         <f>G3/F3</f>
-        <v>239.604119729643</v>
+        <v>5673.73376012051</v>
       </c>
       <c r="F3" s="12">
-        <v>0.12428</v>
+        <v>0.005311</v>
       </c>
       <c r="G3" s="13">
         <f>B8</f>
-        <v>29.778</v>
+        <v>30.1332</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="24">
-        <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
-        <v>-20.7099083127728</v>
+        <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
+        <v>-4.5193163771672</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2662,29 +2662,29 @@
       </c>
       <c r="B4" s="14">
         <f>-B3*$B$10/100</f>
-        <v>-49.63</v>
+        <v>-50.222</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="11">
         <f>E3*(1+$B$6/100)</f>
-        <v>311.485355648536</v>
+        <v>7375.85388815666</v>
       </c>
       <c r="F4" s="16">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.12639276</v>
+        <v>0.005401287</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>39.3694938</v>
+        <v>39.83910372</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="24">
         <f>E18</f>
-        <v>1482.4306887673</v>
+        <v>181644.574472154</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2699,22 +2699,22 @@
       </c>
       <c r="E5" s="11">
         <f>E4*(1+$B$6/100)</f>
-        <v>404.930962343096</v>
+        <v>9588.61005460365</v>
       </c>
       <c r="F5" s="16">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.12854143692</v>
+        <v>0.005493108879</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="0"/>
-        <v>52.05040775298</v>
+        <v>52.671279028212</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="24">
         <f>J4*J10</f>
-        <v>239.643745643195</v>
+        <v>1111.27426824409</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2729,22 +2729,22 @@
       </c>
       <c r="E6" s="11">
         <f>E5*(1+$B$6/100)</f>
-        <v>526.410251046025</v>
+        <v>12465.1930709848</v>
       </c>
       <c r="F6" s="16">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.13072664134764</v>
+        <v>0.005586491729943</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>68.8158440902148</v>
+        <v>69.6366980031991</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="24">
         <f>J3/100*J4*J10</f>
-        <v>-49.6300000000001</v>
+        <v>-50.2220000000002</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -2757,18 +2757,24 @@
       <c r="D7" s="15">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="11">
+        <f>E6*(1+$B$6/100)</f>
+        <v>16204.7509922802</v>
+      </c>
+      <c r="F7" s="16">
+        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
+        <v>0.00568146208935203</v>
+      </c>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92.0666784300295</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="17">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>30.0739885166909</v>
+        <v>15.1920550884314</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2777,16 +2783,22 @@
       </c>
       <c r="B8" s="14">
         <f>B3*$B$9/100</f>
-        <v>29.778</v>
+        <v>30.1332</v>
       </c>
       <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="11">
+        <f>E7*(1+$B$6/100)</f>
+        <v>21066.1762899642</v>
+      </c>
+      <c r="F8" s="16">
+        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
+        <v>0.00577804694487101</v>
+      </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121.721355552342</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2799,11 +2811,17 @@
       <c r="D9" s="15">
         <v>6</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="11">
+        <f>E8*(1+$B$6/100)</f>
+        <v>27386.0291769535</v>
+      </c>
+      <c r="F9" s="16">
+        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
+        <v>0.00587627374293382</v>
+      </c>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160.927804175751</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
@@ -2822,30 +2840,42 @@
       <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="11">
+        <f>E9*(1+$B$6/100)</f>
+        <v>35601.8379300396</v>
+      </c>
+      <c r="F10" s="16">
+        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
+        <v>0.00597617039656369</v>
+      </c>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>212.762649900761</v>
       </c>
       <c r="I10" s="25">
         <f>G18/E18</f>
-        <v>0.128177153294903</v>
+        <v>0.00584136504669864</v>
       </c>
       <c r="J10" s="26">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.161655952928543</v>
+        <v>0.00611785004574659</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
       <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="11">
+        <f>E10*(1+$B$6/100)</f>
+        <v>46282.3893090514</v>
+      </c>
+      <c r="F11" s="16">
+        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
+        <v>0.00607776529330528</v>
+      </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>281.293499433796</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
@@ -2900,7 +2930,7 @@
       </c>
       <c r="I15" s="17">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.161655952928543</v>
+        <v>0.00611785004574659</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:9">
@@ -2924,7 +2954,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="20">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.13146742564861</v>
+        <v>0.00611220596330067</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
@@ -2932,7 +2962,7 @@
       </c>
       <c r="I17" s="17">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>26.1191630279183</v>
+        <v>4.73322582714151</v>
       </c>
       <c r="J17" s="30" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2943,12 +2973,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="23">
         <f>SUM(E3:E17)</f>
-        <v>1482.4306887673</v>
+        <v>181644.574472154</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23">
         <f>SUM(G3:G17)</f>
-        <v>190.013745643195</v>
+        <v>1061.05226824409</v>
       </c>
       <c r="H18" s="22"/>
       <c r="J18" s="31"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -180,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
@@ -243,32 +243,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,9 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +268,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +304,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -357,8 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,16 +380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +426,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,19 +450,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,139 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,15 +871,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +914,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -955,15 +955,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -972,18 +963,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,130 +993,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,28 +1146,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,28 +1176,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,16 +1212,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,19 +1239,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2584,7 +2584,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="J3" s="24">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-4.5193163771672</v>
+        <v>-20.7099083127727</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="J4" s="24">
         <f>E18</f>
-        <v>181644.574472154</v>
+        <v>35103.3907738656</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="E5" s="11">
         <f>E4*(1+$B$6/100)</f>
-        <v>9588.61005460365</v>
+        <v>9588.61005460366</v>
       </c>
       <c r="F5" s="16">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="J5" s="24">
         <f>J4*J10</f>
-        <v>1111.27426824409</v>
+        <v>242.502280751411</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="J6" s="24">
         <f>J3/100*J4*J10</f>
-        <v>-50.2220000000002</v>
+        <v>-50.222</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -2757,24 +2757,18 @@
       <c r="D7" s="15">
         <v>4</v>
       </c>
-      <c r="E7" s="11">
-        <f>E6*(1+$B$6/100)</f>
-        <v>16204.7509922802</v>
-      </c>
-      <c r="F7" s="16">
-        <f>IF($B$1="BUY",F6*(1-$B$5/100),F6*(1+$B$5/100))</f>
-        <v>0.00568146208935203</v>
-      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
-        <v>92.0666784300295</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="17">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>15.1920550884314</v>
+        <v>30.0739885166909</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2788,17 +2782,11 @@
       <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
-        <f>E7*(1+$B$6/100)</f>
-        <v>21066.1762899642</v>
-      </c>
-      <c r="F8" s="16">
-        <f>IF($B$1="BUY",F7*(1-$B$5/100),F7*(1+$B$5/100))</f>
-        <v>0.00577804694487101</v>
-      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>121.721355552342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
@@ -2811,17 +2799,11 @@
       <c r="D9" s="15">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
-        <f>E8*(1+$B$6/100)</f>
-        <v>27386.0291769535</v>
-      </c>
-      <c r="F9" s="16">
-        <f>IF($B$1="BUY",F8*(1-$B$5/100),F8*(1+$B$5/100))</f>
-        <v>0.00587627374293382</v>
-      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>160.927804175751</v>
+        <v>0</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
@@ -2840,42 +2822,30 @@
       <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="E10" s="11">
-        <f>E9*(1+$B$6/100)</f>
-        <v>35601.8379300396</v>
-      </c>
-      <c r="F10" s="16">
-        <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
-        <v>0.00597617039656369</v>
-      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
-        <v>212.762649900761</v>
+        <v>0</v>
       </c>
       <c r="I10" s="25">
         <f>G18/E18</f>
-        <v>0.00584136504669864</v>
+        <v>0.00547754152839741</v>
       </c>
       <c r="J10" s="26">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00611785004574659</v>
+        <v>0.00690822953012145</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
       <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="11">
-        <f>E10*(1+$B$6/100)</f>
-        <v>46282.3893090514</v>
-      </c>
-      <c r="F11" s="16">
-        <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
-        <v>0.00607776529330528</v>
-      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
-        <v>281.293499433796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="4:7">
@@ -2930,7 +2900,7 @@
       </c>
       <c r="I15" s="17">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.00611785004574659</v>
+        <v>0.00690822953012145</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:9">
@@ -2954,7 +2924,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="20">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00611220596330067</v>
+        <v>0.00561814851641268</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
@@ -2962,7 +2932,7 @@
       </c>
       <c r="I17" s="17">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>4.73322582714151</v>
+        <v>26.1191630279182</v>
       </c>
       <c r="J17" s="30" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2973,12 +2943,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="23">
         <f>SUM(E3:E17)</f>
-        <v>181644.574472154</v>
+        <v>35103.3907738656</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23">
         <f>SUM(G3:G17)</f>
-        <v>1061.05226824409</v>
+        <v>192.280280751411</v>
       </c>
       <c r="H18" s="22"/>
       <c r="J18" s="31"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Porcentaje de pérdida</t>
+  </si>
+  <si>
+    <t>BUY</t>
   </si>
   <si>
     <t>Size</t>
@@ -180,11 +183,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="26">
@@ -243,6 +246,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,7 +283,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,9 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,13 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -335,38 +367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,13 +389,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -426,181 +429,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,6 +874,45 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,36 +965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -963,25 +975,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,130 +996,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,28 +1149,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,28 +1179,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,16 +1215,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,19 +1242,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2318,8 +2321,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2329,7 +2332,8 @@
     <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
     <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
-    <col min="7" max="8" width="12.8888888888889" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9537037037037" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.787037037037" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
     <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
@@ -2349,31 +2353,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2381,37 +2385,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="34">
-        <v>498.78</v>
+        <v>511.74</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="36">
-        <v>178.96</v>
+        <v>200</v>
       </c>
       <c r="F3" s="37">
-        <v>1.3</v>
+        <v>4.7457</v>
       </c>
       <c r="G3" s="17">
         <f>E3/F3</f>
-        <v>137.661538461538</v>
+        <v>42.1434140379712</v>
       </c>
       <c r="H3" s="38">
-        <f>IF(A2="BUY",(J3/I3)-1,(I3/J3)-1)*100</f>
-        <v>-12.2599167236099</v>
+        <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
+        <v>-20.5661787755299</v>
       </c>
       <c r="I3" s="38">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>1.30989677247175</v>
+        <v>4.6961185168188</v>
       </c>
       <c r="J3" s="40">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>1.49292857216176</v>
+        <v>3.89505462021985</v>
       </c>
       <c r="K3" s="41">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-49.878</v>
+        <v>-51.174</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2420,21 +2424,21 @@
       </c>
       <c r="B4" s="14">
         <f>-B3*10/100</f>
-        <v>-49.878</v>
+        <v>-51.174</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="36">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="F4" s="37">
-        <v>1.32</v>
+        <v>4.6</v>
       </c>
       <c r="G4" s="17">
         <f>E4/F4</f>
-        <v>134.848484848485</v>
+        <v>21.7391304347826</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -2495,7 +2499,7 @@
       </c>
       <c r="B8" s="14">
         <f>B3*10/100</f>
-        <v>49.878</v>
+        <v>51.174</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2524,11 +2528,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="17">
         <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>3146.62486744</v>
+        <v>3516.5678</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2583,8 +2587,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2594,7 +2598,7 @@
     <col min="3" max="3" width="12.8888888888889" style="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="1.66666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.8888888888889" style="1" customWidth="1"/>
@@ -2632,21 +2636,21 @@
         <v>13</v>
       </c>
       <c r="B3" s="9">
-        <v>502.22</v>
+        <v>511.74</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11">
         <f>G3/F3</f>
-        <v>5673.73376012051</v>
+        <v>5295.68816833391</v>
       </c>
       <c r="F3" s="12">
-        <v>0.005311</v>
+        <v>0.005798</v>
       </c>
       <c r="G3" s="13">
         <f>B8</f>
-        <v>30.1332</v>
+        <v>30.7044</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
@@ -2662,29 +2666,29 @@
       </c>
       <c r="B4" s="14">
         <f>-B3*$B$10/100</f>
-        <v>-50.222</v>
+        <v>-51.174</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="11">
         <f>E3*(1+$B$6/100)</f>
-        <v>7375.85388815666</v>
+        <v>6884.39461883408</v>
       </c>
       <c r="F4" s="16">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.005401287</v>
+        <v>0.005896566</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>39.83910372</v>
+        <v>40.59428724</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="24">
         <f>E18</f>
-        <v>35103.3907738656</v>
+        <v>32764.4226974819</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2699,22 +2703,22 @@
       </c>
       <c r="E5" s="11">
         <f>E4*(1+$B$6/100)</f>
-        <v>9588.61005460366</v>
+        <v>8949.71300448431</v>
       </c>
       <c r="F5" s="16">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.005493108879</v>
+        <v>0.005996807622</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="0"/>
-        <v>52.671279028212</v>
+        <v>53.669707160004</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="24">
         <f>J4*J10</f>
-        <v>242.502280751411</v>
+        <v>247.099114236245</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2729,22 +2733,22 @@
       </c>
       <c r="E6" s="11">
         <f>E5*(1+$B$6/100)</f>
-        <v>12465.1930709848</v>
+        <v>11634.6269058296</v>
       </c>
       <c r="F6" s="16">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.005586491729943</v>
+        <v>0.006098753351574</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>69.6366980031991</v>
+        <v>70.9567198362413</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="24">
         <f>J3/100*J4*J10</f>
-        <v>-50.222</v>
+        <v>-51.174</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -2764,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="17">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
@@ -2777,7 +2781,7 @@
       </c>
       <c r="B8" s="14">
         <f>B3*$B$9/100</f>
-        <v>30.1332</v>
+        <v>30.7044</v>
       </c>
       <c r="D8" s="15">
         <v>5</v>
@@ -2830,11 +2834,11 @@
       </c>
       <c r="I10" s="25">
         <f>G18/E18</f>
-        <v>0.00547754152839741</v>
+        <v>0.0059798128001597</v>
       </c>
       <c r="J10" s="26">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00690822953012145</v>
+        <v>0.00754168985419774</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
@@ -2870,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" s="27"/>
     </row>
@@ -2885,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="4:9">
@@ -2900,7 +2904,7 @@
       </c>
       <c r="I15" s="17">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.00690822953012145</v>
+        <v>0.00754168985419774</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:9">
@@ -2914,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:10">
@@ -2924,7 +2928,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="20">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00561814851641268</v>
+        <v>0.00613331295389958</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
@@ -2932,7 +2936,7 @@
       </c>
       <c r="I17" s="17">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>26.1191630279182</v>
+        <v>26.1191630279183</v>
       </c>
       <c r="J17" s="30" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2943,12 +2947,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="23">
         <f>SUM(E3:E17)</f>
-        <v>35103.3907738656</v>
+        <v>32764.4226974819</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23">
         <f>SUM(G3:G17)</f>
-        <v>192.280280751411</v>
+        <v>195.925114236245</v>
       </c>
       <c r="H18" s="22"/>
       <c r="J18" s="31"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -2322,7 +2322,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="34">
-        <v>511.74</v>
+        <v>513.22</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="35" t="s">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H3" s="38">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-20.5661787755299</v>
+        <v>-20.6379333917757</v>
       </c>
       <c r="I3" s="38">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
@@ -2411,11 +2411,11 @@
       </c>
       <c r="J3" s="40">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>3.89505462021985</v>
+        <v>3.89273786841822</v>
       </c>
       <c r="K3" s="41">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-51.174</v>
+        <v>-51.322</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B4" s="14">
         <f>-B3*10/100</f>
-        <v>-51.174</v>
+        <v>-51.322</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="35" t="s">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B8" s="14">
         <f>B3*10/100</f>
-        <v>51.174</v>
+        <v>51.322</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -163,10 +163,10 @@
     <t>Ataque</t>
   </si>
   <si>
-    <t>suma total de cantidad según el número de compensaciones</t>
-  </si>
-  <si>
     <t>Soporta una varación en contra %</t>
+  </si>
+  <si>
+    <t>va 6. Probando 10</t>
   </si>
   <si>
     <t>peor de los casos</t>
@@ -183,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -246,16 +246,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +268,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -283,23 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +290,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,14 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,13 +369,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +411,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,49 +435,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,13 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,109 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,30 +880,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,16 +957,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,131 +1005,131 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1149,28 +1155,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,28 +1188,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,25 +1224,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,25 +1251,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1698,78 +1713,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="47" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="47" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="48" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="50" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="50" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="51">
+      <c r="A2" s="54">
         <v>449.74</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="55">
         <v>1</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="54">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="52">
+      <c r="A5" s="55">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>606.181571181821</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="55">
         <f>A5-A2</f>
         <v>156.441571181821</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="58"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="56" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53">
+      <c r="A9" s="56">
         <v>3</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="56">
         <f>A9*100/A2</f>
         <v>0.667052074531952</v>
       </c>
@@ -1841,11 +1856,11 @@
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="46">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="47">
         <v>0.005459</v>
       </c>
       <c r="G3" s="13">
@@ -1855,7 +1870,7 @@
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
@@ -1886,7 +1901,7 @@
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
@@ -1916,7 +1931,7 @@
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
@@ -1946,7 +1961,7 @@
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="25">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
@@ -1976,7 +1991,7 @@
       <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="18">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
@@ -2006,10 +2021,10 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="49">
         <v>8</v>
       </c>
       <c r="D9" s="15">
@@ -2035,10 +2050,10 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="49">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
@@ -2057,20 +2072,20 @@
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="27">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="49">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
@@ -2091,10 +2106,10 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="49">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
@@ -2109,10 +2124,10 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="49">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
@@ -2127,10 +2142,10 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="49">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
@@ -2145,10 +2160,10 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="49">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
@@ -2163,10 +2178,10 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="49">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
@@ -2181,73 +2196,73 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="49">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="20">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="21">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="22">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="31"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>6</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23">
+      <c r="D18" s="23"/>
+      <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="J18" s="31"/>
+      <c r="H18" s="23"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="18">
         <v>10</v>
       </c>
-      <c r="J19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="31"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2322,20 +2337,20 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.5833333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="10.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="9.9537037037037" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.787037037037" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="8.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="5.22222222222222" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="7.97222222222222" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3333333333333" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
     <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2352,31 +2367,31 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2384,38 +2399,38 @@
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34">
-        <v>513.22</v>
+      <c r="B3" s="35">
+        <v>519.93</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="36">
-        <v>200</v>
-      </c>
-      <c r="F3" s="37">
-        <v>4.7457</v>
-      </c>
-      <c r="G3" s="17">
-        <f>E3/F3</f>
-        <v>42.1434140379712</v>
-      </c>
-      <c r="H3" s="38">
+      <c r="E3" s="37">
+        <v>26.69</v>
+      </c>
+      <c r="F3" s="38">
+        <v>6.372</v>
+      </c>
+      <c r="G3" s="18">
+        <f t="shared" ref="G3:G6" si="0">E3/F3</f>
+        <v>4.18863779033271</v>
+      </c>
+      <c r="H3" s="39">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-20.6379333917757</v>
-      </c>
-      <c r="I3" s="38">
+        <v>-1.74784188103865</v>
+      </c>
+      <c r="I3" s="39">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>4.6961185168188</v>
-      </c>
-      <c r="J3" s="40">
+        <v>4.70094248080813</v>
+      </c>
+      <c r="J3" s="42">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>3.89273786841822</v>
-      </c>
-      <c r="K3" s="41">
+        <v>4.62018888450171</v>
+      </c>
+      <c r="K3" s="43">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-51.322</v>
+        <v>-51.9930000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2424,34 +2439,28 @@
       </c>
       <c r="B4" s="14">
         <f>-B3*10/100</f>
-        <v>-51.322</v>
+        <v>-51.993</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="36">
-        <v>100</v>
-      </c>
-      <c r="F4" s="37">
-        <v>4.6</v>
-      </c>
-      <c r="G4" s="17">
-        <f>E4/F4</f>
-        <v>21.7391304347826</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1.7</v>
-      </c>
+      <c r="E4" s="37">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="38">
+        <v>4.69</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>639.658848614072</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="3:10">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2461,29 +2470,28 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14">
-        <v>30</v>
-      </c>
+    <row r="6" spans="3:11">
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14">
-        <v>10</v>
-      </c>
+      <c r="D6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="18">
+        <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
+        <v>3.45454545454545</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="K6" s="45">
+        <f>H6/100*SUM(G3)*J6</f>
+        <v>0.955009416195857</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2492,15 +2500,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="14">
-        <f>B3*10/100</f>
-        <v>51.322</v>
-      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:11">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2509,14 +2511,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="17">
-        <v>6</v>
-      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2526,14 +2523,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="17">
-        <f>((1-POWER(1+$B$6/100,B9+1))/(1-(1+$B$6/100)))*E3</f>
-        <v>3516.5678</v>
-      </c>
+    <row r="10" spans="3:10">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2587,15 +2577,15 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="58.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="1"/>
+    <col min="3" max="3" width="17.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -2636,28 +2626,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="9">
-        <v>511.74</v>
+        <v>519.93</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11">
         <f>G3/F3</f>
-        <v>5295.68816833391</v>
+        <v>8.81835142469471</v>
       </c>
       <c r="F3" s="12">
-        <v>0.005798</v>
+        <v>5.896</v>
       </c>
       <c r="G3" s="13">
         <f>B8</f>
-        <v>30.7044</v>
+        <v>51.993</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-20.7099083127727</v>
+        <v>-13.548279491961</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:10">
@@ -2666,29 +2656,29 @@
       </c>
       <c r="B4" s="14">
         <f>-B3*$B$10/100</f>
-        <v>-51.174</v>
+        <v>-51.993</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="11">
         <f>E3*(1+$B$6/100)</f>
-        <v>6884.39461883408</v>
+        <v>11.4638568521031</v>
       </c>
       <c r="F4" s="16">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.005896566</v>
+        <v>5.996232</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>40.59428724</v>
+        <v>68.7399453</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="25">
         <f>E18</f>
-        <v>32764.4226974819</v>
+        <v>54.5591402645862</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:10">
@@ -2703,22 +2693,22 @@
       </c>
       <c r="E5" s="11">
         <f>E4*(1+$B$6/100)</f>
-        <v>8949.71300448431</v>
+        <v>14.9030139077341</v>
       </c>
       <c r="F5" s="16">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.005996807622</v>
+        <v>6.098167944</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="0"/>
-        <v>53.669707160004</v>
+        <v>90.88108168113</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="25">
         <f>J4*J10</f>
-        <v>247.099114236245</v>
+        <v>383.760905071752</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
@@ -2733,22 +2723,22 @@
       </c>
       <c r="E6" s="11">
         <f>E5*(1+$B$6/100)</f>
-        <v>11634.6269058296</v>
+        <v>19.3739180800543</v>
       </c>
       <c r="F6" s="16">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.006098753351574</v>
+        <v>6.201836799048</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>70.9567198362413</v>
+        <v>120.153878090622</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="25">
         <f>J3/100*J4*J10</f>
-        <v>-51.174</v>
+        <v>-51.993</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
@@ -2768,11 +2758,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="17">
+        <v>48</v>
+      </c>
+      <c r="J7" s="18">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>30.0739885166909</v>
+        <v>19.2987070124616</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
@@ -2781,7 +2771,7 @@
       </c>
       <c r="B8" s="14">
         <f>B3*$B$9/100</f>
-        <v>30.7044</v>
+        <v>51.993</v>
       </c>
       <c r="D8" s="15">
         <v>5</v>
@@ -2798,7 +2788,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="17">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="15">
         <v>6</v>
@@ -2820,7 +2813,7 @@
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>10</v>
       </c>
       <c r="D10" s="15">
@@ -2832,13 +2825,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <f>G18/E18</f>
-        <v>0.0059798128001597</v>
-      </c>
-      <c r="J10" s="26">
+        <v>6.0808858692207</v>
+      </c>
+      <c r="J10" s="27">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00754168985419774</v>
+        <v>7.03385176545474</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="4:7">
@@ -2873,10 +2866,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="4:9">
       <c r="D14" s="15">
@@ -2888,7 +2881,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2902,9 +2895,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="18">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.00754168985419774</v>
+        <v>7.03385176545474</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="4:9">
@@ -2917,57 +2910,57 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00613331295389958</v>
-      </c>
-      <c r="G17" s="21">
+        <v>6.23698054090927</v>
+      </c>
+      <c r="G17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="18">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>26.1191630279183</v>
-      </c>
-      <c r="J17" s="30" t="str">
+        <v>15.671497816751</v>
+      </c>
+      <c r="J17" s="31" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:10">
-      <c r="D18" s="22"/>
-      <c r="E18" s="23">
+      <c r="D18" s="23"/>
+      <c r="E18" s="24">
         <f>SUM(E3:E17)</f>
-        <v>32764.4226974819</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23">
+        <v>54.5591402645862</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24">
         <f>SUM(G3:G17)</f>
-        <v>195.925114236245</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="J18" s="31"/>
+        <v>331.767905071752</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="10:10">
-      <c r="J19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="31"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="10:16384">
-      <c r="J22" s="31"/>
+      <c r="J22" s="32"/>
       <c r="XEV22"/>
       <c r="XEW22"/>
       <c r="XEX22"/>
@@ -2979,7 +2972,7 @@
       <c r="XFD22"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="10:16384">
-      <c r="J23" s="31"/>
+      <c r="J23" s="32"/>
       <c r="XEV23"/>
       <c r="XEW23"/>
       <c r="XEX23"/>
@@ -2991,7 +2984,7 @@
       <c r="XFD23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="10:16384">
-      <c r="J24" s="31"/>
+      <c r="J24" s="32"/>
       <c r="XEV24"/>
       <c r="XEW24"/>
       <c r="XEX24"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
     <sheet name="GRILLA" sheetId="6" r:id="rId2"/>
-    <sheet name="CALCULADORA" sheetId="9" r:id="rId3"/>
-    <sheet name="grilla de pruebas" sheetId="10" r:id="rId4"/>
+    <sheet name="grilla de pruebas" sheetId="10" r:id="rId3"/>
+    <sheet name="CALCULADORA" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -133,7 +133,19 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>BUY</t>
+    <t>Soporta una varación en contra %</t>
+  </si>
+  <si>
+    <t>VA 6. Probando 10 automatico y 40 manual</t>
+  </si>
+  <si>
+    <t>peor de los casos</t>
+  </si>
+  <si>
+    <t>donde quedaría el precio al final</t>
+  </si>
+  <si>
+    <t>distancia entre posicion y precio</t>
   </si>
   <si>
     <t>Size</t>
@@ -161,34 +173,18 @@
   </si>
   <si>
     <t>Ataque</t>
-  </si>
-  <si>
-    <t>Soporta una varación en contra %</t>
-  </si>
-  <si>
-    <t>va 6. Probando 10</t>
-  </si>
-  <si>
-    <t>peor de los casos</t>
-  </si>
-  <si>
-    <t>donde quedaría el precio al final</t>
-  </si>
-  <si>
-    <t>distancia entre posicion y precio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -197,13 +193,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Berlin Sans FB"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -221,6 +210,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -399,6 +395,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,12 +420,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +619,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -681,21 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -814,45 +849,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -987,12 +983,12 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,7 +1070,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1129,178 +1125,236 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1713,78 +1767,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="50" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="50" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="51" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="70" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="70" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="54">
+      <c r="A2" s="74">
         <v>449.74</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="75">
         <v>1</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="74">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="55">
+      <c r="A5" s="75">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>606.181571181821</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="75">
         <f>A5-A2</f>
         <v>156.441571181821</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="78"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="76" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="56">
+      <c r="A9" s="76">
         <v>3</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="76">
         <f>A9*100/A2</f>
         <v>0.667052074531952</v>
       </c>
@@ -1810,459 +1864,459 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="58.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
+    <col min="1" max="1" width="58.7777777777778" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="40" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="40"/>
+    <col min="4" max="4" width="8.44444444444444" style="40" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="40" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="40" customWidth="1"/>
+    <col min="8" max="8" width="9" style="40" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" style="40" customWidth="1"/>
+    <col min="10" max="10" width="20" style="40" customWidth="1"/>
+    <col min="11" max="16374" width="8.44444444444444" style="40" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="40" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
+    <row r="2" s="40" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="40" customFormat="1" spans="1:10">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="48">
         <v>328.24</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="50">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="51">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="52">
         <f>B8</f>
         <v>19.6944</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="66">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="40" customFormat="1" spans="1:10">
+      <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="53">
         <f>-B3*$B$19/100</f>
         <v>-32.824</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="54">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="55">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>4690.00183183733</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="56">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005551803</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="52">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>26.03796624</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="66">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="40" customFormat="1" spans="1:10">
+      <c r="A5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="53">
         <v>1.7</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="54">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="55">
         <f t="shared" si="0"/>
         <v>6097.00238138853</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="56">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005646183651</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="52">
         <f t="shared" si="1"/>
         <v>34.424795165904</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="66">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="40" customFormat="1" spans="1:10">
+      <c r="A6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="53">
         <v>30</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="54">
         <v>3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="55">
         <f t="shared" si="0"/>
         <v>7926.10309580509</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="56">
         <f t="shared" si="2"/>
         <v>0.005742168773067</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="52">
         <f t="shared" si="1"/>
         <v>45.5130216888417</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="66">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="40" customFormat="1" spans="1:10">
+      <c r="A7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="53">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="54">
         <v>4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="55">
         <f t="shared" si="0"/>
         <v>10303.9340245466</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="56">
         <f t="shared" si="2"/>
         <v>0.00583978564220914</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="52">
         <f t="shared" si="1"/>
         <v>60.1727659748174</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="63">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="40" customFormat="1" spans="1:7">
+      <c r="A8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="53">
         <f>B3*$B$18/100</f>
         <v>19.6944</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="54">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="55">
         <f t="shared" si="0"/>
         <v>13395.1142319106</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="56">
         <f t="shared" si="2"/>
         <v>0.00593906199812669</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="52">
         <f t="shared" si="1"/>
         <v>79.5544138953063</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="48" t="s">
+    <row r="9" s="40" customFormat="1" spans="1:10">
+      <c r="A9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="58">
         <v>8</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="54">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="55">
         <f t="shared" si="0"/>
         <v>17413.6485014838</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="56">
         <f t="shared" si="2"/>
         <v>0.00604002605209485</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="52">
         <f t="shared" si="1"/>
         <v>105.178890610985</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="48" t="s">
+    <row r="10" s="40" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="58">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="54">
         <v>7</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="55">
         <f t="shared" si="0"/>
         <v>22637.7430519289</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="56">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00614270649498046</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="52">
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="67">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="68">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="48" t="s">
+    <row r="11" s="40" customFormat="1" spans="1:7">
+      <c r="A11" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="58">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="54">
         <v>8</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="55">
         <f t="shared" si="0"/>
         <v>29429.0659675076</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="56">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00624713250539512</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="52">
         <f t="shared" si="1"/>
         <v>183.847274609034</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="48" t="s">
+    <row r="12" s="40" customFormat="1" spans="1:7">
+      <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="58">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="54">
         <v>9</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="13">
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="48" t="s">
+    <row r="13" s="40" customFormat="1" spans="1:7">
+      <c r="A13" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="58">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="54">
         <v>10</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13">
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="48" t="s">
+    <row r="14" s="40" customFormat="1" spans="1:7">
+      <c r="A14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="58">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="54">
         <v>11</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="13">
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="48" t="s">
+    <row r="15" s="40" customFormat="1" spans="1:7">
+      <c r="A15" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="58">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="54">
         <v>12</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13">
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="48" t="s">
+    <row r="16" s="40" customFormat="1" spans="1:7">
+      <c r="A16" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="58">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="54">
         <v>13</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13">
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="48" t="s">
+    <row r="17" s="40" customFormat="1" ht="18.15" spans="1:10">
+      <c r="A17" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="58">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="60">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="61">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="62">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="8" t="s">
+      <c r="J17" s="69"/>
+    </row>
+    <row r="18" s="40" customFormat="1" spans="1:10">
+      <c r="A18" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="63">
         <v>6</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24">
+      <c r="D18" s="64"/>
+      <c r="E18" s="65">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+      <c r="F18" s="65"/>
+      <c r="G18" s="65">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="8" t="s">
+      <c r="H18" s="64"/>
+      <c r="J18" s="69"/>
+    </row>
+    <row r="19" s="40" customFormat="1" spans="1:10">
+      <c r="A19" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="63">
         <v>10</v>
       </c>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="32"/>
+      <c r="J19" s="69"/>
+    </row>
+    <row r="20" s="40" customFormat="1" spans="10:10">
+      <c r="J20" s="69"/>
+    </row>
+    <row r="21" s="40" customFormat="1" spans="10:10">
+      <c r="J21" s="69"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="32"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="32"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="32"/>
+      <c r="J24" s="69"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2334,666 +2388,416 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="5.22222222222222" customWidth="1"/>
-    <col min="6" max="6" width="11.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="7.97222222222222" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3333333333333" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.88888888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="35">
-        <v>519.93</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="37">
-        <v>26.69</v>
-      </c>
-      <c r="F3" s="38">
-        <v>6.372</v>
-      </c>
-      <c r="G3" s="18">
-        <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>4.18863779033271</v>
-      </c>
-      <c r="H3" s="39">
-        <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-1.74784188103865</v>
-      </c>
-      <c r="I3" s="39">
-        <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>4.70094248080813</v>
-      </c>
-      <c r="J3" s="42">
-        <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>4.62018888450171</v>
-      </c>
-      <c r="K3" s="43">
-        <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-51.9930000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="14">
-        <f>-B3*10/100</f>
-        <v>-51.993</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="37">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="38">
-        <v>4.69</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" si="0"/>
-        <v>639.658848614072</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="C6" s="1"/>
-      <c r="D6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="18">
-        <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>3.45454545454545</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="38">
-        <v>6.6</v>
-      </c>
-      <c r="K6" s="45">
-        <f>H6/100*SUM(G3)*J6</f>
-        <v>0.955009416195857</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="A2">
-      <formula1>"BUY,SELL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
-          <x14:colorSeries theme="1" tint="0.499984740745262"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>CALCULADORA!F3</xm:f>
-              <xm:sqref>D14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="1" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="1"/>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.7777777777778" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="2" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="2"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
-        <v>519.93</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="22">
+        <v>523.5141</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="24">
         <f>G3/F3</f>
-        <v>8.81835142469471</v>
-      </c>
-      <c r="F3" s="12">
-        <v>5.896</v>
-      </c>
-      <c r="G3" s="13">
+        <v>35869.4141829394</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.005838</v>
+      </c>
+      <c r="G3" s="26">
         <f>B8</f>
-        <v>51.993</v>
-      </c>
-      <c r="I3" s="8" t="s">
+        <v>209.40564</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="35">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-13.548279491961</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="8" t="s">
+        <v>-3.77016415584495</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="9">
         <f>-B3*$B$10/100</f>
-        <v>-51.993</v>
-      </c>
-      <c r="D4" s="15">
+        <v>-52.35141</v>
+      </c>
+      <c r="D4" s="27">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="24">
         <f>E3*(1+$B$6/100)</f>
-        <v>11.4638568521031</v>
-      </c>
-      <c r="F4" s="16">
+        <v>46630.2384378212</v>
+      </c>
+      <c r="F4" s="28">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>5.996232</v>
-      </c>
-      <c r="G4" s="13">
+        <v>0.005937246</v>
+      </c>
+      <c r="G4" s="26">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>68.7399453</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>276.855196644</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="35">
         <f>E18</f>
-        <v>54.5591402645862</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+        <v>221924.065549846</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>1.7</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="27">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="24">
         <f>E4*(1+$B$6/100)</f>
-        <v>14.9030139077341</v>
-      </c>
-      <c r="F5" s="16">
+        <v>60619.3099691675</v>
+      </c>
+      <c r="F5" s="28">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>6.098167944</v>
-      </c>
-      <c r="G5" s="13">
+        <v>0.006038179182</v>
+      </c>
+      <c r="G5" s="26">
         <f t="shared" si="0"/>
-        <v>90.88108168113</v>
-      </c>
-      <c r="I5" s="8" t="s">
+        <v>366.030255483032</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="35">
         <f>J4*J10</f>
-        <v>383.760905071752</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="8" t="s">
+        <v>1388.57110290115</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>30</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="27">
         <v>3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="24">
         <f>E5*(1+$B$6/100)</f>
-        <v>19.3739180800543</v>
-      </c>
-      <c r="F6" s="16">
+        <v>78805.1029599178</v>
+      </c>
+      <c r="F6" s="28">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>6.201836799048</v>
-      </c>
-      <c r="G6" s="13">
+        <v>0.006140828228094</v>
+      </c>
+      <c r="G6" s="26">
         <f t="shared" si="0"/>
-        <v>120.153878090622</v>
-      </c>
-      <c r="I6" s="8" t="s">
+        <v>483.928600774117</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="35">
         <f>J3/100*J4*J10</f>
-        <v>-51.993</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="8" t="s">
+        <v>-52.35141</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="27">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13">
+      <c r="E7" s="24"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="9">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>19.2987070124616</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="8" t="s">
+        <v>7.17651532020362</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <f>B3*$B$9/100</f>
-        <v>51.993</v>
-      </c>
-      <c r="D8" s="15">
+        <v>209.40564</v>
+      </c>
+      <c r="D8" s="27">
         <v>5</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13">
+      <c r="E8" s="24"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:10">
+      <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="B9" s="29">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="27">
         <v>6</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13">
+      <c r="E9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="2" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="9">
         <v>10</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="27">
         <v>7</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13">
+      <c r="E10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="36">
         <f>G18/E18</f>
-        <v>6.0808858692207</v>
-      </c>
-      <c r="J10" s="27">
+        <v>0.00602106711406215</v>
+      </c>
+      <c r="J10" s="37">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>7.03385176545474</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="4:7">
-      <c r="D11" s="15">
+        <v>0.00625696496439349</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="4:7">
+      <c r="D11" s="27">
         <v>8</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="13">
+      <c r="E11" s="24"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:7">
-      <c r="D12" s="15">
+    <row r="12" s="2" customFormat="1" spans="4:7">
+      <c r="D12" s="27">
         <v>9</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="13">
+      <c r="E12" s="24"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="4:10">
-      <c r="D13" s="15">
+    <row r="13" s="2" customFormat="1" spans="4:10">
+      <c r="D13" s="27">
         <v>10</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13">
+      <c r="E13" s="24"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="4:9">
-      <c r="D14" s="15">
+      <c r="I13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="4:9">
+      <c r="D14" s="27">
         <v>11</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="13">
+      <c r="E14" s="24"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="4:9">
-      <c r="D15" s="15">
+      <c r="I14" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="4:9">
+      <c r="D15" s="27">
         <v>12</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13">
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="9">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>7.03385176545474</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:9">
-      <c r="D16" s="15">
+        <v>0.00625696496439349</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="4:9">
+      <c r="D16" s="27">
         <v>13</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13">
+      <c r="E16" s="24"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="19" t="s">
+      <c r="I16" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21">
+      <c r="E17" s="31"/>
+      <c r="F17" s="32">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>6.23698054090927</v>
-      </c>
-      <c r="G17" s="22">
+        <v>0.00617562625471986</v>
+      </c>
+      <c r="G17" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="9">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>15.671497816751</v>
-      </c>
-      <c r="J17" s="31" t="str">
+        <v>3.91787445418774</v>
+      </c>
+      <c r="J17" s="36" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="4:10">
-      <c r="D18" s="23"/>
-      <c r="E18" s="24">
+    <row r="18" s="2" customFormat="1" spans="4:8">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34">
         <f>SUM(E3:E17)</f>
-        <v>54.5591402645862</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24">
+        <v>221924.065549846</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34">
         <f>SUM(G3:G17)</f>
-        <v>331.767905071752</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="10:10">
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="10:10">
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="10:10">
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="10:16384">
-      <c r="J22" s="32"/>
-      <c r="XEV22"/>
-      <c r="XEW22"/>
-      <c r="XEX22"/>
-      <c r="XEY22"/>
-      <c r="XEZ22"/>
-      <c r="XFA22"/>
-      <c r="XFB22"/>
-      <c r="XFC22"/>
-      <c r="XFD22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="10:16384">
-      <c r="J23" s="32"/>
-      <c r="XEV23"/>
-      <c r="XEW23"/>
-      <c r="XEX23"/>
-      <c r="XEY23"/>
-      <c r="XEZ23"/>
-      <c r="XFA23"/>
-      <c r="XFB23"/>
-      <c r="XFC23"/>
-      <c r="XFD23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="10:16384">
-      <c r="J24" s="32"/>
-      <c r="XEV24"/>
-      <c r="XEW24"/>
-      <c r="XEX24"/>
-      <c r="XEY24"/>
-      <c r="XEZ24"/>
-      <c r="XFA24"/>
-      <c r="XFB24"/>
-      <c r="XFC24"/>
-      <c r="XFD24"/>
+        <v>1336.21969290115</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" s="2" customFormat="1"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="21" s="2" customFormat="1"/>
+    <row r="22" s="2" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="1"/>
+      <c r="XEW22" s="1"/>
+      <c r="XEX22" s="1"/>
+      <c r="XEY22" s="1"/>
+      <c r="XEZ22" s="1"/>
+      <c r="XFA22" s="1"/>
+      <c r="XFB22" s="1"/>
+      <c r="XFC22" s="1"/>
+      <c r="XFD22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="1"/>
+      <c r="XEW23" s="1"/>
+      <c r="XEX23" s="1"/>
+      <c r="XEY23" s="1"/>
+      <c r="XEZ23" s="1"/>
+      <c r="XFA23" s="1"/>
+      <c r="XFB23" s="1"/>
+      <c r="XFC23" s="1"/>
+      <c r="XFD23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="1"/>
+      <c r="XEW24" s="1"/>
+      <c r="XEX24" s="1"/>
+      <c r="XEY24" s="1"/>
+      <c r="XEZ24" s="1"/>
+      <c r="XFA24" s="1"/>
+      <c r="XFB24" s="1"/>
+      <c r="XFC24" s="1"/>
+      <c r="XFD24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3063,4 +2867,245 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.4444444444444" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1111111111111" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>519.93</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8">
+        <v>209</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.005838</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G6" si="0">E3/F3</f>
+        <v>35799.9314833847</v>
+      </c>
+      <c r="H3" s="10">
+        <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
+        <v>-1.59439164696152</v>
+      </c>
+      <c r="I3" s="10">
+        <f>SUM(E3:E4)/SUM(G3:G4)</f>
+        <v>0.0880635586394634</v>
+      </c>
+      <c r="J3" s="10">
+        <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
+        <v>0.0894903858767154</v>
+      </c>
+      <c r="K3" s="13">
+        <f>H3/100*SUM(G3:G4)*J3</f>
+        <v>-51.993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <f>-B3*10/100</f>
+        <v>-51.993</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.69</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>639.658848614072</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9">
+        <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
+        <v>1.35416666666666</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="8">
+        <v>0.00576</v>
+      </c>
+      <c r="K6" s="15">
+        <f>H6/100*SUM(G3)*J6</f>
+        <v>2.79239465570399</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="LONG/SHORT" sqref="A2">
+      <formula1>"BUY,SELL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="1" tint="0.499984740745262"/>
+          <x14:colorNegative theme="1" tint="0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
+          <x14:colorFirst theme="1" tint="0.249977111117893"/>
+          <x14:colorLast theme="1" tint="0.249977111117893"/>
+          <x14:colorHigh theme="1" tint="0.249977111117893"/>
+          <x14:colorLow theme="1" tint="0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>CALCULADORA!F3</xm:f>
+              <xm:sqref>D14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -133,10 +133,19 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>534.95</t>
+  </si>
+  <si>
+    <t>0.06475</t>
+  </si>
+  <si>
     <t>Soporta una varación en contra %</t>
   </si>
   <si>
-    <t>VA 6. Probando 10 automatico y 40 manual</t>
+    <t>VA 6. Probando 10 automatico y X manual</t>
   </si>
   <si>
     <t>peor de los casos</t>
@@ -179,12 +188,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1125,117 +1135,127 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1266,31 +1286,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,13 +1322,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,19 +1337,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1767,78 +1787,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="70" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="70" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="71" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="74" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="74" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="74">
+      <c r="A2" s="78">
         <v>449.74</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="79">
         <v>1</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="78">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="76" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="75">
+      <c r="A5" s="79">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>606.181571181821</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="79">
         <f>A5-A2</f>
         <v>156.441571181821</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="80" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="76">
+      <c r="A9" s="80">
         <v>3</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="80">
         <f>A9*100/A2</f>
         <v>0.667052074531952</v>
       </c>
@@ -1864,459 +1884,459 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="58.7777777777778" style="40" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="40" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="40"/>
-    <col min="4" max="4" width="8.44444444444444" style="40" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="40" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="40" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="40" customWidth="1"/>
-    <col min="8" max="8" width="9" style="40" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" style="40" customWidth="1"/>
-    <col min="10" max="10" width="20" style="40" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="40" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="40"/>
+    <col min="1" max="1" width="58.7777777777778" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="44"/>
+    <col min="4" max="4" width="8.44444444444444" style="44" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="44" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9" style="44" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" style="44" customWidth="1"/>
+    <col min="10" max="10" width="20" style="44" customWidth="1"/>
+    <col min="11" max="16374" width="8.44444444444444" style="44" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="44" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="40" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="43" t="s">
+    <row r="2" s="44" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="40" customFormat="1" spans="1:10">
-      <c r="A3" s="47" t="s">
+    <row r="3" s="44" customFormat="1" spans="1:10">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="52">
         <v>328.24</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="54">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="55">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="56">
         <f>B8</f>
         <v>19.6944</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="70">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
     </row>
-    <row r="4" s="40" customFormat="1" spans="1:10">
-      <c r="A4" s="47" t="s">
+    <row r="4" s="44" customFormat="1" spans="1:10">
+      <c r="A4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="57">
         <f>-B3*$B$19/100</f>
         <v>-32.824</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="58">
         <v>1</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="59">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>4690.00183183733</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="60">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005551803</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="56">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>26.03796624</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="70">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
     </row>
-    <row r="5" s="40" customFormat="1" spans="1:10">
-      <c r="A5" s="47" t="s">
+    <row r="5" s="44" customFormat="1" spans="1:10">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="57">
         <v>1.7</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="58">
         <v>2</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="59">
         <f t="shared" si="0"/>
         <v>6097.00238138853</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="60">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005646183651</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="56">
         <f t="shared" si="1"/>
         <v>34.424795165904</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="70">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
     </row>
-    <row r="6" s="40" customFormat="1" spans="1:10">
-      <c r="A6" s="47" t="s">
+    <row r="6" s="44" customFormat="1" spans="1:10">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="57">
         <v>30</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="58">
         <v>3</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="59">
         <f t="shared" si="0"/>
         <v>7926.10309580509</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="60">
         <f t="shared" si="2"/>
         <v>0.005742168773067</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="56">
         <f t="shared" si="1"/>
         <v>45.5130216888417</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="70">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
     </row>
-    <row r="7" s="40" customFormat="1" spans="1:10">
-      <c r="A7" s="47" t="s">
+    <row r="7" s="44" customFormat="1" spans="1:10">
+      <c r="A7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="57">
         <v>10</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="58">
         <v>4</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="59">
         <f t="shared" si="0"/>
         <v>10303.9340245466</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="60">
         <f t="shared" si="2"/>
         <v>0.00583978564220914</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="56">
         <f t="shared" si="1"/>
         <v>60.1727659748174</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="67">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
     </row>
-    <row r="8" s="40" customFormat="1" spans="1:7">
-      <c r="A8" s="47" t="s">
+    <row r="8" s="44" customFormat="1" spans="1:7">
+      <c r="A8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="57">
         <f>B3*$B$18/100</f>
         <v>19.6944</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="58">
         <v>5</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="59">
         <f t="shared" si="0"/>
         <v>13395.1142319106</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="60">
         <f t="shared" si="2"/>
         <v>0.00593906199812669</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="56">
         <f t="shared" si="1"/>
         <v>79.5544138953063</v>
       </c>
     </row>
-    <row r="9" s="40" customFormat="1" spans="1:10">
-      <c r="A9" s="57" t="s">
+    <row r="9" s="44" customFormat="1" spans="1:10">
+      <c r="A9" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="62">
         <v>8</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="58">
         <v>6</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="59">
         <f t="shared" si="0"/>
         <v>17413.6485014838</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="60">
         <f t="shared" si="2"/>
         <v>0.00604002605209485</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="56">
         <f t="shared" si="1"/>
         <v>105.178890610985</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="40" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="57" t="s">
+    <row r="10" s="44" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="62">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="58">
         <v>7</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="59">
         <f t="shared" si="0"/>
         <v>22637.7430519289</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="60">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00614270649498046</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="56">
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="71">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="72">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
-    <row r="11" s="40" customFormat="1" spans="1:7">
-      <c r="A11" s="57" t="s">
+    <row r="11" s="44" customFormat="1" spans="1:7">
+      <c r="A11" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="62">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="58">
         <v>8</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="59">
         <f t="shared" si="0"/>
         <v>29429.0659675076</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="60">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00624713250539512</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="56">
         <f t="shared" si="1"/>
         <v>183.847274609034</v>
       </c>
     </row>
-    <row r="12" s="40" customFormat="1" spans="1:7">
-      <c r="A12" s="57" t="s">
+    <row r="12" s="44" customFormat="1" spans="1:7">
+      <c r="A12" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="62">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="58">
         <v>9</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="52">
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="40" customFormat="1" spans="1:7">
-      <c r="A13" s="57" t="s">
+    <row r="13" s="44" customFormat="1" spans="1:7">
+      <c r="A13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="62">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="58">
         <v>10</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="52">
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" spans="1:7">
-      <c r="A14" s="57" t="s">
+    <row r="14" s="44" customFormat="1" spans="1:7">
+      <c r="A14" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="62">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="58">
         <v>11</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="52">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:7">
-      <c r="A15" s="57" t="s">
+    <row r="15" s="44" customFormat="1" spans="1:7">
+      <c r="A15" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="62">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="58">
         <v>12</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="52">
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:7">
-      <c r="A16" s="57" t="s">
+    <row r="16" s="44" customFormat="1" spans="1:7">
+      <c r="A16" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="62">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="58">
         <v>13</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="52">
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="40" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="57" t="s">
+    <row r="17" s="44" customFormat="1" ht="18.15" spans="1:10">
+      <c r="A17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="62">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="64">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="65">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="66">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="69"/>
-    </row>
-    <row r="18" s="40" customFormat="1" spans="1:10">
-      <c r="A18" s="47" t="s">
+      <c r="J17" s="73"/>
+    </row>
+    <row r="18" s="44" customFormat="1" spans="1:10">
+      <c r="A18" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="67">
         <v>6</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65">
+      <c r="D18" s="68"/>
+      <c r="E18" s="69">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65">
+      <c r="F18" s="69"/>
+      <c r="G18" s="69">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="J18" s="69"/>
-    </row>
-    <row r="19" s="40" customFormat="1" spans="1:10">
-      <c r="A19" s="47" t="s">
+      <c r="H18" s="68"/>
+      <c r="J18" s="73"/>
+    </row>
+    <row r="19" s="44" customFormat="1" spans="1:10">
+      <c r="A19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="67">
         <v>10</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" s="40" customFormat="1" spans="10:10">
-      <c r="J20" s="69"/>
-    </row>
-    <row r="21" s="40" customFormat="1" spans="10:10">
-      <c r="J21" s="69"/>
+      <c r="J19" s="73"/>
+    </row>
+    <row r="20" s="44" customFormat="1" spans="10:10">
+      <c r="J20" s="73"/>
+    </row>
+    <row r="21" s="44" customFormat="1" spans="10:10">
+      <c r="J21" s="73"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="69"/>
+      <c r="J22" s="73"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="69"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="69"/>
+      <c r="J24" s="73"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2390,414 +2410,414 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="2" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="2" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="2"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="1"/>
+    <col min="1" max="1" width="22" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="15" customWidth="1"/>
+    <col min="3" max="3" width="39.7777777777778" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="15" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="15" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="15" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="15" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="15" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="15"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="15" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="18" t="s">
+      <c r="B1" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" s="15" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="15" customFormat="1" spans="1:10">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22">
-        <v>523.5141</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>35869.4141829394</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0.005838</v>
-      </c>
-      <c r="G3" s="26">
+        <v>826.177606177606</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="28">
         <f>B8</f>
-        <v>209.40564</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>53.495</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="38">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-3.77016415584495</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+        <v>-20.0089023002285</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-52.35141</v>
-      </c>
-      <c r="D4" s="27">
+        <v>-53.495</v>
+      </c>
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="26">
         <f>E3*(1+$B$6/100)</f>
-        <v>46630.2384378212</v>
-      </c>
-      <c r="F4" s="28">
+        <v>1074.03088803089</v>
+      </c>
+      <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.005937246</v>
-      </c>
-      <c r="G4" s="26">
+        <v>0.06364925</v>
+      </c>
+      <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>276.855196644</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>68.3612605</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="38">
         <f>E18</f>
-        <v>221924.065549846</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+        <v>5111.56084942085</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:10">
+      <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="29">
         <v>1.7</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="30">
         <v>2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="26">
         <f>E4*(1+$B$6/100)</f>
-        <v>60619.3099691675</v>
-      </c>
-      <c r="F5" s="28">
+        <v>1396.24015444015</v>
+      </c>
+      <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.006038179182</v>
-      </c>
-      <c r="G5" s="26">
+        <v>0.06256721275</v>
+      </c>
+      <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>366.030255483032</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>87.35885479295</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="38">
         <f>J4*J10</f>
-        <v>1388.57110290115</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+        <v>267.355995832861</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:10">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="29">
         <v>30</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="30">
         <v>3</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="26">
         <f>E5*(1+$B$6/100)</f>
-        <v>78805.1029599178</v>
-      </c>
-      <c r="F6" s="28">
+        <v>1815.1122007722</v>
+      </c>
+      <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.006140828228094</v>
-      </c>
-      <c r="G6" s="26">
+        <v>0.06150357013325</v>
+      </c>
+      <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>483.928600774117</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>111.635880539911</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="38">
         <f>J3/100*J4*J10</f>
-        <v>-52.35141</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:10">
-      <c r="A7" s="5" t="s">
+        <v>-53.495</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:10">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="29">
         <v>10</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="30">
         <v>4</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26">
+      <c r="E7" s="26"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="29">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>7.17651532020362</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:7">
-      <c r="A8" s="5" t="s">
+        <v>19.2213445104413</v>
+      </c>
+    </row>
+    <row r="8" s="15" customFormat="1" spans="1:7">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>209.40564</v>
-      </c>
-      <c r="D8" s="27">
+        <v>53.495</v>
+      </c>
+      <c r="D8" s="30">
         <v>5</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="26">
+      <c r="E8" s="26"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:10">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="15" customFormat="1" spans="1:10">
+      <c r="A9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="29">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="B9" s="32">
+        <v>10</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="30">
         <v>6</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="26">
+      <c r="E9" s="26"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="15" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="29">
         <v>10</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="30">
         <v>7</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="26">
+      <c r="E10" s="26"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="39">
         <f>G18/E18</f>
-        <v>0.00602106711406215</v>
-      </c>
-      <c r="J10" s="37">
+        <v>0.062769671590472</v>
+      </c>
+      <c r="J10" s="40">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.00625696496439349</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="4:7">
-      <c r="D11" s="27">
+        <v>0.0523041794294893</v>
+      </c>
+    </row>
+    <row r="11" s="15" customFormat="1" spans="4:7">
+      <c r="D11" s="30">
         <v>8</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="26">
+      <c r="E11" s="26"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="4:7">
-      <c r="D12" s="27">
+    <row r="12" s="15" customFormat="1" spans="4:7">
+      <c r="D12" s="30">
         <v>9</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="26">
+      <c r="E12" s="26"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="4:10">
-      <c r="D13" s="27">
+    <row r="13" s="15" customFormat="1" spans="4:10">
+      <c r="D13" s="30">
         <v>10</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="26">
+      <c r="E13" s="26"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="4:9">
-      <c r="D14" s="27">
+      <c r="I13" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="4:9">
+      <c r="D14" s="30">
         <v>11</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="26">
+      <c r="E14" s="26"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="4:9">
-      <c r="D15" s="27">
+      <c r="I14" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="1" spans="4:9">
+      <c r="D15" s="30">
         <v>12</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="26">
+      <c r="E15" s="26"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="29">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.00625696496439349</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="4:9">
-      <c r="D16" s="27">
+        <v>0.0523041794294893</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="1" spans="4:9">
+      <c r="D16" s="30">
         <v>13</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="26">
+      <c r="E16" s="26"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="30" t="s">
+      <c r="I16" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32">
+      <c r="E17" s="34"/>
+      <c r="F17" s="35">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.00617562625471986</v>
-      </c>
-      <c r="G17" s="33">
+        <v>0.0611550499024949</v>
+      </c>
+      <c r="G17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="29">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>3.91787445418774</v>
-      </c>
-      <c r="J17" s="36" t="str">
+        <v>16.6728483610089</v>
+      </c>
+      <c r="J17" s="39" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE BAJAR</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="4:8">
-      <c r="D18" s="34"/>
-      <c r="E18" s="34">
+        <v>TIENE QUE SUBIR</v>
+      </c>
+    </row>
+    <row r="18" s="15" customFormat="1" spans="4:8">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37">
         <f>SUM(E3:E17)</f>
-        <v>221924.065549846</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34">
+        <v>5111.56084942085</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37">
         <f>SUM(G3:G17)</f>
-        <v>1336.21969290115</v>
-      </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" s="2" customFormat="1"/>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1"/>
-    <row r="22" s="2" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="1"/>
-      <c r="XEW22" s="1"/>
-      <c r="XEX22" s="1"/>
-      <c r="XEY22" s="1"/>
-      <c r="XEZ22" s="1"/>
-      <c r="XFA22" s="1"/>
-      <c r="XFB22" s="1"/>
-      <c r="XFC22" s="1"/>
-      <c r="XFD22" s="1"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="1"/>
-      <c r="XEW23" s="1"/>
-      <c r="XEX23" s="1"/>
-      <c r="XEY23" s="1"/>
-      <c r="XEZ23" s="1"/>
-      <c r="XFA23" s="1"/>
-      <c r="XFB23" s="1"/>
-      <c r="XFC23" s="1"/>
-      <c r="XFD23" s="1"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="1"/>
-      <c r="XEW24" s="1"/>
-      <c r="XEX24" s="1"/>
-      <c r="XEY24" s="1"/>
-      <c r="XEZ24" s="1"/>
-      <c r="XFA24" s="1"/>
-      <c r="XFB24" s="1"/>
-      <c r="XFC24" s="1"/>
-      <c r="XFD24" s="1"/>
+        <v>320.850995832861</v>
+      </c>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" s="15" customFormat="1"/>
+    <row r="20" s="15" customFormat="1"/>
+    <row r="21" s="15" customFormat="1"/>
+    <row r="22" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="16"/>
+      <c r="XEW22" s="16"/>
+      <c r="XEX22" s="16"/>
+      <c r="XEY22" s="16"/>
+      <c r="XEZ22" s="16"/>
+      <c r="XFA22" s="16"/>
+      <c r="XFB22" s="16"/>
+      <c r="XFC22" s="16"/>
+      <c r="XFD22" s="16"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="16"/>
+      <c r="XEW23" s="16"/>
+      <c r="XEX23" s="16"/>
+      <c r="XEY23" s="16"/>
+      <c r="XEZ23" s="16"/>
+      <c r="XFA23" s="16"/>
+      <c r="XFB23" s="16"/>
+      <c r="XFC23" s="16"/>
+      <c r="XFD23" s="16"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="16"/>
+      <c r="XEW24" s="16"/>
+      <c r="XEX24" s="16"/>
+      <c r="XEY24" s="16"/>
+      <c r="XEZ24" s="16"/>
+      <c r="XFA24" s="16"/>
+      <c r="XFB24" s="16"/>
+      <c r="XFC24" s="16"/>
+      <c r="XFD24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2874,21 +2894,23 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88888888888889" style="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4444444444444" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.4444444444444" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.2222222222222" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
@@ -2906,31 +2928,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2938,65 +2960,65 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>519.93</v>
+        <v>538.63</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="8">
-        <v>209</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.005838</v>
-      </c>
-      <c r="G3" s="9">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1678</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.006075</v>
+      </c>
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>35799.9314833847</v>
-      </c>
-      <c r="H3" s="10">
+        <v>276213.991769547</v>
+      </c>
+      <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-1.59439164696152</v>
-      </c>
-      <c r="I3" s="10">
+        <v>-3.31640742129513</v>
+      </c>
+      <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.0880635586394634</v>
-      </c>
-      <c r="J3" s="10">
+        <v>0.006075</v>
+      </c>
+      <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.0894903858767154</v>
-      </c>
-      <c r="K3" s="13">
+        <v>0.00587999539630512</v>
+      </c>
+      <c r="K3" s="12">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-51.993</v>
+        <v>-53.8630000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-51.993</v>
+        <v>-53.863</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>4.69</v>
-      </c>
-      <c r="G4" s="9">
+        <v>0.006031</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>639.658848614072</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="2"/>
@@ -3013,20 +3035,20 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>1.35416666666666</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="8">
-        <v>0.00576</v>
-      </c>
-      <c r="K6" s="15">
-        <f>H6/100*SUM(G3)*J6</f>
-        <v>2.79239465570399</v>
+        <v>0.654129190515129</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="6">
+        <v>0.006115</v>
+      </c>
+      <c r="K6" s="14">
+        <f>H6/100*SUM(G3:G4)*J6</f>
+        <v>11.0485596707819</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -136,7 +136,7 @@
     <t>BUY</t>
   </si>
   <si>
-    <t>534.95</t>
+    <t>545.8</t>
   </si>
   <si>
     <t>0.06475</t>
@@ -1135,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1232,7 +1232,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,9 +1321,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1787,78 +1784,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="74" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="74" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="75" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="73" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="73" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="78">
+      <c r="A2" s="77">
         <v>449.74</v>
       </c>
-      <c r="B2" s="79">
+      <c r="B2" s="78">
         <v>1</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="77">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="79">
+      <c r="A5" s="78">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>606.181571181821</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <f>A5-A2</f>
         <v>156.441571181821</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="81"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="80">
+      <c r="A9" s="79">
         <v>3</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="79">
         <f>A9*100/A2</f>
         <v>0.667052074531952</v>
       </c>
@@ -1944,7 +1941,7 @@
       <c r="I3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="69">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
@@ -1975,7 +1972,7 @@
       <c r="I4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="70">
+      <c r="J4" s="69">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
@@ -2005,7 +2002,7 @@
       <c r="I5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="69">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
@@ -2035,7 +2032,7 @@
       <c r="I6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="69">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
@@ -2065,7 +2062,7 @@
       <c r="I7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="66">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
@@ -2146,11 +2143,11 @@
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="70">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="71">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
@@ -2280,63 +2277,63 @@
       <c r="D17" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="34">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="64">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="65">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="73"/>
+      <c r="J17" s="72"/>
     </row>
     <row r="18" s="44" customFormat="1" spans="1:10">
       <c r="A18" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="66">
         <v>6</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69">
+      <c r="D18" s="67"/>
+      <c r="E18" s="68">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69">
+      <c r="F18" s="68"/>
+      <c r="G18" s="68">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="68"/>
-      <c r="J18" s="73"/>
+      <c r="H18" s="67"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" s="44" customFormat="1" spans="1:10">
       <c r="A19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="66">
         <v>10</v>
       </c>
-      <c r="J19" s="73"/>
+      <c r="J19" s="72"/>
     </row>
     <row r="20" s="44" customFormat="1" spans="10:10">
-      <c r="J20" s="73"/>
+      <c r="J20" s="72"/>
     </row>
     <row r="21" s="44" customFormat="1" spans="10:10">
-      <c r="J21" s="73"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="73"/>
+      <c r="J22" s="72"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="73"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="73"/>
+      <c r="J24" s="72"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2467,14 +2464,14 @@
       </c>
       <c r="E3" s="26">
         <f>G3/F3</f>
-        <v>826.177606177606</v>
+        <v>842.934362934363</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="28">
         <f>B8</f>
-        <v>53.495</v>
+        <v>54.58</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>15</v>
@@ -2490,14 +2487,14 @@
       </c>
       <c r="B4" s="29">
         <f>-B3*$B$10/100</f>
-        <v>-53.495</v>
+        <v>-54.58</v>
       </c>
       <c r="D4" s="30">
         <v>1</v>
       </c>
       <c r="E4" s="26">
         <f>E3*(1+$B$6/100)</f>
-        <v>1074.03088803089</v>
+        <v>1095.81467181467</v>
       </c>
       <c r="F4" s="31">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2505,14 +2502,14 @@
       </c>
       <c r="G4" s="28">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>68.3612605</v>
+        <v>69.747782</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="38">
         <f>E18</f>
-        <v>5111.56084942085</v>
+        <v>5215.2349034749</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" spans="1:10">
@@ -2527,7 +2524,7 @@
       </c>
       <c r="E5" s="26">
         <f>E4*(1+$B$6/100)</f>
-        <v>1396.24015444015</v>
+        <v>1424.55907335907</v>
       </c>
       <c r="F5" s="31">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2535,14 +2532,14 @@
       </c>
       <c r="G5" s="28">
         <f t="shared" si="0"/>
-        <v>87.35885479295</v>
+        <v>89.1306906178</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="38">
         <f>J4*J10</f>
-        <v>267.355995832861</v>
+        <v>272.778582158287</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" spans="1:10">
@@ -2557,7 +2554,7 @@
       </c>
       <c r="E6" s="26">
         <f>E5*(1+$B$6/100)</f>
-        <v>1815.1122007722</v>
+        <v>1851.9267953668</v>
       </c>
       <c r="F6" s="31">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2565,14 +2562,14 @@
       </c>
       <c r="G6" s="28">
         <f t="shared" si="0"/>
-        <v>111.635880539911</v>
+        <v>113.900109540487</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="38">
         <f>J3/100*J4*J10</f>
-        <v>-53.495</v>
+        <v>-54.58</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:10">
@@ -2605,7 +2602,7 @@
       </c>
       <c r="B8" s="29">
         <f>B3*$B$9/100</f>
-        <v>53.495</v>
+        <v>54.58</v>
       </c>
       <c r="D8" s="30">
         <v>5</v>
@@ -2774,12 +2771,12 @@
       <c r="D18" s="37"/>
       <c r="E18" s="37">
         <f>SUM(E3:E17)</f>
-        <v>5111.56084942085</v>
+        <v>5215.2349034749</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37">
         <f>SUM(G3:G17)</f>
-        <v>320.850995832861</v>
+        <v>327.358582158287</v>
       </c>
       <c r="H18" s="37"/>
     </row>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -133,19 +133,16 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>545.8</t>
-  </si>
-  <si>
-    <t>0.06475</t>
+    <t>650.09</t>
+  </si>
+  <si>
+    <t>1.4860</t>
   </si>
   <si>
     <t>Soporta una varación en contra %</t>
   </si>
   <si>
-    <t>VA 6. Probando 10 automatico y X manual</t>
+    <t>VA 6. Probando 9 automatico y X manual</t>
   </si>
   <si>
     <t>peor de los casos</t>
@@ -189,11 +186,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
@@ -252,22 +249,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,11 +294,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,11 +310,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +336,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,9 +371,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,16 +386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,67 +438,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,109 +582,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,16 +888,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,15 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -940,6 +937,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,34 +984,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,134 +1005,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1165,9 +1162,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,20 +1353,26 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1776,88 +1776,88 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="73" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="73" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="74" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="72" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="72" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="73" customWidth="1"/>
+    <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="75" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="77">
-        <v>449.74</v>
-      </c>
-      <c r="B2" s="78">
+      <c r="D1" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A2" s="76">
+        <v>650</v>
+      </c>
+      <c r="B2" s="77">
+        <v>0.82</v>
+      </c>
+      <c r="C2" s="76">
+        <v>30</v>
+      </c>
+      <c r="D2" s="78">
+        <f>POWER(1+(B2/100),C2)*A2</f>
+        <v>830.451262564387</v>
+      </c>
+      <c r="E2" s="78">
+        <f>D2-A2</f>
+        <v>180.451262564387</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1"/>
+    <row r="5" ht="19.5" customHeight="1"/>
+    <row r="6" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="80"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A4" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A5" s="78">
-        <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>606.181571181821</v>
-      </c>
-      <c r="B5" s="78">
-        <f>A5-A2</f>
-        <v>156.441571181821</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="81"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="79">
-        <v>3</v>
-      </c>
-      <c r="B9" s="79">
+      <c r="A9" s="82">
+        <v>4.5</v>
+      </c>
+      <c r="B9" s="81">
         <f>A9*100/A2</f>
-        <v>0.667052074531952</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
   </sheetData>
@@ -1881,459 +1881,459 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="58.7777777777778" style="44" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="44" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="44"/>
-    <col min="4" max="4" width="8.44444444444444" style="44" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="44" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="44" customWidth="1"/>
-    <col min="8" max="8" width="9" style="44" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" style="44" customWidth="1"/>
-    <col min="10" max="10" width="20" style="44" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="44" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="44"/>
+    <col min="1" max="1" width="58.7777777777778" style="43" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="43" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="43"/>
+    <col min="4" max="4" width="8.44444444444444" style="43" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="43" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="43" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="43" customWidth="1"/>
+    <col min="8" max="8" width="9" style="43" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" style="43" customWidth="1"/>
+    <col min="10" max="10" width="20" style="43" customWidth="1"/>
+    <col min="11" max="16374" width="8.44444444444444" style="43" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" s="44" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="45" t="s">
+    <row r="1" s="43" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="44" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="47" t="s">
+    <row r="2" s="43" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="44" customFormat="1" spans="1:10">
-      <c r="A3" s="51" t="s">
+    <row r="3" s="43" customFormat="1" spans="1:10">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>328.24</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="55">
         <f>B8</f>
         <v>19.6944</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="68">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
     </row>
-    <row r="4" s="44" customFormat="1" spans="1:10">
-      <c r="A4" s="51" t="s">
+    <row r="4" s="43" customFormat="1" spans="1:10">
+      <c r="A4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="56">
         <f>-B3*$B$19/100</f>
         <v>-32.824</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="57">
         <v>1</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="58">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>4690.00183183733</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="59">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005551803</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="55">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>26.03796624</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="68">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
     </row>
-    <row r="5" s="44" customFormat="1" spans="1:10">
-      <c r="A5" s="51" t="s">
+    <row r="5" s="43" customFormat="1" spans="1:10">
+      <c r="A5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <v>1.7</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>2</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <f t="shared" si="0"/>
         <v>6097.00238138853</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="59">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005646183651</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="55">
         <f t="shared" si="1"/>
         <v>34.424795165904</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="68">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
     </row>
-    <row r="6" s="44" customFormat="1" spans="1:10">
-      <c r="A6" s="51" t="s">
+    <row r="6" s="43" customFormat="1" spans="1:10">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <v>30</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>3</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="58">
         <f t="shared" si="0"/>
         <v>7926.10309580509</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="59">
         <f t="shared" si="2"/>
         <v>0.005742168773067</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="55">
         <f t="shared" si="1"/>
         <v>45.5130216888417</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="68">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
     </row>
-    <row r="7" s="44" customFormat="1" spans="1:10">
-      <c r="A7" s="51" t="s">
+    <row r="7" s="43" customFormat="1" spans="1:10">
+      <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>10</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="57">
         <v>4</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="58">
         <f t="shared" si="0"/>
         <v>10303.9340245466</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="59">
         <f t="shared" si="2"/>
         <v>0.00583978564220914</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="55">
         <f t="shared" si="1"/>
         <v>60.1727659748174</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="65">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
     </row>
-    <row r="8" s="44" customFormat="1" spans="1:7">
-      <c r="A8" s="51" t="s">
+    <row r="8" s="43" customFormat="1" spans="1:7">
+      <c r="A8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <f>B3*$B$18/100</f>
         <v>19.6944</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>5</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <f t="shared" si="0"/>
         <v>13395.1142319106</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <f t="shared" si="2"/>
         <v>0.00593906199812669</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="55">
         <f t="shared" si="1"/>
         <v>79.5544138953063</v>
       </c>
     </row>
-    <row r="9" s="44" customFormat="1" spans="1:10">
-      <c r="A9" s="61" t="s">
+    <row r="9" s="43" customFormat="1" spans="1:10">
+      <c r="A9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="61">
         <v>8</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>6</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <f t="shared" si="0"/>
         <v>17413.6485014838</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="59">
         <f t="shared" si="2"/>
         <v>0.00604002605209485</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="55">
         <f t="shared" si="1"/>
         <v>105.178890610985</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="44" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="61" t="s">
+    <row r="10" s="43" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="61">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>7</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>22637.7430519289</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00614270649498046</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="55">
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="69">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="70">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
-    <row r="11" s="44" customFormat="1" spans="1:7">
-      <c r="A11" s="61" t="s">
+    <row r="11" s="43" customFormat="1" spans="1:7">
+      <c r="A11" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="61">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <v>8</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="58">
         <f t="shared" si="0"/>
         <v>29429.0659675076</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="59">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00624713250539512</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="55">
         <f t="shared" si="1"/>
         <v>183.847274609034</v>
       </c>
     </row>
-    <row r="12" s="44" customFormat="1" spans="1:7">
-      <c r="A12" s="61" t="s">
+    <row r="12" s="43" customFormat="1" spans="1:7">
+      <c r="A12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="61">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>9</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="56">
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="44" customFormat="1" spans="1:7">
-      <c r="A13" s="61" t="s">
+    <row r="13" s="43" customFormat="1" spans="1:7">
+      <c r="A13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="61">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>10</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="56">
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="44" customFormat="1" spans="1:7">
-      <c r="A14" s="61" t="s">
+    <row r="14" s="43" customFormat="1" spans="1:7">
+      <c r="A14" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="61">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>11</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="56">
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="44" customFormat="1" spans="1:7">
-      <c r="A15" s="61" t="s">
+    <row r="15" s="43" customFormat="1" spans="1:7">
+      <c r="A15" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="61">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <v>12</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="56">
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="44" customFormat="1" spans="1:7">
-      <c r="A16" s="61" t="s">
+    <row r="16" s="43" customFormat="1" spans="1:7">
+      <c r="A16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="61">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="57">
         <v>13</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="56">
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="44" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="61" t="s">
+    <row r="17" s="43" customFormat="1" ht="18.15" spans="1:10">
+      <c r="A17" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="61">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="63">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="64">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="72"/>
-    </row>
-    <row r="18" s="44" customFormat="1" spans="1:10">
-      <c r="A18" s="51" t="s">
+      <c r="J17" s="71"/>
+    </row>
+    <row r="18" s="43" customFormat="1" spans="1:10">
+      <c r="A18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="65">
         <v>6</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68">
+      <c r="D18" s="66"/>
+      <c r="E18" s="67">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68">
+      <c r="F18" s="67"/>
+      <c r="G18" s="67">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="J18" s="72"/>
-    </row>
-    <row r="19" s="44" customFormat="1" spans="1:10">
-      <c r="A19" s="51" t="s">
+      <c r="H18" s="66"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" s="43" customFormat="1" spans="1:10">
+      <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="65">
         <v>10</v>
       </c>
-      <c r="J19" s="72"/>
-    </row>
-    <row r="20" s="44" customFormat="1" spans="10:10">
-      <c r="J20" s="72"/>
-    </row>
-    <row r="21" s="44" customFormat="1" spans="10:10">
-      <c r="J21" s="72"/>
+      <c r="J19" s="71"/>
+    </row>
+    <row r="20" s="43" customFormat="1" spans="10:10">
+      <c r="J20" s="71"/>
+    </row>
+    <row r="21" s="43" customFormat="1" spans="10:10">
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="72"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="72"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="72"/>
+      <c r="J24" s="71"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2408,413 +2408,413 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="15" customWidth="1"/>
-    <col min="3" max="3" width="39.7777777777778" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.44444444444444" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="15" customWidth="1"/>
-    <col min="8" max="8" width="1.66666666666667" style="15" customWidth="1"/>
-    <col min="9" max="9" width="32.8888888888889" style="15" customWidth="1"/>
-    <col min="10" max="10" width="31.2222222222222" style="15" customWidth="1"/>
-    <col min="11" max="11" width="8.44444444444444" style="15" customWidth="1"/>
-    <col min="12" max="12" width="31.2222222222222" style="15" customWidth="1"/>
-    <col min="13" max="16374" width="8.44444444444444" style="15" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="15"/>
-    <col min="16376" max="16384" width="8.44444444444444" style="16"/>
+    <col min="1" max="1" width="22" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="14" customWidth="1"/>
+    <col min="3" max="3" width="39.7777777777778" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.44444444444444" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.5555555555556" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="14" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="14" customWidth="1"/>
+    <col min="8" max="8" width="1.66666666666667" style="14" customWidth="1"/>
+    <col min="9" max="9" width="32.8888888888889" style="14" customWidth="1"/>
+    <col min="10" max="10" width="31.2222222222222" style="14" customWidth="1"/>
+    <col min="11" max="11" width="8.44444444444444" style="14" customWidth="1"/>
+    <col min="12" max="12" width="31.2222222222222" style="14" customWidth="1"/>
+    <col min="13" max="16374" width="8.44444444444444" style="14" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="14"/>
+    <col min="16376" max="16384" width="8.44444444444444" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="14" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="14" customFormat="1" spans="1:10">
+      <c r="A3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" s="15" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="D3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="25">
+        <f>G3/F3</f>
+        <v>39.3728802153432</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="27">
+        <f>B8</f>
+        <v>58.5081</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="37">
+        <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
+        <v>-14.8303924336603</v>
+      </c>
+    </row>
+    <row r="4" s="14" customFormat="1" spans="1:10">
+      <c r="A4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="28">
+        <f>-B3*$B$10/100</f>
+        <v>-65.009</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <f>E3*(1+$B$6/100)</f>
+        <v>51.1847442799462</v>
+      </c>
+      <c r="F4" s="30">
+        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
+        <v>1.511262</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
+        <v>77.35355901</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="37">
+        <f>E18</f>
+        <v>243.600009892328</v>
+      </c>
+    </row>
+    <row r="5" s="14" customFormat="1" spans="1:10">
+      <c r="A5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="29">
+        <v>2</v>
+      </c>
+      <c r="E5" s="25">
+        <f>E4*(1+$B$6/100)</f>
+        <v>66.54016756393</v>
+      </c>
+      <c r="F5" s="30">
+        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
+        <v>1.536953454</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="0"/>
+        <v>102.269140367121</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="37">
+        <f>J4*J10</f>
+        <v>438.349829856492</v>
+      </c>
+    </row>
+    <row r="6" s="14" customFormat="1" spans="1:10">
+      <c r="A6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="28">
+        <v>30</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="25">
+        <f>E5*(1+$B$6/100)</f>
+        <v>86.502217833109</v>
+      </c>
+      <c r="F6" s="30">
+        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
+        <v>1.563081662718</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="0"/>
+        <v>135.210030479371</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="37">
+        <f>J3/100*J4*J10</f>
+        <v>-65.009</v>
+      </c>
+    </row>
+    <row r="7" s="14" customFormat="1" spans="1:10">
+      <c r="A7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="28">
         <v>10</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="15" customFormat="1" spans="1:10">
-      <c r="A3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="26">
-        <f>G3/F3</f>
-        <v>842.934362934363</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="28">
-        <f>B8</f>
-        <v>54.58</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="38">
-        <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-20.0089023002285</v>
-      </c>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:10">
-      <c r="A4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="29">
-        <f>-B3*$B$10/100</f>
-        <v>-54.58</v>
-      </c>
-      <c r="D4" s="30">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26">
-        <f>E3*(1+$B$6/100)</f>
-        <v>1095.81467181467</v>
-      </c>
-      <c r="F4" s="31">
-        <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
-        <v>0.06364925</v>
-      </c>
-      <c r="G4" s="28">
-        <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>69.747782</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="38">
-        <f>E18</f>
-        <v>5215.2349034749</v>
-      </c>
-    </row>
-    <row r="5" s="15" customFormat="1" spans="1:10">
-      <c r="A5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1.7</v>
-      </c>
-      <c r="D5" s="30">
-        <v>2</v>
-      </c>
-      <c r="E5" s="26">
-        <f>E4*(1+$B$6/100)</f>
-        <v>1424.55907335907</v>
-      </c>
-      <c r="F5" s="31">
-        <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
-        <v>0.06256721275</v>
-      </c>
-      <c r="G5" s="28">
-        <f t="shared" si="0"/>
-        <v>89.1306906178</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="38">
-        <f>J4*J10</f>
-        <v>272.778582158287</v>
-      </c>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:10">
-      <c r="A6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="29">
-        <v>30</v>
-      </c>
-      <c r="D6" s="30">
-        <v>3</v>
-      </c>
-      <c r="E6" s="26">
-        <f>E5*(1+$B$6/100)</f>
-        <v>1851.9267953668</v>
-      </c>
-      <c r="F6" s="31">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>0.06150357013325</v>
-      </c>
-      <c r="G6" s="28">
-        <f t="shared" si="0"/>
-        <v>113.900109540487</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="38">
-        <f>J3/100*J4*J10</f>
-        <v>-54.58</v>
-      </c>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:10">
-      <c r="A7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="29">
-        <v>10</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>4</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="28">
+      <c r="E7" s="25"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="29">
+      <c r="I7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="28">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>19.2213445104413</v>
-      </c>
-    </row>
-    <row r="8" s="15" customFormat="1" spans="1:7">
-      <c r="A8" s="23" t="s">
+        <v>21.0945872631665</v>
+      </c>
+    </row>
+    <row r="8" s="14" customFormat="1" spans="1:7">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>54.58</v>
-      </c>
-      <c r="D8" s="30">
+        <v>58.5081</v>
+      </c>
+      <c r="D8" s="29">
         <v>5</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="28">
+      <c r="E8" s="25"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="15" customFormat="1" spans="1:10">
-      <c r="A9" s="23" t="s">
+    <row r="9" s="14" customFormat="1" spans="1:10">
+      <c r="A9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="32">
-        <v>10</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="30">
+      <c r="B9" s="31">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="29">
         <v>6</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="28">
+      <c r="E9" s="25"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="23" t="s">
+    <row r="10" s="14" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>10</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>7</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="28">
+      <c r="E10" s="25"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <f>G18/E18</f>
-        <v>0.062769671590472</v>
-      </c>
-      <c r="J10" s="40">
+        <v>1.53259776147591</v>
+      </c>
+      <c r="J10" s="39">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>0.0523041794294893</v>
-      </c>
-    </row>
-    <row r="11" s="15" customFormat="1" spans="4:7">
-      <c r="D11" s="30">
+        <v>1.79946556673065</v>
+      </c>
+    </row>
+    <row r="11" s="14" customFormat="1" spans="4:7">
+      <c r="D11" s="29">
         <v>8</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="28">
+      <c r="E11" s="25"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="15" customFormat="1" spans="4:7">
-      <c r="D12" s="30">
+    <row r="12" s="14" customFormat="1" spans="4:7">
+      <c r="D12" s="29">
         <v>9</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="28">
+      <c r="E12" s="25"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="15" customFormat="1" spans="4:10">
-      <c r="D13" s="30">
+    <row r="13" s="14" customFormat="1" spans="4:10">
+      <c r="D13" s="29">
         <v>10</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="28">
+      <c r="E13" s="25"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="41"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="4:9">
-      <c r="D14" s="30">
+      <c r="I13" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" s="14" customFormat="1" spans="4:9">
+      <c r="D14" s="29">
         <v>11</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="28">
+      <c r="E14" s="25"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="4:9">
-      <c r="D15" s="30">
+      <c r="I14" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="14" customFormat="1" spans="4:9">
+      <c r="D15" s="29">
         <v>12</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="28">
+      <c r="E15" s="25"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>0.0523041794294893</v>
-      </c>
-    </row>
-    <row r="16" s="15" customFormat="1" spans="4:9">
-      <c r="D16" s="30">
+        <v>1.79946556673065</v>
+      </c>
+    </row>
+    <row r="16" s="14" customFormat="1" spans="4:9">
+      <c r="D16" s="29">
         <v>13</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="28">
+      <c r="E16" s="25"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="15" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="33" t="s">
+      <c r="I16" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" s="14" customFormat="1" ht="18.15" spans="4:10">
+      <c r="D17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35">
+      <c r="E17" s="33"/>
+      <c r="F17" s="34">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>0.0611550499024949</v>
-      </c>
-      <c r="G17" s="36">
+        <v>1.5719391254734</v>
+      </c>
+      <c r="G17" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>16.6728483610089</v>
-      </c>
-      <c r="J17" s="39" t="str">
+        <v>17.4127753519455</v>
+      </c>
+      <c r="J17" s="38" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
-        <v>TIENE QUE SUBIR</v>
-      </c>
-    </row>
-    <row r="18" s="15" customFormat="1" spans="4:8">
-      <c r="D18" s="37"/>
-      <c r="E18" s="37">
+        <v>TIENE QUE BAJAR</v>
+      </c>
+    </row>
+    <row r="18" s="14" customFormat="1" spans="4:8">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36">
         <f>SUM(E3:E17)</f>
-        <v>5215.2349034749</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37">
+        <v>243.600009892328</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36">
         <f>SUM(G3:G17)</f>
-        <v>327.358582158287</v>
-      </c>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" s="15" customFormat="1"/>
-    <row r="20" s="15" customFormat="1"/>
-    <row r="21" s="15" customFormat="1"/>
-    <row r="22" s="15" customFormat="1" spans="16376:16384">
-      <c r="XEV22" s="16"/>
-      <c r="XEW22" s="16"/>
-      <c r="XEX22" s="16"/>
-      <c r="XEY22" s="16"/>
-      <c r="XEZ22" s="16"/>
-      <c r="XFA22" s="16"/>
-      <c r="XFB22" s="16"/>
-      <c r="XFC22" s="16"/>
-      <c r="XFD22" s="16"/>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="16376:16384">
-      <c r="XEV23" s="16"/>
-      <c r="XEW23" s="16"/>
-      <c r="XEX23" s="16"/>
-      <c r="XEY23" s="16"/>
-      <c r="XEZ23" s="16"/>
-      <c r="XFA23" s="16"/>
-      <c r="XFB23" s="16"/>
-      <c r="XFC23" s="16"/>
-      <c r="XFD23" s="16"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="16376:16384">
-      <c r="XEV24" s="16"/>
-      <c r="XEW24" s="16"/>
-      <c r="XEX24" s="16"/>
-      <c r="XEY24" s="16"/>
-      <c r="XEZ24" s="16"/>
-      <c r="XFA24" s="16"/>
-      <c r="XFB24" s="16"/>
-      <c r="XFC24" s="16"/>
-      <c r="XFD24" s="16"/>
+        <v>373.340829856492</v>
+      </c>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" s="14" customFormat="1"/>
+    <row r="20" s="14" customFormat="1"/>
+    <row r="21" s="14" customFormat="1"/>
+    <row r="22" s="14" customFormat="1" spans="16376:16384">
+      <c r="XEV22" s="15"/>
+      <c r="XEW22" s="15"/>
+      <c r="XEX22" s="15"/>
+      <c r="XEY22" s="15"/>
+      <c r="XEZ22" s="15"/>
+      <c r="XFA22" s="15"/>
+      <c r="XFB22" s="15"/>
+      <c r="XFC22" s="15"/>
+      <c r="XFD22" s="15"/>
+    </row>
+    <row r="23" s="14" customFormat="1" spans="16376:16384">
+      <c r="XEV23" s="15"/>
+      <c r="XEW23" s="15"/>
+      <c r="XEX23" s="15"/>
+      <c r="XEY23" s="15"/>
+      <c r="XEZ23" s="15"/>
+      <c r="XFA23" s="15"/>
+      <c r="XFB23" s="15"/>
+      <c r="XFC23" s="15"/>
+      <c r="XFD23" s="15"/>
+    </row>
+    <row r="24" s="14" customFormat="1" spans="16376:16384">
+      <c r="XEV24" s="15"/>
+      <c r="XEW24" s="15"/>
+      <c r="XEX24" s="15"/>
+      <c r="XEY24" s="15"/>
+      <c r="XEZ24" s="15"/>
+      <c r="XFA24" s="15"/>
+      <c r="XFB24" s="15"/>
+      <c r="XFC24" s="15"/>
+      <c r="XFD24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2892,7 +2892,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2925,31 +2925,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2957,37 +2957,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>538.63</v>
+        <v>650</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6">
-        <v>1678</v>
+        <v>820</v>
       </c>
       <c r="F3" s="6">
-        <v>0.006075</v>
+        <v>0.006817</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>276213.991769547</v>
+        <v>120287.51650286</v>
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-3.31640742129513</v>
+        <v>-3.81231671554252</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.006075</v>
+        <v>0.00695562261981749</v>
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.00587999539630512</v>
-      </c>
-      <c r="K3" s="12">
+        <v>0.00723130278462733</v>
+      </c>
+      <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-53.8630000000001</v>
+        <v>-64.9999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2996,26 +2996,26 @@
       </c>
       <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-53.863</v>
+        <v>-65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="F4" s="6">
-        <v>0.006031</v>
+        <v>0.0071</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115492.957746479</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="2"/>
@@ -3032,20 +3032,20 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>0.654129190515129</v>
-      </c>
-      <c r="I6" s="11"/>
+        <v>-8.79047364195879</v>
+      </c>
+      <c r="I6" s="8"/>
       <c r="J6" s="6">
-        <v>0.006115</v>
-      </c>
-      <c r="K6" s="14">
+        <v>0.007474</v>
+      </c>
+      <c r="K6" s="13">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>11.0485596707819</v>
+        <v>-154.907771581816</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -142,7 +142,7 @@
     <t>Soporta una varación en contra %</t>
   </si>
   <si>
-    <t>VA 6. Probando 9 automatico y X manual</t>
+    <t>Automáico 6. manual 19</t>
   </si>
   <si>
     <t>peor de los casos</t>
@@ -188,9 +188,9 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
@@ -249,9 +249,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +288,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +318,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -310,6 +340,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -318,14 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,48 +378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +420,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,6 +432,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,169 +450,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +877,26 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,30 +916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -937,15 +927,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,32 +949,45 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,170 +999,170 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1220,9 +1214,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1238,7 +1229,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,10 +1298,10 @@
     <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,7 +1322,7 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1784,78 +1775,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5740740740741" style="72" customWidth="1"/>
-    <col min="2" max="2" width="34.287037037037" style="72" customWidth="1"/>
-    <col min="3" max="3" width="14.1481481481481" style="73" customWidth="1"/>
+    <col min="1" max="1" width="20.5740740740741" style="71" customWidth="1"/>
+    <col min="2" max="2" width="34.287037037037" style="71" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="72" customWidth="1"/>
     <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="76">
+      <c r="A2" s="75">
         <v>650</v>
       </c>
-      <c r="B2" s="77">
+      <c r="B2" s="76">
         <v>0.82</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="75">
         <v>30</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="77">
         <f>POWER(1+(B2/100),C2)*A2</f>
         <v>830.451262564387</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="77">
         <f>D2-A2</f>
         <v>180.451262564387</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
     </row>
     <row r="4" ht="19.5" customHeight="1"/>
     <row r="5" ht="19.5" customHeight="1"/>
     <row r="6" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="79"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>4.5</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="80">
         <f>A9*100/A2</f>
         <v>0.692307692307692</v>
       </c>
@@ -1881,459 +1872,459 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="58.7777777777778" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889" style="43" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="43"/>
-    <col min="4" max="4" width="8.44444444444444" style="43" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="43" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="43" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" style="43" customWidth="1"/>
-    <col min="8" max="8" width="9" style="43" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" style="43" customWidth="1"/>
-    <col min="10" max="10" width="20" style="43" customWidth="1"/>
-    <col min="11" max="16374" width="8.44444444444444" style="43" customWidth="1"/>
-    <col min="16375" max="16375" width="8.44444444444444" style="43"/>
+    <col min="1" max="1" width="58.7777777777778" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889" style="42" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="42"/>
+    <col min="4" max="4" width="8.44444444444444" style="42" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="42" customWidth="1"/>
+    <col min="7" max="7" width="15.6666666666667" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9" style="42" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" style="42" customWidth="1"/>
+    <col min="10" max="10" width="20" style="42" customWidth="1"/>
+    <col min="11" max="16374" width="8.44444444444444" style="42" customWidth="1"/>
+    <col min="16375" max="16375" width="8.44444444444444" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="1" ht="15.75" spans="1:2">
-      <c r="A1" s="44" t="s">
+    <row r="1" s="42" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="43" customFormat="1" ht="15.15" spans="4:7">
-      <c r="D2" s="46" t="s">
+    <row r="2" s="42" customFormat="1" ht="15.15" spans="4:7">
+      <c r="D2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="43" customFormat="1" spans="1:10">
-      <c r="A3" s="50" t="s">
+    <row r="3" s="42" customFormat="1" spans="1:10">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="50">
         <v>328.24</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="52">
         <f>G3/F3</f>
         <v>3607.69371679795</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>0.005459</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="54">
         <f>B8</f>
         <v>19.6944</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="67">
         <f>IF(B1="BUY",(J10/I10)-1,(I10/J10)-1)*100</f>
         <v>-1.1306113867434</v>
       </c>
     </row>
-    <row r="4" s="43" customFormat="1" spans="1:10">
-      <c r="A4" s="50" t="s">
+    <row r="4" s="42" customFormat="1" spans="1:10">
+      <c r="A4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="55">
         <f>-B3*$B$19/100</f>
         <v>-32.824</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="56">
         <v>1</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="57">
         <f t="shared" ref="E4:E11" si="0">E3*(1+$B$6/100)</f>
         <v>4690.00183183733</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="58">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
         <v>0.005551803</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="54">
         <f t="shared" ref="G4:G17" si="1">E4*F4</f>
         <v>26.03796624</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="67">
         <f>E18</f>
         <v>462001.227212826</v>
       </c>
     </row>
-    <row r="5" s="43" customFormat="1" spans="1:10">
-      <c r="A5" s="50" t="s">
+    <row r="5" s="42" customFormat="1" spans="1:10">
+      <c r="A5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="55">
         <v>1.7</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <v>2</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="57">
         <f t="shared" si="0"/>
         <v>6097.00238138853</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="58">
         <f t="shared" ref="F5:F12" si="2">IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
         <v>0.005646183651</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="54">
         <f t="shared" si="1"/>
         <v>34.424795165904</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="67">
         <f>J4*J10</f>
         <v>2903.20797975916</v>
       </c>
     </row>
-    <row r="6" s="43" customFormat="1" spans="1:10">
-      <c r="A6" s="50" t="s">
+    <row r="6" s="42" customFormat="1" spans="1:10">
+      <c r="A6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="55">
         <v>30</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <v>3</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="57">
         <f t="shared" si="0"/>
         <v>7926.10309580509</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="58">
         <f t="shared" si="2"/>
         <v>0.005742168773067</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="54">
         <f t="shared" si="1"/>
         <v>45.5130216888417</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="67">
         <f>J3/100*J4*J10</f>
         <v>-32.824</v>
       </c>
     </row>
-    <row r="7" s="43" customFormat="1" spans="1:10">
-      <c r="A7" s="50" t="s">
+    <row r="7" s="42" customFormat="1" spans="1:10">
+      <c r="A7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="55">
         <v>10</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>4</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="57">
         <f t="shared" si="0"/>
         <v>10303.9340245466</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="58">
         <f t="shared" si="2"/>
         <v>0.00583978564220914</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="54">
         <f t="shared" si="1"/>
         <v>60.1727659748174</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="64">
         <f>IF(B1="BUY",(J10/F3)-1,(F3/J10)-1)*100</f>
         <v>-13.1283491593311</v>
       </c>
     </row>
-    <row r="8" s="43" customFormat="1" spans="1:7">
-      <c r="A8" s="50" t="s">
+    <row r="8" s="42" customFormat="1" spans="1:7">
+      <c r="A8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <f>B3*$B$18/100</f>
         <v>19.6944</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <v>5</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="57">
         <f t="shared" si="0"/>
         <v>13395.1142319106</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="58">
         <f t="shared" si="2"/>
         <v>0.00593906199812669</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="54">
         <f t="shared" si="1"/>
         <v>79.5544138953063</v>
       </c>
     </row>
-    <row r="9" s="43" customFormat="1" spans="1:10">
-      <c r="A9" s="60" t="s">
+    <row r="9" s="42" customFormat="1" spans="1:10">
+      <c r="A9" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="60">
         <v>8</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="56">
         <v>6</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="57">
         <f t="shared" si="0"/>
         <v>17413.6485014838</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="58">
         <f t="shared" si="2"/>
         <v>0.00604002605209485</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="54">
         <f t="shared" si="1"/>
         <v>105.178890610985</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="43" customFormat="1" ht="17.4" spans="1:10">
-      <c r="A10" s="60" t="s">
+    <row r="10" s="42" customFormat="1" ht="17.4" spans="1:10">
+      <c r="A10" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$E$3</f>
         <v>115500.306803206</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>7</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <f t="shared" si="0"/>
         <v>22637.7430519289</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="58">
         <f>IF($B$1="BUY",F9*(1-$B$5/100),F9*(1+$B$5/100))</f>
         <v>0.00614270649498046</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="54">
         <f t="shared" si="1"/>
         <v>139.057011276782</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="68">
         <f>G18/E18</f>
         <v>0.00621293583368965</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="69">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
         <v>0.00628398326401364</v>
       </c>
     </row>
-    <row r="11" s="43" customFormat="1" spans="1:7">
-      <c r="A11" s="60" t="s">
+    <row r="11" s="42" customFormat="1" spans="1:7">
+      <c r="A11" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <f>((1-POWER(1+$B$6/100,$B$9+1))/(1-(1+$B$6/100)))*$G$3</f>
         <v>630.516174838704</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <v>8</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="57">
         <f t="shared" si="0"/>
         <v>29429.0659675076</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="58">
         <f>IF($B$1="BUY",F10*(1-$B$5/100),F10*(1+$B$5/100))</f>
         <v>0.00624713250539512</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="54">
         <f t="shared" si="1"/>
         <v>183.847274609034</v>
       </c>
     </row>
-    <row r="12" s="43" customFormat="1" spans="1:7">
-      <c r="A12" s="60" t="s">
+    <row r="12" s="42" customFormat="1" spans="1:7">
+      <c r="A12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="60">
         <f>B10*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <v>9</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="55">
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="43" customFormat="1" spans="1:7">
-      <c r="A13" s="60" t="s">
+    <row r="13" s="42" customFormat="1" spans="1:7">
+      <c r="A13" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="60">
         <f>B11*3</f>
         <v>1891.54852451611</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <v>10</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="55">
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="43" customFormat="1" spans="1:7">
-      <c r="A14" s="60" t="s">
+    <row r="14" s="42" customFormat="1" spans="1:7">
+      <c r="A14" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="60">
         <f>B12+B10</f>
         <v>462001.227212826</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <v>11</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="55">
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="43" customFormat="1" spans="1:7">
-      <c r="A15" s="60" t="s">
+    <row r="15" s="42" customFormat="1" spans="1:7">
+      <c r="A15" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="60">
         <f>B13+B11</f>
         <v>2522.06469935482</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <v>12</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="55">
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="43" customFormat="1" spans="1:7">
-      <c r="A16" s="60" t="s">
+    <row r="16" s="42" customFormat="1" spans="1:7">
+      <c r="A16" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <f>B15/B14</f>
         <v>0.005459</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <v>13</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="55">
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="43" customFormat="1" ht="18.15" spans="1:10">
-      <c r="A17" s="60" t="s">
+    <row r="17" s="42" customFormat="1" ht="18.15" spans="1:10">
+      <c r="A17" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="60">
         <f>IF(B1="BUY",((B4/B15)+1)*B16,((B4/-B15)+1)*B16)</f>
         <v>0.00553004743032399</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <f>SUM(E3:E15)*3</f>
         <v>346500.920409619</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="62">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>0.0062825329229257</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="63">
         <f t="shared" si="1"/>
         <v>2176.90344029749</v>
       </c>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" s="43" customFormat="1" spans="1:10">
-      <c r="A18" s="50" t="s">
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" s="42" customFormat="1" spans="1:10">
+      <c r="A18" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <v>6</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67">
+      <c r="D18" s="65"/>
+      <c r="E18" s="66">
         <f>SUM(E3:E17)</f>
         <v>462001.227212826</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66">
         <f>SUM(G3:G17)</f>
         <v>2870.38397975916</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" s="43" customFormat="1" spans="1:10">
-      <c r="A19" s="50" t="s">
+      <c r="H18" s="65"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" s="42" customFormat="1" spans="1:10">
+      <c r="A19" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="64">
         <v>10</v>
       </c>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" s="43" customFormat="1" spans="10:10">
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" s="43" customFormat="1" spans="10:10">
-      <c r="J21" s="71"/>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" s="42" customFormat="1" spans="10:10">
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" s="42" customFormat="1" spans="10:10">
+      <c r="J21" s="70"/>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="71"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="71"/>
+      <c r="J23" s="70"/>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="71"/>
+      <c r="J24" s="70"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">
@@ -2408,7 +2399,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2464,21 +2455,21 @@
       </c>
       <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>39.3728802153432</v>
+        <v>26.2485868102288</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="27">
         <f>B8</f>
-        <v>58.5081</v>
+        <v>39.0054</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="36">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-14.8303924336603</v>
+        <v>-20.7099083127727</v>
       </c>
     </row>
     <row r="4" s="14" customFormat="1" spans="1:10">
@@ -2494,7 +2485,7 @@
       </c>
       <c r="E4" s="25">
         <f>E3*(1+$B$6/100)</f>
-        <v>51.1847442799462</v>
+        <v>34.1231628532974</v>
       </c>
       <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2502,14 +2493,14 @@
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>77.35355901</v>
+        <v>51.56903934</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <f>E18</f>
-        <v>243.600009892328</v>
+        <v>162.400006594886</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:10">
@@ -2524,7 +2515,7 @@
       </c>
       <c r="E5" s="25">
         <f>E4*(1+$B$6/100)</f>
-        <v>66.54016756393</v>
+        <v>44.3601117092867</v>
       </c>
       <c r="F5" s="30">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2532,14 +2523,14 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>102.269140367121</v>
+        <v>68.179426911414</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>438.349829856492</v>
+        <v>313.902886570994</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:10">
@@ -2554,7 +2545,7 @@
       </c>
       <c r="E6" s="25">
         <f>E5*(1+$B$6/100)</f>
-        <v>86.502217833109</v>
+        <v>57.6681452220727</v>
       </c>
       <c r="F6" s="30">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2562,12 +2553,12 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="0"/>
-        <v>135.210030479371</v>
+        <v>90.1400203195805</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
         <v>-65.009</v>
       </c>
@@ -2593,7 +2584,7 @@
       </c>
       <c r="J7" s="28">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>21.0945872631665</v>
+        <v>30.0739885166909</v>
       </c>
     </row>
     <row r="8" s="14" customFormat="1" spans="1:7">
@@ -2602,7 +2593,7 @@
       </c>
       <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>58.5081</v>
+        <v>39.0054</v>
       </c>
       <c r="D8" s="29">
         <v>5</v>
@@ -2618,8 +2609,8 @@
       <c r="A9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="31">
-        <v>9</v>
+      <c r="B9" s="28">
+        <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>41</v>
@@ -2656,13 +2647,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <f>G18/E18</f>
         <v>1.53259776147591</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>1.79946556673065</v>
+        <v>1.93289946935803</v>
       </c>
     </row>
     <row r="11" s="14" customFormat="1" spans="4:7">
@@ -2697,10 +2688,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" s="14" customFormat="1" spans="4:9">
       <c r="D14" s="29">
@@ -2712,7 +2703,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2728,7 +2719,7 @@
       </c>
       <c r="I15" s="28">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>1.79946556673065</v>
+        <v>1.93289946935803</v>
       </c>
     </row>
     <row r="16" s="14" customFormat="1" spans="4:9">
@@ -2741,44 +2732,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" s="14" customFormat="1" ht="18.15" spans="4:10">
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34">
+      <c r="E17" s="32"/>
+      <c r="F17" s="33">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
         <v>1.5719391254734</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="28">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>17.4127753519455</v>
-      </c>
-      <c r="J17" s="38" t="str">
+        <v>26.1191630279183</v>
+      </c>
+      <c r="J17" s="37" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
         <v>TIENE QUE BAJAR</v>
       </c>
     </row>
     <row r="18" s="14" customFormat="1" spans="4:8">
-      <c r="D18" s="36"/>
-      <c r="E18" s="36">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>243.600009892328</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36">
+        <v>162.400006594886</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>373.340829856492</v>
-      </c>
-      <c r="H18" s="36"/>
+        <v>248.893886570994</v>
+      </c>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" s="14" customFormat="1"/>
     <row r="20" s="14" customFormat="1"/>

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -186,11 +186,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
@@ -249,19 +249,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,14 +263,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -287,8 +278,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,22 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,23 +318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,14 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,12 +355,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -432,73 +432,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,31 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,67 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,45 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -942,15 +903,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,22 +926,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,170 +999,170 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1801,21 +1801,21 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
       <c r="A2" s="75">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="76">
         <v>0.82</v>
       </c>
       <c r="C2" s="75">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D2" s="77">
         <f>POWER(1+(B2/100),C2)*A2</f>
-        <v>830.451262564387</v>
+        <v>1921.92062835013</v>
       </c>
       <c r="E2" s="77">
         <f>D2-A2</f>
-        <v>180.451262564387</v>
+        <v>921.920628350126</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:2">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B9" s="80">
         <f>A9*100/A2</f>
-        <v>0.692307692307692</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2398,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2882,8 +2882,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2948,37 +2948,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>650</v>
+        <v>634.98</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="6">
-        <v>820</v>
+        <v>1400</v>
       </c>
       <c r="F3" s="6">
-        <v>0.006817</v>
+        <v>1.4967</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>120287.51650286</v>
+        <v>935.391193960045</v>
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-3.81231671554252</v>
+        <v>-1.83334882826552</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.00695562261981749</v>
+        <v>1.51031858476198</v>
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.00723130278462733</v>
+        <v>1.53852511696645</v>
       </c>
       <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-64.9999999999999</v>
+        <v>-63.4979999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2987,21 +2987,21 @@
       </c>
       <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-65</v>
+        <v>-63.498</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="6">
-        <v>820</v>
+        <v>2000</v>
       </c>
       <c r="F4" s="6">
-        <v>0.0071</v>
+        <v>1.52</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>115492.957746479</v>
+        <v>1315.78947368421</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3028,15 +3028,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>-8.79047364195879</v>
+        <v>0.449664429530205</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6">
-        <v>0.007474</v>
+        <v>1.49</v>
       </c>
       <c r="K6" s="13">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>-154.907771581816</v>
+        <v>15.0829104732166</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -133,13 +133,16 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>650.09</t>
+    <t>639</t>
   </si>
   <si>
     <t>1.4860</t>
   </si>
   <si>
     <t>Soporta una varación en contra %</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Automáico 6. manual 19</t>
@@ -2399,7 +2402,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2455,14 +2458,14 @@
       </c>
       <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>26.2485868102288</v>
+        <v>25.8008075370121</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="27">
         <f>B8</f>
-        <v>39.0054</v>
+        <v>38.34</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>15</v>
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B4" s="28">
         <f>-B3*$B$10/100</f>
-        <v>-65.009</v>
+        <v>-63.9</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
       </c>
       <c r="E4" s="25">
         <f>E3*(1+$B$6/100)</f>
-        <v>34.1231628532974</v>
+        <v>33.5410497981158</v>
       </c>
       <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2493,14 +2496,14 @@
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>51.56903934</v>
+        <v>50.689314</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="36">
         <f>E18</f>
-        <v>162.400006594886</v>
+        <v>159.629596231494</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:10">
@@ -2515,7 +2518,7 @@
       </c>
       <c r="E5" s="25">
         <f>E4*(1+$B$6/100)</f>
-        <v>44.3601117092867</v>
+        <v>43.6033647375505</v>
       </c>
       <c r="F5" s="30">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2523,14 +2526,14 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>68.179426911414</v>
+        <v>67.0163420394</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>313.902886570994</v>
+        <v>308.547961849691</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:10">
@@ -2545,7 +2548,7 @@
       </c>
       <c r="E6" s="25">
         <f>E5*(1+$B$6/100)</f>
-        <v>57.6681452220727</v>
+        <v>56.6843741588156</v>
       </c>
       <c r="F6" s="30">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2553,14 +2556,14 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="0"/>
-        <v>90.1400203195805</v>
+        <v>88.6023058102908</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-65.009</v>
+        <v>-63.9</v>
       </c>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:10">
@@ -2593,7 +2596,7 @@
       </c>
       <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>39.0054</v>
+        <v>38.34</v>
       </c>
       <c r="D8" s="29">
         <v>5</v>
@@ -2609,11 +2612,11 @@
       <c r="A9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="28">
-        <v>6</v>
+      <c r="B9" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="29">
         <v>6</v>
@@ -2689,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="39"/>
     </row>
@@ -2704,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" s="14" customFormat="1" spans="4:9">
@@ -2733,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" s="14" customFormat="1" ht="18.15" spans="4:10">
@@ -2762,12 +2765,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>162.400006594886</v>
+        <v>159.629596231494</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>248.893886570994</v>
+        <v>244.647961849691</v>
       </c>
       <c r="H18" s="35"/>
     </row>
@@ -2883,7 +2886,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2922,25 +2925,25 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2952,33 +2955,33 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6">
-        <v>1400</v>
+        <v>491</v>
       </c>
       <c r="F3" s="6">
-        <v>1.4967</v>
+        <v>6.18</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>935.391193960045</v>
+        <v>79.4498381877023</v>
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-1.83334882826552</v>
+        <v>-11.4514389592027</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>1.51031858476198</v>
+        <v>6.18</v>
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>1.53852511696645</v>
+        <v>6.97922126272912</v>
       </c>
       <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-63.4979999999999</v>
+        <v>-63.498</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2991,17 +2994,17 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>1.52</v>
+        <v>6.368</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>1315.78947368421</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3028,15 +3031,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>0.449664429530205</v>
+        <v>1.42786804529789</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6">
-        <v>1.49</v>
+        <v>6.093</v>
       </c>
       <c r="K6" s="13">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>15.0829104732166</v>
+        <v>6.91213592233011</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>639</t>
+    <t>654</t>
   </si>
   <si>
     <t>1.4860</t>
@@ -142,7 +142,7 @@
     <t>Soporta una varación en contra %</t>
   </si>
   <si>
-    <t>6</t>
+    <t>19</t>
   </si>
   <si>
     <t>Automáico 6. manual 19</t>
@@ -189,11 +189,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
@@ -253,7 +253,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,47 +288,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,10 +351,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,21 +383,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,181 +435,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,26 +886,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,15 +913,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,6 +942,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -975,24 +973,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,170 +1002,170 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2401,15 +2401,15 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.8888888888889" style="14" customWidth="1"/>
-    <col min="3" max="3" width="39.7777777777778" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.44444444444444" style="14" customWidth="1"/>
     <col min="5" max="5" width="18.5555555555556" style="14" customWidth="1"/>
     <col min="6" max="6" width="17.1111111111111" style="14" customWidth="1"/>
@@ -2458,21 +2458,21 @@
       </c>
       <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>25.8008075370121</v>
+        <v>83.6204576043069</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="27">
         <f>B8</f>
-        <v>38.34</v>
+        <v>124.26</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="36">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-20.7099083127727</v>
+        <v>-7.61967408372449</v>
       </c>
     </row>
     <row r="4" s="14" customFormat="1" spans="1:10">
@@ -2481,14 +2481,14 @@
       </c>
       <c r="B4" s="28">
         <f>-B3*$B$10/100</f>
-        <v>-63.9</v>
+        <v>-65.4</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
       </c>
       <c r="E4" s="25">
         <f>E3*(1+$B$6/100)</f>
-        <v>33.5410497981158</v>
+        <v>108.706594885599</v>
       </c>
       <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2496,14 +2496,14 @@
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>50.689314</v>
+        <v>164.284146</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="36">
         <f>E18</f>
-        <v>159.629596231494</v>
+        <v>517.359771197847</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:10">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E5" s="25">
         <f>E4*(1+$B$6/100)</f>
-        <v>43.6033647375505</v>
+        <v>141.318573351279</v>
       </c>
       <c r="F5" s="30">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2526,14 +2526,14 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>67.0163420394</v>
+        <v>217.2000694266</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>308.547961849691</v>
+        <v>858.304427215508</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:10">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E6" s="25">
         <f>E5*(1+$B$6/100)</f>
-        <v>56.6843741588156</v>
+        <v>183.714145356662</v>
       </c>
       <c r="F6" s="30">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2556,14 +2556,14 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="0"/>
-        <v>88.6023058102908</v>
+        <v>287.160211788908</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-63.9</v>
+        <v>-65.4</v>
       </c>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:10">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="J7" s="28">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>30.0739885166909</v>
+        <v>11.6425859436671</v>
       </c>
     </row>
     <row r="8" s="14" customFormat="1" spans="1:7">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>38.34</v>
+        <v>124.26</v>
       </c>
       <c r="D8" s="29">
         <v>5</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="J10" s="38">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>1.93289946935803</v>
+        <v>1.65900882712289</v>
       </c>
     </row>
     <row r="11" s="14" customFormat="1" spans="4:7">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="I15" s="28">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>1.93289946935803</v>
+        <v>1.65900882712289</v>
       </c>
     </row>
     <row r="16" s="14" customFormat="1" spans="4:9">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="I17" s="28">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>26.1191630279183</v>
+        <v>8.2481567456584</v>
       </c>
       <c r="J17" s="37" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2765,12 +2765,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>159.629596231494</v>
+        <v>517.359771197847</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>244.647961849691</v>
+        <v>792.904427215508</v>
       </c>
       <c r="H18" s="35"/>
     </row>
@@ -2885,7 +2885,7 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2951,37 +2951,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>634.98</v>
+        <v>654</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="6">
-        <v>491</v>
+        <v>800</v>
       </c>
       <c r="F3" s="6">
-        <v>6.18</v>
+        <v>0.18028</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>79.4498381877023</v>
+        <v>4437.54160195252</v>
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-11.4514389592027</v>
+        <v>-2.0028174189992</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>6.18</v>
+        <v>0.186741861229859</v>
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>6.97922126272912</v>
+        <v>0.190558398018744</v>
       </c>
       <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-63.498</v>
+        <v>-65.4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2990,21 +2990,21 @@
       </c>
       <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-63.498</v>
+        <v>-65.4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="6">
-        <v>6.368</v>
+        <v>0.189</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12698.4126984127</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3031,15 +3031,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>1.42786804529789</v>
+        <v>0.46812304948729</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6">
-        <v>6.093</v>
+        <v>0.17944</v>
       </c>
       <c r="K6" s="13">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>6.91213592233011</v>
+        <v>14.3942016123067</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -133,7 +133,7 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>654</t>
+    <t>772.37</t>
   </si>
   <si>
     <t>1.4860</t>
@@ -189,12 +189,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -253,14 +253,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,28 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -305,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,17 +329,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,9 +352,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,25 +435,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,145 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,20 +884,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,6 +910,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,21 +948,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -967,6 +958,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,188 +984,188 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1220,7 +1220,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,31 +1274,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,10 +1310,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,19 +1322,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2458,14 +2458,14 @@
       </c>
       <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>83.6204576043069</v>
+        <v>98.7552489905787</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="27">
         <f>B8</f>
-        <v>124.26</v>
+        <v>146.7503</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>15</v>
@@ -2481,14 +2481,14 @@
       </c>
       <c r="B4" s="28">
         <f>-B3*$B$10/100</f>
-        <v>-65.4</v>
+        <v>-77.237</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
       </c>
       <c r="E4" s="25">
         <f>E3*(1+$B$6/100)</f>
-        <v>108.706594885599</v>
+        <v>128.381823687752</v>
       </c>
       <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2496,14 +2496,14 @@
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>164.284146</v>
+        <v>194.01857163</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="36">
         <f>E18</f>
-        <v>517.359771197847</v>
+        <v>610.998725504711</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:10">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E5" s="25">
         <f>E4*(1+$B$6/100)</f>
-        <v>141.318573351279</v>
+        <v>166.896370794078</v>
       </c>
       <c r="F5" s="30">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2526,14 +2526,14 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>217.2000694266</v>
+        <v>256.511953552023</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>858.304427215508</v>
+        <v>1013.65227897315</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:10">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E6" s="25">
         <f>E5*(1+$B$6/100)</f>
-        <v>183.714145356662</v>
+        <v>216.965282032302</v>
       </c>
       <c r="F6" s="30">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2556,14 +2556,14 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="0"/>
-        <v>287.160211788908</v>
+        <v>339.13445379113</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-65.4</v>
+        <v>-77.237</v>
       </c>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:10">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>124.26</v>
+        <v>146.7503</v>
       </c>
       <c r="D8" s="29">
         <v>5</v>
@@ -2765,12 +2765,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>517.359771197847</v>
+        <v>610.998725504711</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>792.904427215508</v>
+        <v>936.415278973153</v>
       </c>
       <c r="H18" s="35"/>
     </row>
@@ -2886,7 +2886,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2951,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>654</v>
+        <v>772.37</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-2.0028174189992</v>
+        <v>-2.3567718782621</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
@@ -2977,11 +2977,11 @@
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.190558398018744</v>
+        <v>0.1912491678348</v>
       </c>
       <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-65.4</v>
+        <v>-77.2370000000006</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-65.4</v>
+        <v>-77.237</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>772.37</t>
+    <t>771.17</t>
   </si>
   <si>
     <t>1.4860</t>
@@ -189,12 +189,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -259,10 +259,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,24 +283,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +308,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,22 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -368,12 +360,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -395,6 +388,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -441,97 +441,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,73 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,21 +880,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,6 +919,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,12 +987,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,170 +1002,170 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1220,7 +1220,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,31 +1274,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,10 +1310,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,19 +1322,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2401,8 +2401,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2458,14 +2458,14 @@
       </c>
       <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>98.7552489905787</v>
+        <v>98.6018169582773</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="27">
         <f>B8</f>
-        <v>146.7503</v>
+        <v>146.5223</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>15</v>
@@ -2481,14 +2481,14 @@
       </c>
       <c r="B4" s="28">
         <f>-B3*$B$10/100</f>
-        <v>-77.237</v>
+        <v>-77.117</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
       </c>
       <c r="E4" s="25">
         <f>E3*(1+$B$6/100)</f>
-        <v>128.381823687752</v>
+        <v>128.18236204576</v>
       </c>
       <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2496,14 +2496,14 @@
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>194.01857163</v>
+        <v>193.71713283</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="36">
         <f>E18</f>
-        <v>610.998725504711</v>
+        <v>610.049441520861</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:10">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E5" s="25">
         <f>E4*(1+$B$6/100)</f>
-        <v>166.896370794078</v>
+        <v>166.637070659489</v>
       </c>
       <c r="F5" s="30">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2526,14 +2526,14 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>256.511953552023</v>
+        <v>256.113421314543</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>1013.65227897315</v>
+        <v>1012.0774084645</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:10">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E6" s="25">
         <f>E5*(1+$B$6/100)</f>
-        <v>216.965282032302</v>
+        <v>216.628191857335</v>
       </c>
       <c r="F6" s="30">
         <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
@@ -2556,14 +2556,14 @@
       </c>
       <c r="G6" s="27">
         <f t="shared" si="0"/>
-        <v>339.13445379113</v>
+        <v>338.607554319957</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-77.237</v>
+        <v>-77.117</v>
       </c>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:10">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>146.7503</v>
+        <v>146.5223</v>
       </c>
       <c r="D8" s="29">
         <v>5</v>
@@ -2765,12 +2765,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>610.998725504711</v>
+        <v>610.049441520861</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>936.415278973153</v>
+        <v>934.9604084645</v>
       </c>
       <c r="H18" s="35"/>
     </row>
@@ -2885,7 +2885,7 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2951,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>772.37</v>
+        <v>771.17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-2.3567718782621</v>
+        <v>-2.35319642234317</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
@@ -2977,11 +2977,11 @@
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.1912491678348</v>
+        <v>0.191242165015003</v>
       </c>
       <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-77.2370000000006</v>
+        <v>-77.1169999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-77.237</v>
+        <v>-77.117</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>771.17</t>
+    <t>813</t>
   </si>
   <si>
     <t>1.4860</t>
@@ -142,7 +142,7 @@
     <t>Soporta una varación en contra %</t>
   </si>
   <si>
-    <t>19</t>
+    <t>6</t>
   </si>
   <si>
     <t>Automáico 6. manual 19</t>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>distancia entre posicion y precio</t>
+  </si>
+  <si>
+    <t>BUY</t>
   </si>
   <si>
     <t>Size</t>
@@ -189,11 +192,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
@@ -261,17 +264,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,6 +294,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -308,13 +311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,8 +340,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,15 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,20 +398,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -441,175 +444,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,6 +883,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,17 +941,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,8 +953,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,15 +976,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -990,7 +993,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,170 +1005,170 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2401,8 +2404,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2458,21 +2461,21 @@
       </c>
       <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>98.6018169582773</v>
+        <v>32.8263795423957</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="27">
         <f>B8</f>
-        <v>146.5223</v>
+        <v>48.78</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="36">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-7.61967408372449</v>
+        <v>-29.052631068355</v>
       </c>
     </row>
     <row r="4" s="14" customFormat="1" spans="1:10">
@@ -2481,14 +2484,14 @@
       </c>
       <c r="B4" s="28">
         <f>-B3*$B$10/100</f>
-        <v>-77.117</v>
+        <v>-81.3</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
       </c>
       <c r="E4" s="25">
         <f>E3*(1+$B$6/100)</f>
-        <v>128.18236204576</v>
+        <v>42.6742934051144</v>
       </c>
       <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2496,14 +2499,14 @@
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>193.71713283</v>
+        <v>64.492038</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="36">
         <f>E18</f>
-        <v>610.049441520861</v>
+        <v>130.977254374159</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:10">
@@ -2518,7 +2521,7 @@
       </c>
       <c r="E5" s="25">
         <f>E4*(1+$B$6/100)</f>
-        <v>166.637070659489</v>
+        <v>55.4765814266487</v>
       </c>
       <c r="F5" s="30">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2526,14 +2529,14 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>256.113421314543</v>
+        <v>85.2649234398</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>1012.0774084645</v>
+        <v>279.8369614398</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:10">
@@ -2546,24 +2549,18 @@
       <c r="D6" s="29">
         <v>3</v>
       </c>
-      <c r="E6" s="25">
-        <f>E5*(1+$B$6/100)</f>
-        <v>216.628191857335</v>
-      </c>
-      <c r="F6" s="30">
-        <f>IF($B$1="BUY",F5*(1-$B$5/100),F5*(1+$B$5/100))</f>
-        <v>1.563081662718</v>
-      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="27">
         <f t="shared" si="0"/>
-        <v>338.607554319957</v>
+        <v>0</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-77.117</v>
+        <v>-81.3</v>
       </c>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:10">
@@ -2587,7 +2584,7 @@
       </c>
       <c r="J7" s="28">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>11.6425859436671</v>
+        <v>43.7773202172097</v>
       </c>
     </row>
     <row r="8" s="14" customFormat="1" spans="1:7">
@@ -2596,7 +2593,7 @@
       </c>
       <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>146.5223</v>
+        <v>48.78</v>
       </c>
       <c r="D8" s="29">
         <v>5</v>
@@ -2652,11 +2649,11 @@
       </c>
       <c r="I10" s="37">
         <f>G18/E18</f>
-        <v>1.53259776147591</v>
+        <v>1.51581251560401</v>
       </c>
       <c r="J10" s="38">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>1.65900882712289</v>
+        <v>2.13653097842774</v>
       </c>
     </row>
     <row r="11" s="14" customFormat="1" spans="4:7">
@@ -2722,7 +2719,7 @@
       </c>
       <c r="I15" s="28">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>1.65900882712289</v>
+        <v>2.13653097842774</v>
       </c>
     </row>
     <row r="16" s="14" customFormat="1" spans="4:9">
@@ -2746,7 +2743,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="33">
         <f>IF(B1="BUY",MIN(F3:F16)*(1-($B$5/3)/100),MAX(F3:F16)*(1+($B$5/3)/100))</f>
-        <v>1.5719391254734</v>
+        <v>1.545662856906</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="0"/>
@@ -2754,7 +2751,7 @@
       </c>
       <c r="I17" s="28">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>8.2481567456584</v>
+        <v>40.94955388176</v>
       </c>
       <c r="J17" s="37" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2765,12 +2762,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>610.049441520861</v>
+        <v>130.977254374159</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>934.9604084645</v>
+        <v>198.5369614398</v>
       </c>
       <c r="H18" s="35"/>
     </row>
@@ -2885,8 +2882,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2919,31 +2916,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2951,37 +2948,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>771.17</v>
+        <v>809</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6">
-        <v>800</v>
+        <v>905</v>
       </c>
       <c r="F3" s="6">
-        <v>0.18028</v>
+        <v>0.216</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>4437.54160195252</v>
+        <v>4189.81481481481</v>
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-2.35319642234317</v>
+        <v>-9.81676980948916</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.186741861229859</v>
+        <v>0.216</v>
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.191242165015003</v>
+        <v>0.196691270718232</v>
       </c>
       <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-77.1169999999999</v>
+        <v>-80.9000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2990,21 +2987,21 @@
       </c>
       <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-77.117</v>
+        <v>-80.9</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>0.189</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>12698.4126984127</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3031,15 +3028,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>0.46812304948729</v>
+        <v>0.689655172413794</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6">
-        <v>0.17944</v>
+        <v>0.2175</v>
       </c>
       <c r="K6" s="13">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>14.3942016123067</v>
+        <v>6.28472222222223</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>SALDO INICIAL</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Porcentaje de pérdida</t>
   </si>
   <si>
-    <t>813</t>
+    <t>823</t>
   </si>
   <si>
     <t>1.4860</t>
@@ -142,7 +142,7 @@
     <t>Soporta una varación en contra %</t>
   </si>
   <si>
-    <t>6</t>
+    <t>26</t>
   </si>
   <si>
     <t>Automáico 6. manual 19</t>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>distancia entre posicion y precio</t>
-  </si>
-  <si>
-    <t>BUY</t>
   </si>
   <si>
     <t>Size</t>
@@ -2405,7 +2402,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44444444444444" defaultRowHeight="14.4"/>
@@ -2461,21 +2458,21 @@
       </c>
       <c r="E3" s="25">
         <f>G3/F3</f>
-        <v>32.8263795423957</v>
+        <v>143.99730820996</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="27">
         <f>B8</f>
-        <v>48.78</v>
+        <v>213.98</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="36">
         <f>IF(B1="BUY",((I10/J10)-1)*-100,((I10/J10)-1)*100)</f>
-        <v>-29.052631068355</v>
+        <v>-8.63399354807185</v>
       </c>
     </row>
     <row r="4" s="14" customFormat="1" spans="1:10">
@@ -2484,14 +2481,14 @@
       </c>
       <c r="B4" s="28">
         <f>-B3*$B$10/100</f>
-        <v>-81.3</v>
+        <v>-82.3</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
       </c>
       <c r="E4" s="25">
         <f>E3*(1+$B$6/100)</f>
-        <v>42.6742934051144</v>
+        <v>187.196500672948</v>
       </c>
       <c r="F4" s="30">
         <f>IF($B$1="BUY",F3*(1-$B$5/100),F3*(1+$B$5/100))</f>
@@ -2499,14 +2496,14 @@
       </c>
       <c r="G4" s="27">
         <f t="shared" ref="G4:G17" si="0">E4*F4</f>
-        <v>64.492038</v>
+        <v>282.902958</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="36">
         <f>E18</f>
-        <v>130.977254374159</v>
+        <v>574.549259757739</v>
       </c>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:10">
@@ -2521,7 +2518,7 @@
       </c>
       <c r="E5" s="25">
         <f>E4*(1+$B$6/100)</f>
-        <v>55.4765814266487</v>
+        <v>243.355450874832</v>
       </c>
       <c r="F5" s="30">
         <f>IF($B$1="BUY",F4*(1-$B$5/100),F4*(1+$B$5/100))</f>
@@ -2529,14 +2526,14 @@
       </c>
       <c r="G5" s="27">
         <f t="shared" si="0"/>
-        <v>85.2649234398</v>
+        <v>374.0260007718</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="36">
         <f>J4*J10</f>
-        <v>279.8369614398</v>
+        <v>953.2089587718</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:10">
@@ -2560,7 +2557,7 @@
       </c>
       <c r="J6" s="36">
         <f>J3/100*J4*J10</f>
-        <v>-81.3</v>
+        <v>-82.3000000000001</v>
       </c>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:10">
@@ -2584,7 +2581,7 @@
       </c>
       <c r="J7" s="28">
         <f>IF(B1="BUY",(((J10/F3)-1)*-1),(J10/F3)-1)*100</f>
-        <v>43.7773202172097</v>
+        <v>11.6457091382302</v>
       </c>
     </row>
     <row r="8" s="14" customFormat="1" spans="1:7">
@@ -2593,7 +2590,7 @@
       </c>
       <c r="B8" s="28">
         <f>B3*$B$9/100</f>
-        <v>48.78</v>
+        <v>213.98</v>
       </c>
       <c r="D8" s="29">
         <v>5</v>
@@ -2653,7 +2650,7 @@
       </c>
       <c r="J10" s="38">
         <f>IF(B1="BUY",((B4/G18)+1)*I10,((B4/-G18)+1)*I10)</f>
-        <v>2.13653097842774</v>
+        <v>1.6590552377941</v>
       </c>
     </row>
     <row r="11" s="14" customFormat="1" spans="4:7">
@@ -2719,7 +2716,7 @@
       </c>
       <c r="I15" s="28">
         <f>IF(B1="BUY",F3*(1-(J7)/100),F3*(1+(J7)/100))</f>
-        <v>2.13653097842774</v>
+        <v>1.6590552377941</v>
       </c>
     </row>
     <row r="16" s="14" customFormat="1" spans="4:9">
@@ -2751,7 +2748,7 @@
       </c>
       <c r="I17" s="28">
         <f>IF(B1="BUY",(((I15/I10)-1)*-1),((I15/I10)-1))*100</f>
-        <v>40.94955388176</v>
+        <v>9.44989704963695</v>
       </c>
       <c r="J17" s="37" t="str">
         <f>IF(B1="BUY","TIENE QUE SUBIR","TIENE QUE BAJAR")</f>
@@ -2762,12 +2759,12 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35">
         <f>SUM(E3:E17)</f>
-        <v>130.977254374159</v>
+        <v>574.549259757739</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f>SUM(G3:G17)</f>
-        <v>198.5369614398</v>
+        <v>870.9089587718</v>
       </c>
       <c r="H18" s="35"/>
     </row>
@@ -2883,7 +2880,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2916,31 +2913,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2948,37 +2945,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="6">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6">
-        <v>905</v>
+        <v>1042</v>
       </c>
       <c r="F3" s="6">
-        <v>0.216</v>
+        <v>1.0189641</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G6" si="0">E3/F3</f>
-        <v>4189.81481481481</v>
+        <v>1022.60717526751</v>
       </c>
       <c r="H3" s="9">
         <f>IF(A2="BUY",((I3/J3)-1)*-100,((I3/J3)-1)*100)</f>
-        <v>-9.81676980948916</v>
+        <v>-7.32835289932408</v>
       </c>
       <c r="I3" s="9">
         <f>SUM(E3:E4)/SUM(G3:G4)</f>
-        <v>0.216</v>
+        <v>1.0189641</v>
       </c>
       <c r="J3" s="9">
         <f>IF(A2="BUY",((B4/SUM(E3:E4))+1)*I3,((B4/-SUM(E3:E4))+1)*I3)</f>
-        <v>0.196691270718232</v>
+        <v>1.09954245109405</v>
       </c>
       <c r="K3" s="11">
         <f>H3/100*SUM(G3:G4)*J3</f>
-        <v>-80.9000000000001</v>
+        <v>-82.3999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2987,17 +2984,17 @@
       </c>
       <c r="B4" s="8">
         <f>-B3*10/100</f>
-        <v>-80.9</v>
+        <v>-82.4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>0.189</v>
+        <v>1.05</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
@@ -3028,15 +3025,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8">
         <f>IF(A2="BUY",((F3/J6)-1)*-100,((F3/J6)-1)*100)</f>
-        <v>0.689655172413794</v>
+        <v>0.708054951571468</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6">
-        <v>0.2175</v>
+        <v>1.0118</v>
       </c>
       <c r="K6" s="13">
         <f>H6/100*SUM(G3:G4)*J6</f>
-        <v>6.28472222222223</v>
+        <v>7.32606006433409</v>
       </c>
     </row>
     <row r="7" spans="3:11">

--- a/old/FORMULAss.xlsx
+++ b/old/FORMULAss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="formula ganancias" sheetId="1" r:id="rId1"/>
@@ -189,11 +189,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
     <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26">
@@ -253,6 +253,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -261,7 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +293,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,13 +346,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -375,7 +368,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +388,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -435,6 +435,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,163 +465,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,16 +885,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,26 +947,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,188 +984,188 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontI